--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,39 +596,39 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
-        </is>
-      </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0_HT</t>
@@ -656,57 +656,57 @@
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-0_HT</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-1_HT</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-2_HT</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-2_HT</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-0_HT</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-1_HT</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-2_HT</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CjOlb2fB</t>
+          <t>CpL6NMzi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Obolon</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Veres-Rivne</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.85</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>2.62</v>
+        <v>1.44</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>2.37</v>
+        <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.32</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.27</v>
+        <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="X2" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK2" t="n">
         <v>13</v>
       </c>
-      <c r="Y2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>30</v>
-      </c>
       <c r="AL2" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>15.5</v>
+        <v>41</v>
       </c>
       <c r="AP2" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="AR2" t="n">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="AS2" t="n">
-        <v>350</v>
+        <v>2.75</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>10</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.2</v>
+        <v>67</v>
       </c>
       <c r="AV2" t="n">
-        <v>75</v>
+        <v>3.25</v>
       </c>
       <c r="AW2" t="n">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.35</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
-        <v>120</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
-        <v>400</v>
+        <v>51</v>
       </c>
       <c r="BD2" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WImGq3uI</t>
+          <t>KlZCtGXp</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,172 +910,354 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kryvbas</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>2.85</v>
       </c>
       <c r="I3" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="K3" t="n">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>9.300000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="P3" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.02</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.93</v>
       </c>
       <c r="V3" t="n">
         <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="X3" t="n">
-        <v>7.3</v>
+        <v>9.25</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AB3" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.75</v>
+        <v>5.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="AE3" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF3" t="n">
         <v>100</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>8.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="AK3" t="n">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AL3" t="n">
         <v>50</v>
       </c>
       <c r="AM3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>450</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>WImGq3uI</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Kryvbas</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rukh Lviv</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL4" t="n">
         <v>60</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
         <v>3.45</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO4" t="n">
         <v>8.5</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP4" t="n">
         <v>19.5</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ4" t="n">
         <v>29</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR4" t="n">
         <v>70</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>200</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>500</v>
+      </c>
+      <c r="BB4" t="n">
         <v>300</v>
       </c>
-      <c r="AT3" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW3" t="n">
+      <c r="BC4" t="n">
         <v>81</v>
       </c>
-      <c r="AX3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>35</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD3" t="n">
+      <c r="BD4" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KlZCtGXp</t>
+          <t>v7mD6TE8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,167 +910,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Tampico Madero</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.18</v>
+        <v>1.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.85</v>
+        <v>4.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.45</v>
+        <v>9.25</v>
       </c>
       <c r="J3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN3" t="n">
         <v>2.92</v>
       </c>
-      <c r="K3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="X3" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>800</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.95</v>
-      </c>
       <c r="AO3" t="n">
-        <v>12.5</v>
+        <v>5.6</v>
       </c>
       <c r="AP3" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AR3" t="n">
         <v>55</v>
       </c>
-      <c r="AR3" t="n">
-        <v>110</v>
-      </c>
       <c r="AS3" t="n">
-        <v>2.35</v>
+        <v>2.77</v>
       </c>
       <c r="AT3" t="n">
-        <v>7.5</v>
+        <v>9.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AV3" t="n">
-        <v>5.2</v>
+        <v>9.5</v>
       </c>
       <c r="AW3" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AX3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AY3" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AZ3" t="n">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="BA3" t="n">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="BB3" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WImGq3uI</t>
+          <t>CzEBrXLa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,172 +1092,900 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kryvbas</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>S. Rzeszow</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.72</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>17</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>13</v>
+      </c>
+      <c r="X4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0ChQbD15</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Unirea Slobozia</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>FC Botosani</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KlZCtGXp</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mladost</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sp. Subotica</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>450</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>WImGq3uI</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Kryvbas</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Rukh Lviv</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
         <v>4.4</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J7" t="n">
         <v>2.3</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K7" t="n">
         <v>2.12</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L7" t="n">
         <v>4.7</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M7" t="n">
         <v>1.04</v>
       </c>
-      <c r="N4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="N7" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.35</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P7" t="n">
         <v>2.72</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q7" t="n">
         <v>2.02</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R7" t="n">
         <v>1.62</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S7" t="n">
         <v>1.4</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T7" t="n">
         <v>2.5</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U7" t="n">
         <v>1.93</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V7" t="n">
         <v>1.7</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W7" t="n">
         <v>6</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X7" t="n">
         <v>7.3</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y7" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z7" t="n">
         <v>13</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA7" t="n">
         <v>15</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB7" t="n">
         <v>32</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC7" t="n">
         <v>8.75</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD7" t="n">
         <v>6.9</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE7" t="n">
         <v>18.5</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF7" t="n">
         <v>100</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG7" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH7" t="n">
         <v>23</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI7" t="n">
         <v>15</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ7" t="n">
         <v>75</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK7" t="n">
         <v>50</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL7" t="n">
         <v>60</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM7" t="n">
         <v>1000</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN7" t="n">
         <v>3.45</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO7" t="n">
         <v>8.5</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP7" t="n">
         <v>19.5</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ7" t="n">
         <v>29</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR7" t="n">
         <v>70</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS7" t="n">
         <v>2.47</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT7" t="n">
         <v>7.9</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU7" t="n">
         <v>80</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV7" t="n">
         <v>6</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW7" t="n">
         <v>25</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX7" t="n">
         <v>35</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY7" t="n">
         <v>150</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ7" t="n">
         <v>200</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA7" t="n">
         <v>500</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB7" t="n">
         <v>300</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC7" t="n">
         <v>81</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD7" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>vPAs0OPb</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FK Zorya Luhansk</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LNZ Cherkasy</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X8" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD8" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H3" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="I3" t="n">
         <v>9.25</v>
@@ -941,7 +941,7 @@
         <v>1.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L3" t="n">
         <v>8</v>
@@ -950,16 +950,16 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
         <v>1.93</v>
@@ -971,16 +971,16 @@
         <v>2.99</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="V3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -989,31 +989,31 @@
         <v>7.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AB3" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
         <v>28</v>
       </c>
       <c r="AF3" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>65</v>
       </c>
       <c r="AI3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ3" t="n">
         <v>300</v>
@@ -1028,28 +1028,28 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="AT3" t="n">
         <v>9.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AV3" t="n">
         <v>9.5</v>
@@ -1070,7 +1070,7 @@
         <v>501</v>
       </c>
       <c r="BB3" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1484,7 +1484,7 @@
         <v>3.45</v>
       </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
@@ -1499,10 +1499,10 @@
         <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="Q6" t="n">
         <v>2.42</v>
@@ -1517,7 +1517,7 @@
         <v>2.37</v>
       </c>
       <c r="U6" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="V6" t="n">
         <v>1.7</v>
@@ -1547,16 +1547,16 @@
         <v>5.7</v>
       </c>
       <c r="AE6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>12.5</v>
@@ -1577,7 +1577,7 @@
         <v>3.95</v>
       </c>
       <c r="AO6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>24</v>
@@ -1592,7 +1592,7 @@
         <v>2.35</v>
       </c>
       <c r="AT6" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AU6" t="n">
         <v>80</v>
@@ -1666,25 +1666,25 @@
         <v>4.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="K7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="O7" t="n">
         <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q7" t="n">
         <v>2.02</v>
@@ -1693,19 +1693,19 @@
         <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="U7" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X7" t="n">
         <v>7.3</v>
@@ -1717,10 +1717,10 @@
         <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC7" t="n">
         <v>8.75</v>
@@ -1729,10 +1729,10 @@
         <v>6.9</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG7" t="n">
         <v>10.5</v>
@@ -1744,7 +1744,7 @@
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK7" t="n">
         <v>50</v>
@@ -1762,25 +1762,25 @@
         <v>8.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR7" t="n">
         <v>70</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="AT7" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AU7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AV7" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AW7" t="n">
         <v>25</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
         <v>3.2</v>
@@ -1311,10 +1311,10 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1416,7 +1416,7 @@
         <v>67</v>
       </c>
       <c r="AV5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AW5" t="n">
         <v>19</v>
@@ -1425,7 +1425,7 @@
         <v>29</v>
       </c>
       <c r="AY5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AZ5" t="n">
         <v>101</v>
@@ -1657,46 +1657,46 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>9.050000000000001</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
         <v>1.98</v>
@@ -1708,25 +1708,25 @@
         <v>5.9</v>
       </c>
       <c r="X7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC7" t="n">
         <v>8.75</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>19</v>
@@ -1735,16 +1735,16 @@
         <v>110</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="n">
         <v>50</v>
@@ -1756,22 +1756,22 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR7" t="n">
         <v>70</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="AT7" t="n">
         <v>8</v>
@@ -1780,10 +1780,10 @@
         <v>90</v>
       </c>
       <c r="AV7" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AW7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX7" t="n">
         <v>35</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CzEBrXLa</t>
+          <t>l2nM5b0K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,131 +1092,131 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>S. Rzeszow</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.63</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="U4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="n">
         <v>17</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>13</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="AB4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH4" t="n">
         <v>17</v>
       </c>
-      <c r="Y4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AI4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK4" t="n">
         <v>29</v>
       </c>
-      <c r="AA4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP4" t="n">
         <v>23</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
@@ -1225,37 +1225,37 @@
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="AT4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AV4" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AW4" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="n">
         <v>81</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0ChQbD15</t>
+          <t>CzEBrXLa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1279,174 +1279,174 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>S. Rzeszow</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I5" t="n">
         <v>2.4</v>
       </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>3.1</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
+        <v>17</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>13</v>
+      </c>
+      <c r="X5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD5" t="n">
         <v>7</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="AE5" t="n">
         <v>11</v>
       </c>
-      <c r="Y5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AF5" t="n">
         <v>34</v>
       </c>
-      <c r="AC5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
         <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ5" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>41</v>
       </c>
-      <c r="AM5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
+      <c r="AR5" t="n">
         <v>51</v>
       </c>
-      <c r="AR5" t="n">
-        <v>81</v>
-      </c>
       <c r="AS5" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AV5" t="n">
         <v>4.75</v>
       </c>
       <c r="AW5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX5" t="n">
         <v>19</v>
       </c>
-      <c r="AX5" t="n">
-        <v>29</v>
-      </c>
       <c r="AY5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>51</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="BA5" t="n">
         <v>101</v>
       </c>
-      <c r="BA5" t="n">
-        <v>251</v>
-      </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KlZCtGXp</t>
+          <t>0ChQbD15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,167 +1456,167 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>2.42</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="U6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
         <v>8</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.95</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AT6" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AV6" t="n">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="AW6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AZ6" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>450</v>
+        <v>251</v>
       </c>
       <c r="BB6" t="n">
-        <v>400</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WImGq3uI</t>
+          <t>KlZCtGXp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,354 +1638,1082 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Kryvbas</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.7</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.65</v>
-      </c>
       <c r="W7" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X7" t="n">
-        <v>7.2</v>
+        <v>9.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AB7" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.75</v>
+        <v>5.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>110</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.75</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP7" t="n">
         <v>24</v>
       </c>
-      <c r="AI7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AR7" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="AT7" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AU7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AV7" t="n">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="AW7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AX7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AY7" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AZ7" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BA7" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>W4IPI5u9</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Y7BGrRBs</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>OtG5QqdD</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WImGq3uI</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Kryvbas</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Rukh Lviv</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>175</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>200</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>500</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>vPAs0OPb</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>04/11/2024</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>FK Zorya Luhansk</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>LNZ Cherkasy</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G12" t="n">
         <v>2.8</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H12" t="n">
         <v>3.1</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I12" t="n">
         <v>2.45</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J12" t="n">
         <v>3.35</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K12" t="n">
         <v>2.07</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L12" t="n">
         <v>2.95</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M12" t="n">
         <v>1.03</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N12" t="n">
         <v>9.9</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O12" t="n">
         <v>1.32</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P12" t="n">
         <v>2.82</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q12" t="n">
         <v>1.93</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R12" t="n">
         <v>1.7</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S12" t="n">
         <v>1.39</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T12" t="n">
         <v>2.57</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U12" t="n">
         <v>1.72</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V12" t="n">
         <v>1.9</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W12" t="n">
         <v>8.25</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X12" t="n">
         <v>14</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y12" t="n">
         <v>10.25</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z12" t="n">
         <v>35</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA12" t="n">
         <v>25</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB12" t="n">
         <v>35</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC12" t="n">
         <v>8.75</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD12" t="n">
         <v>6</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE12" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF12" t="n">
         <v>65</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG12" t="n">
         <v>7.9</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH12" t="n">
         <v>12</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI12" t="n">
         <v>9.25</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ12" t="n">
         <v>27</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK12" t="n">
         <v>20</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL12" t="n">
         <v>30</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM12" t="n">
         <v>500</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN12" t="n">
         <v>4.75</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO12" t="n">
         <v>15</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP12" t="n">
         <v>22</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ12" t="n">
         <v>70</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR12" t="n">
         <v>100</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS12" t="n">
         <v>2.55</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT12" t="n">
         <v>6.6</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU12" t="n">
         <v>55</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV12" t="n">
         <v>4.35</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW12" t="n">
         <v>12.5</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX12" t="n">
         <v>19</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY12" t="n">
         <v>50</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ12" t="n">
         <v>80</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA12" t="n">
         <v>250</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB12" t="n">
         <v>250</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC12" t="n">
         <v>81</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD12" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="H7" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I7" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J7" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1693,10 +1693,10 @@
         <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="T7" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="U7" t="n">
         <v>2.05</v>
@@ -1705,100 +1705,100 @@
         <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X7" t="n">
         <v>9.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC7" t="n">
         <v>5.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF7" t="n">
         <v>110</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
         <v>800</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AP7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ7" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AR7" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="AT7" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AU7" t="n">
         <v>80</v>
       </c>
       <c r="AV7" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AW7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AY7" t="n">
         <v>120</v>
       </c>
       <c r="AZ7" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BA7" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BB7" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J8" t="n">
         <v>2.2</v>
@@ -1854,13 +1854,13 @@
         <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
@@ -1869,10 +1869,10 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1890,13 +1890,13 @@
         <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
         <v>13</v>
@@ -1926,22 +1926,22 @@
         <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK8" t="n">
         <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM8" t="n">
         <v>301</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
@@ -1977,7 +1977,7 @@
         <v>126</v>
       </c>
       <c r="BA8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB8" t="n">
         <v>151</v>
@@ -2385,145 +2385,145 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.72</v>
+        <v>1.93</v>
       </c>
       <c r="H11" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.65</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>2.27</v>
+        <v>2.52</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="L11" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T11" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V11" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W11" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
         <v>13</v>
       </c>
-      <c r="AA11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AJ11" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL11" t="n">
         <v>50</v>
       </c>
-      <c r="AL11" t="n">
-        <v>60</v>
-      </c>
       <c r="AM11" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="AP11" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AQ11" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX11" t="n">
         <v>29</v>
       </c>
-      <c r="AR11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>35</v>
-      </c>
       <c r="AY11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>175</v>
       </c>
-      <c r="AZ11" t="n">
-        <v>200</v>
-      </c>
       <c r="BA11" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BB11" t="n">
         <v>250</v>
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
         <v>2.07</v>
       </c>
       <c r="L12" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>1.32</v>
@@ -2615,22 +2615,22 @@
         <v>1.9</v>
       </c>
       <c r="W12" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
         <v>14</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB12" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC12" t="n">
         <v>8.75</v>
@@ -2645,64 +2645,64 @@
         <v>65</v>
       </c>
       <c r="AG12" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AH12" t="n">
         <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
         <v>500</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AR12" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS12" t="n">
         <v>2.55</v>
       </c>
       <c r="AT12" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AU12" t="n">
         <v>55</v>
       </c>
       <c r="AV12" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AW12" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AZ12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA12" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,39 +596,39 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
-        </is>
-      </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0_HT</t>
@@ -656,52 +656,52 @@
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-2_HT</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-0_HT</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-1_HT</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-2_HT</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-2_HT</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CpL6NMzi</t>
+          <t>jqCRLjz2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W2" t="n">
         <v>7.5</v>
       </c>
-      <c r="H2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="X2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
         <v>7.5</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX2" t="n">
         <v>15</v>
       </c>
-      <c r="X2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>21</v>
-      </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
         <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>v7mD6TE8</t>
+          <t>vJXfdXBE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tampico Madero</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>4.85</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>9.25</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W3" t="n">
         <v>8</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6.2</v>
-      </c>
       <c r="X3" t="n">
-        <v>5.6</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO3" t="n">
         <v>9</v>
       </c>
-      <c r="Z3" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>300</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AP3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AR3" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.87</v>
+        <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>9.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>110</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>9.5</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>500</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>500</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC3" t="n">
         <v>501</v>
       </c>
-      <c r="BB3" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>51</v>
-      </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>l2nM5b0K</t>
+          <t>CpL6NMzi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,41 +1092,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>1.44</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -1147,124 +1147,124 @@
         <v>1.75</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
+        <v>15</v>
+      </c>
+      <c r="X4" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX4" t="n">
         <v>7</v>
       </c>
-      <c r="X4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AY4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA4" t="n">
         <v>51</v>
       </c>
-      <c r="AG4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="n">
+      <c r="BB4" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC4" t="n">
         <v>51</v>
       </c>
-      <c r="AS4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU4" t="n">
+      <c r="BD4" t="n">
         <v>51</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CzEBrXLa</t>
+          <t>v7mD6TE8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1279,174 +1279,174 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>S. Rzeszow</t>
+          <t>Tampico Madero</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.63</v>
+        <v>1.29</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>4.85</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>9.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L5" t="n">
-        <v>2.88</v>
+        <v>8</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>2.35</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>3.5</v>
+        <v>2.99</v>
       </c>
       <c r="U5" t="n">
-        <v>1.5</v>
+        <v>2.18</v>
       </c>
       <c r="V5" t="n">
-        <v>2.5</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
-        <v>13</v>
+        <v>6.2</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>29</v>
+        <v>7.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>11.75</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AC5" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AF5" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>15</v>
       </c>
-      <c r="AI5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
       <c r="AR5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>500</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>500</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC5" t="n">
         <v>51</v>
       </c>
-      <c r="AS5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ5" t="n">
+      <c r="BD5" t="n">
         <v>51</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0ChQbD15</t>
+          <t>l2nM5b0K</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
         <v>3.25</v>
       </c>
-      <c r="K6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q6" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6.5</v>
       </c>
-      <c r="X6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
       </c>
       <c r="AG6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
         <v>8</v>
       </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK6" t="n">
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY6" t="n">
         <v>29</v>
       </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
+      <c r="AZ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA6" t="n">
         <v>81</v>
       </c>
-      <c r="AS6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>251</v>
-      </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KlZCtGXp</t>
+          <t>CzEBrXLa</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>S. Rzeszow</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.12</v>
+        <v>2.63</v>
       </c>
       <c r="H7" t="n">
-        <v>2.87</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.55</v>
+        <v>2.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.77</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>4.3</v>
+        <v>2.88</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="O7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.5</v>
       </c>
-      <c r="P7" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.05</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="W7" t="n">
-        <v>5.9</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>9.25</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM7" t="n">
         <v>21</v>
       </c>
-      <c r="AA7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
         <v>13</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>800</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>11.25</v>
-      </c>
       <c r="AP7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.37</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="AV7" t="n">
-        <v>5.4</v>
+        <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>22</v>
+        <v>4.75</v>
       </c>
       <c r="AX7" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AY7" t="n">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W4IPI5u9</t>
+          <t>0ChQbD15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,95 +1820,95 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.57</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>11</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.9</v>
-      </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
         <v>6.5</v>
       </c>
       <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
         <v>7</v>
       </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10</v>
-      </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1917,82 +1917,82 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI8" t="n">
         <v>15</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AJ8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
         <v>29</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX8" t="n">
         <v>19</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>67</v>
       </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
+      <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC8" t="n">
         <v>51</v>
       </c>
-      <c r="AM8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="BD8" t="n">
         <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>276</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>301</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Y7BGrRBs</t>
+          <t>KlZCtGXp</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>2.87</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.77</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>2.42</v>
       </c>
       <c r="R9" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>2.42</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="W9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU9" t="n">
         <v>7.5</v>
       </c>
-      <c r="X9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AV9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC9" t="n">
         <v>51</v>
       </c>
-      <c r="AG9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR9" t="n">
+      <c r="BD9" t="n">
         <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OtG5QqdD</t>
+          <t>4x9G0yPG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.63</v>
+        <v>2.22</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.4</v>
       </c>
-      <c r="P10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.72</v>
       </c>
       <c r="U10" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V10" t="n">
         <v>2</v>
       </c>
-      <c r="V10" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AF10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>200</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC10" t="n">
         <v>51</v>
       </c>
-      <c r="AG10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>126</v>
-      </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>WImGq3uI</t>
+          <t>f7kYmbuB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,354 +2366,1082 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kryvbas</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.93</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>1.75</v>
       </c>
       <c r="J11" t="n">
-        <v>2.52</v>
+        <v>4.45</v>
       </c>
       <c r="K11" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="L11" t="n">
-        <v>4.3</v>
+        <v>2.35</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>2.67</v>
+        <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="S11" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="W11" t="n">
-        <v>6.3</v>
+        <v>11.5</v>
       </c>
       <c r="X11" t="n">
-        <v>8.5</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>16.5</v>
+        <v>60</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AB11" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="AE11" t="n">
         <v>16</v>
       </c>
       <c r="AF11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>6.9</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>60</v>
+        <v>8.25</v>
       </c>
       <c r="AK11" t="n">
-        <v>40</v>
+        <v>13.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="AM11" t="n">
-        <v>800</v>
+        <v>28</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.75</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AQ11" t="n">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="AR11" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV11" t="n">
         <v>75</v>
       </c>
-      <c r="AS11" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>5.6</v>
-      </c>
       <c r="AW11" t="n">
-        <v>22</v>
+        <v>3.6</v>
       </c>
       <c r="AX11" t="n">
-        <v>29</v>
+        <v>8.75</v>
       </c>
       <c r="AY11" t="n">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="AZ11" t="n">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="BA11" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="BB11" t="n">
         <v>250</v>
       </c>
       <c r="BC11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>W4IPI5u9</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Y7BGrRBs</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>OtG5QqdD</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>WImGq3uI</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Kryvbas</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Rukh Lviv</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>vPAs0OPb</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>04/11/2024</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>FK Zorya Luhansk</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>LNZ Cherkasy</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G16" t="n">
         <v>2.7</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H16" t="n">
         <v>3.1</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I16" t="n">
         <v>2.52</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J16" t="n">
         <v>3.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K16" t="n">
         <v>2.07</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L16" t="n">
         <v>3.1</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M16" t="n">
         <v>1.03</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N16" t="n">
         <v>10</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O16" t="n">
         <v>1.32</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P16" t="n">
         <v>2.82</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q16" t="n">
         <v>1.93</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R16" t="n">
         <v>1.7</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S16" t="n">
         <v>1.39</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T16" t="n">
         <v>2.57</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U16" t="n">
         <v>1.72</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V16" t="n">
         <v>1.9</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W16" t="n">
         <v>8.5</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X16" t="n">
         <v>14</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y16" t="n">
         <v>10</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z16" t="n">
         <v>32</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA16" t="n">
         <v>23</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB16" t="n">
         <v>32</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC16" t="n">
         <v>8.75</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD16" t="n">
         <v>6</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE16" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF16" t="n">
         <v>65</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG16" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH16" t="n">
         <v>7.8</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AI16" t="n">
         <v>12</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AJ16" t="n">
         <v>9.5</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AK16" t="n">
         <v>28</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AL16" t="n">
         <v>22</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AM16" t="n">
         <v>32</v>
       </c>
-      <c r="AM12" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN12" t="n">
+      <c r="AN16" t="n">
         <v>4.6</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO16" t="n">
         <v>14</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP16" t="n">
         <v>20</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ16" t="n">
         <v>60</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR16" t="n">
         <v>90</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS16" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT16" t="n">
         <v>2.55</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AU16" t="n">
         <v>6.7</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AV16" t="n">
         <v>55</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AW16" t="n">
         <v>4.4</v>
       </c>
-      <c r="AW12" t="n">
+      <c r="AX16" t="n">
         <v>13.5</v>
       </c>
-      <c r="AX12" t="n">
+      <c r="AY16" t="n">
         <v>21</v>
       </c>
-      <c r="AY12" t="n">
+      <c r="AZ16" t="n">
         <v>55</v>
       </c>
-      <c r="AZ12" t="n">
+      <c r="BA16" t="n">
         <v>90</v>
       </c>
-      <c r="BA12" t="n">
+      <c r="BB16" t="n">
         <v>250</v>
       </c>
-      <c r="BB12" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC12" t="n">
+      <c r="BC16" t="n">
         <v>81</v>
       </c>
-      <c r="BD12" t="n">
+      <c r="BD16" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD16"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,10 +947,10 @@
         <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>v7mD6TE8</t>
+          <t>AaumjT1M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,101 +1274,101 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tampico Madero</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.29</v>
       </c>
-      <c r="H5" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="L5" t="n">
-        <v>8</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.36</v>
-      </c>
       <c r="T5" t="n">
-        <v>2.99</v>
+        <v>3.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
-        <v>6.2</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD5" t="n">
         <v>9</v>
       </c>
-      <c r="Z5" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>10</v>
-      </c>
       <c r="AE5" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
@@ -1377,76 +1377,76 @@
         <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.95</v>
+        <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.87</v>
+        <v>3.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AY5" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>500</v>
+        <v>126</v>
       </c>
       <c r="BA5" t="n">
-        <v>500</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC5" t="n">
         <v>501</v>
       </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>l2nM5b0K</t>
+          <t>v7mD6TE8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Tampico Madero</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>1.29</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>4.85</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>9.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>3.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="X6" t="n">
-        <v>9.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>7.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>11.75</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AC6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW6" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>500</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CzEBrXLa</t>
+          <t>l2nM5b0K</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,131 +1638,131 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>S. Rzeszow</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.63</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="U7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA7" t="n">
         <v>17</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>13</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI7" t="n">
         <v>17</v>
       </c>
-      <c r="Y7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AJ7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
         <v>29</v>
       </c>
-      <c r="AA7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP7" t="n">
         <v>23</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
@@ -1771,37 +1771,37 @@
         <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0ChQbD15</t>
+          <t>CzEBrXLa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1825,174 +1825,174 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>S. Rzeszow</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I8" t="n">
         <v>2.4</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>3.1</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K8" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R8" t="n">
         <v>2.35</v>
       </c>
-      <c r="R8" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S8" t="n">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="T8" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="X8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y8" t="n">
         <v>11</v>
       </c>
-      <c r="Y8" t="n">
-        <v>10</v>
-      </c>
       <c r="Z8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="n">
         <v>23</v>
       </c>
-      <c r="AA8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
       <c r="AC8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD8" t="n">
         <v>7</v>
       </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
         <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AM8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>41</v>
       </c>
-      <c r="AN8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
         <v>4.75</v>
       </c>
       <c r="AX8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY8" t="n">
         <v>19</v>
       </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB8" t="n">
         <v>101</v>
       </c>
-      <c r="BB8" t="n">
-        <v>251</v>
-      </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KlZCtGXp</t>
+          <t>EaASvkLO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Tychy</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.12</v>
+        <v>1.27</v>
       </c>
       <c r="H9" t="n">
-        <v>2.87</v>
+        <v>5.25</v>
       </c>
       <c r="I9" t="n">
-        <v>3.55</v>
+        <v>8.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.77</v>
+        <v>1.73</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="L9" t="n">
-        <v>4.3</v>
+        <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
+        <v>19</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P9" t="n">
         <v>5.5</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.42</v>
-      </c>
       <c r="Q9" t="n">
-        <v>2.42</v>
+        <v>1.48</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="S9" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="T9" t="n">
-        <v>2.42</v>
+        <v>3.75</v>
       </c>
       <c r="U9" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>5.9</v>
+        <v>9</v>
       </c>
       <c r="X9" t="n">
-        <v>9.25</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE9" t="n">
         <v>21</v>
       </c>
-      <c r="AA9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AF9" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>800</v>
+        <v>251</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.9</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>17.5</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AK9" t="n">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AM9" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>11.25</v>
+        <v>6</v>
       </c>
       <c r="AP9" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AR9" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AS9" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.37</v>
+        <v>3.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.4</v>
+        <v>10</v>
       </c>
       <c r="AX9" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AY9" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="BA9" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="BB9" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4x9G0yPG</t>
+          <t>rwqMN8B7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>1.62</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L10" t="n">
         <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
         <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="R10" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S10" t="n">
         <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA10" t="n">
         <v>13</v>
       </c>
-      <c r="AA10" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AB10" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD10" t="n">
         <v>7.5</v>
       </c>
-      <c r="AD10" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AE10" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>450</v>
+        <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR10" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
         <v>7</v>
       </c>
       <c r="AX10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AY10" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="BA10" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
-        <v>450</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>f7kYmbuB</t>
+          <t>0ChQbD15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,167 +2366,167 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>4.45</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="L11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2.35</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.9</v>
-      </c>
       <c r="R11" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="T11" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>11.5</v>
+        <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>600</v>
+        <v>351</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="AI11" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.8</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="AS11" t="n">
-        <v>400</v>
+        <v>251</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="AX11" t="n">
-        <v>8.75</v>
+        <v>19</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>W4IPI5u9</t>
+          <t>KlZCtGXp</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.57</v>
+        <v>2.12</v>
       </c>
       <c r="H12" t="n">
-        <v>3.75</v>
+        <v>2.87</v>
       </c>
       <c r="I12" t="n">
-        <v>6.25</v>
+        <v>3.55</v>
       </c>
       <c r="J12" t="n">
-        <v>2.2</v>
+        <v>2.77</v>
       </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>2.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>2.42</v>
       </c>
       <c r="R12" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>2.42</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="V12" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W12" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="X12" t="n">
-        <v>7</v>
+        <v>9.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>13</v>
       </c>
-      <c r="AB12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>19</v>
-      </c>
       <c r="AK12" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AL12" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AM12" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>11.25</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ12" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>2.37</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AW12" t="n">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="AX12" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AY12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AZ12" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="BA12" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="BB12" t="n">
-        <v>301</v>
+        <v>500</v>
       </c>
       <c r="BC12" t="n">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Y7BGrRBs</t>
+          <t>4x9G0yPG</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="P13" t="n">
         <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="R13" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC13" t="n">
         <v>7.5</v>
       </c>
-      <c r="X13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AD13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH13" t="n">
         <v>15</v>
       </c>
-      <c r="AA13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD13" t="n">
+      <c r="AI13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW13" t="n">
         <v>7</v>
       </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6</v>
-      </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AY13" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AZ13" t="n">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="BA13" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="BB13" t="n">
-        <v>201</v>
+        <v>450</v>
       </c>
       <c r="BC13" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD13" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OtG5QqdD</t>
+          <t>f7kYmbuB</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.91</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>1.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2.63</v>
+        <v>4.45</v>
       </c>
       <c r="K14" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>2.35</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.4</v>
       </c>
-      <c r="P14" t="n">
+      <c r="T14" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="W14" t="n">
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="X14" t="n">
-        <v>8.5</v>
+        <v>22</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AA14" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AC14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AI14" t="n">
         <v>8</v>
       </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI14" t="n">
+      <c r="AJ14" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AY14" t="n">
         <v>19</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ14" t="n">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="BA14" t="n">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="BB14" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>WImGq3uI</t>
+          <t>UatBnfzp</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Kryvbas</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.93</v>
+        <v>3.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.52</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>4.3</v>
+        <v>2.88</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>7.66</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S15" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T15" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="X15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU15" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7.3</v>
-      </c>
       <c r="AV15" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="AX15" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AY15" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>vPAs0OPb</t>
+          <t>raGZGNlA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,172 +3276,900 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FK Zorya Luhansk</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>LNZ Cherkasy</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.52</v>
+        <v>2.05</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.82</v>
+        <v>4.33</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="S16" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="T16" t="n">
-        <v>2.57</v>
+        <v>3.25</v>
       </c>
       <c r="U16" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="V16" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="X16" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA16" t="n">
         <v>23</v>
       </c>
       <c r="AB16" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>500</v>
+        <v>126</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="AI16" t="n">
         <v>12</v>
       </c>
       <c r="AJ16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>W4IPI5u9</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
         <v>9.5</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Y7BGrRBs</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>OtG5QqdD</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>vPAs0OPb</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>FK Zorya Luhansk</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LNZ Cherkasy</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK20" t="n">
         <v>28</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL20" t="n">
         <v>22</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM20" t="n">
         <v>32</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN20" t="n">
         <v>4.6</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO20" t="n">
         <v>14</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP20" t="n">
         <v>20</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ20" t="n">
         <v>60</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR20" t="n">
         <v>90</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS20" t="n">
         <v>250</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT20" t="n">
         <v>2.55</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU20" t="n">
         <v>6.7</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV20" t="n">
         <v>55</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW20" t="n">
         <v>4.4</v>
       </c>
-      <c r="AX16" t="n">
+      <c r="AX20" t="n">
         <v>13.5</v>
       </c>
-      <c r="AY16" t="n">
+      <c r="AY20" t="n">
         <v>21</v>
       </c>
-      <c r="AZ16" t="n">
+      <c r="AZ20" t="n">
         <v>55</v>
       </c>
-      <c r="BA16" t="n">
+      <c r="BA20" t="n">
         <v>90</v>
       </c>
-      <c r="BB16" t="n">
+      <c r="BB20" t="n">
         <v>250</v>
       </c>
-      <c r="BC16" t="n">
+      <c r="BC20" t="n">
         <v>81</v>
       </c>
-      <c r="BD16" t="n">
+      <c r="BD20" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
         <v>4.33</v>
       </c>
       <c r="I4" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="J4" t="n">
         <v>7.5</v>
@@ -1129,22 +1129,22 @@
         <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R4" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1165,7 +1165,7 @@
         <v>34</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
         <v>81</v>
@@ -1174,7 +1174,7 @@
         <v>51</v>
       </c>
       <c r="AB4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC4" t="n">
         <v>9</v>
@@ -1192,7 +1192,7 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>6</v>
@@ -1219,7 +1219,7 @@
         <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AR4" t="n">
         <v>201</v>
@@ -1237,7 +1237,7 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AX4" t="n">
         <v>7</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>v7mD6TE8</t>
+          <t>niN2i2Nj</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,167 +1456,167 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tampico Madero</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.29</v>
+        <v>5.75</v>
       </c>
       <c r="H6" t="n">
-        <v>4.85</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>9.25</v>
+        <v>1.45</v>
       </c>
       <c r="J6" t="n">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>3.35</v>
+        <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="T6" t="n">
-        <v>3.04</v>
+        <v>3.4</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="W6" t="n">
-        <v>6.2</v>
+        <v>17</v>
       </c>
       <c r="X6" t="n">
-        <v>5.6</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.3</v>
+        <v>67</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.75</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
       </c>
       <c r="AH6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>21</v>
       </c>
-      <c r="AI6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>500</v>
-      </c>
       <c r="BA6" t="n">
-        <v>500</v>
+        <v>41</v>
       </c>
       <c r="BB6" t="n">
-        <v>501</v>
+        <v>101</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>l2nM5b0K</t>
+          <t>v7mD6TE8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Tampico Madero</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>1.29</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>4.85</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>9.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>3.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="V7" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="X7" t="n">
-        <v>9.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>7.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>11.75</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AC7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW7" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>500</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CzEBrXLa</t>
+          <t>l2nM5b0K</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,131 +1820,131 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>S. Rzeszow</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
         <v>2.63</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="U8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="n">
         <v>17</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W8" t="n">
-        <v>13</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI8" t="n">
         <v>17</v>
       </c>
-      <c r="Y8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AJ8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
         <v>29</v>
       </c>
-      <c r="AA8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP8" t="n">
         <v>23</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1953,37 +1953,37 @@
         <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="BD8" t="n">
         <v>81</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EaASvkLO</t>
+          <t>CzEBrXLa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,76 +2012,76 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tychy</t>
+          <t>S. Rzeszow</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.27</v>
+        <v>2.63</v>
       </c>
       <c r="H9" t="n">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>8.5</v>
+        <v>2.4</v>
       </c>
       <c r="J9" t="n">
-        <v>1.73</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>2.88</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
+        <v>17</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W9" t="n">
+        <v>13</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA9" t="n">
         <v>19</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W9" t="n">
-        <v>9</v>
-      </c>
-      <c r="X9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>11</v>
       </c>
       <c r="AB9" t="n">
         <v>23</v>
@@ -2090,82 +2090,82 @@
         <v>17</v>
       </c>
       <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
         <v>11</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM9" t="n">
         <v>21</v>
       </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI9" t="n">
+      <c r="AN9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>41</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>15</v>
-      </c>
       <c r="AR9" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
         <v>101</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="AX9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>41</v>
       </c>
-      <c r="AY9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>151</v>
-      </c>
       <c r="BA9" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="BC9" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="BD9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>rwqMN8B7</t>
+          <t>EaASvkLO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2189,159 +2189,159 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Tychy</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.62</v>
+        <v>1.27</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N10" t="n">
+        <v>19</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P10" t="n">
         <v>5.5</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q10" t="n">
-        <v>1.93</v>
+        <v>1.48</v>
       </c>
       <c r="R10" t="n">
-        <v>1.93</v>
+        <v>2.6</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
         <v>7.5</v>
       </c>
       <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>12</v>
-      </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
         <v>10</v>
       </c>
-      <c r="AD10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL10" t="n">
+      <c r="AX10" t="n">
         <v>41</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AY10" t="n">
         <v>41</v>
       </c>
-      <c r="AN10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS10" t="n">
+      <c r="AZ10" t="n">
         <v>151</v>
       </c>
-      <c r="AT10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>101</v>
-      </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB10" t="n">
         <v>251</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0ChQbD15</t>
+          <t>rwqMN8B7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,98 +2366,98 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="K11" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S11" t="n">
         <v>1.4</v>
       </c>
-      <c r="P11" t="n">
+      <c r="T11" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W11" t="n">
         <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
         <v>10</v>
       </c>
-      <c r="Z11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7</v>
-      </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
         <v>51</v>
@@ -2466,79 +2466,79 @@
         <v>351</v>
       </c>
       <c r="AH11" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AR11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="AU11" t="n">
         <v>8.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="AX11" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB11" t="n">
         <v>251</v>
       </c>
       <c r="BC11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KlZCtGXp</t>
+          <t>0ChQbD15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,167 +2548,167 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="H12" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.77</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
         <v>1.95</v>
       </c>
       <c r="L12" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>2.42</v>
+        <v>2.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="T12" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="U12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="X12" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA12" t="n">
         <v>21</v>
       </c>
-      <c r="AA12" t="n">
-        <v>20</v>
-      </c>
       <c r="AB12" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.85</v>
+        <v>4.33</v>
       </c>
       <c r="AO12" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AS12" t="n">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AZ12" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="BA12" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="BB12" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4x9G0yPG</t>
+          <t>KlZCtGXp</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,157 +2740,157 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>2.87</v>
       </c>
       <c r="I13" t="n">
-        <v>5.3</v>
+        <v>3.55</v>
       </c>
       <c r="J13" t="n">
-        <v>2.22</v>
+        <v>2.77</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N13" t="n">
         <v>5.5</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU13" t="n">
         <v>7.5</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2</v>
-      </c>
-      <c r="W13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="X13" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AV13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX13" t="n">
         <v>22</v>
       </c>
-      <c r="AC13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="AY13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA13" t="n">
         <v>200</v>
       </c>
-      <c r="AT13" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>35</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>200</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>250</v>
-      </c>
       <c r="BB13" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>f7kYmbuB</t>
+          <t>4x9G0yPG</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,31 +2922,31 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>1.62</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.75</v>
+        <v>5.3</v>
       </c>
       <c r="J14" t="n">
-        <v>4.45</v>
+        <v>2.22</v>
       </c>
       <c r="K14" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>2.35</v>
+        <v>5.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2955,124 +2955,124 @@
         <v>7.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="R14" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="V14" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>11.5</v>
+        <v>7.2</v>
       </c>
       <c r="X14" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB14" t="n">
         <v>22</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>37</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>45</v>
       </c>
       <c r="AC14" t="n">
         <v>7.5</v>
       </c>
       <c r="AD14" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU14" t="n">
         <v>7.1</v>
       </c>
-      <c r="AE14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.7</v>
-      </c>
       <c r="AV14" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>8.75</v>
+        <v>32</v>
       </c>
       <c r="AY14" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="AZ14" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="BA14" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="BB14" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UatBnfzp</t>
+          <t>f7kYmbuB</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>4.35</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="L15" t="n">
-        <v>2.88</v>
+        <v>2.37</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="R15" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.63</v>
+        <v>2.72</v>
       </c>
       <c r="U15" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AA15" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB15" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AG15" t="n">
-        <v>351</v>
+        <v>600</v>
       </c>
       <c r="AH15" t="n">
         <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AJ15" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX15" t="n">
         <v>9</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AY15" t="n">
         <v>19</v>
       </c>
-      <c r="AL15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BB15" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="BC15" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD15" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>raGZGNlA</t>
+          <t>UatBnfzp</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,170 +3276,170 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Orgryte</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
         <v>2.05</v>
       </c>
-      <c r="J16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L16" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="R16" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="V16" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
         <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA16" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AH16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI16" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>12</v>
       </c>
       <c r="AJ16" t="n">
         <v>9</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AM16" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
         <v>5.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY16" t="n">
         <v>23</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>19</v>
       </c>
       <c r="AZ16" t="n">
         <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB16" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC16" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="BD16" t="n">
         <v>151</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>W4IPI5u9</t>
+          <t>raGZGNlA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.55</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>6.25</v>
+        <v>2.05</v>
       </c>
       <c r="J17" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>13</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V17" t="n">
         <v>2.25</v>
       </c>
-      <c r="L17" t="n">
-        <v>6</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W17" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="X17" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
         <v>29</v>
       </c>
       <c r="AC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH17" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE17" t="n">
+      <c r="AI17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO17" t="n">
         <v>17</v>
       </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ17" t="n">
+      <c r="AP17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY17" t="n">
         <v>19</v>
       </c>
-      <c r="AK17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS17" t="n">
+      <c r="AZ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD17" t="n">
         <v>151</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>276</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>301</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Y7BGrRBs</t>
+          <t>W4IPI5u9</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3645,36 +3645,36 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>3.9</v>
+        <v>6.25</v>
       </c>
       <c r="J18" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3689,7 +3689,7 @@
         <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
         <v>1.9</v>
@@ -3701,73 +3701,73 @@
         <v>2.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE18" t="n">
         <v>17</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH18" t="n">
         <v>15</v>
       </c>
-      <c r="AB18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>12</v>
-      </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AK18" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL18" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AM18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN18" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP18" t="n">
         <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR18" t="n">
         <v>51</v>
@@ -3779,40 +3779,40 @@
         <v>2.75</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX18" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ18" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA18" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC18" t="n">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="BD18" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OtG5QqdD</t>
+          <t>Y7BGrRBs</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,100 +3832,100 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
         <v>3.9</v>
       </c>
       <c r="J19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
+        <v>11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X19" t="n">
         <v>9</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X19" t="n">
+      <c r="Y19" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>9</v>
       </c>
       <c r="Z19" t="n">
         <v>17</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB19" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
         <v>6.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
         <v>13</v>
@@ -3934,55 +3934,55 @@
         <v>41</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM19" t="n">
         <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>67</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="BA19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB19" t="n">
         <v>201</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>251</v>
       </c>
       <c r="BC19" t="n">
         <v>126</v>
@@ -3994,182 +3994,364 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>OtG5QqdD</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>vPAs0OPb</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>04/11/2024</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>FK Zorya Luhansk</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>LNZ Cherkasy</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>2.7</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>3.1</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>2.52</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J21" t="n">
         <v>3.2</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K21" t="n">
         <v>2.07</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L21" t="n">
         <v>3.1</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M21" t="n">
         <v>1.03</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N21" t="n">
         <v>10</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O21" t="n">
         <v>1.32</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P21" t="n">
         <v>2.82</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q21" t="n">
         <v>1.93</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R21" t="n">
         <v>1.7</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S21" t="n">
         <v>1.39</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T21" t="n">
         <v>2.57</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U21" t="n">
         <v>1.72</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V21" t="n">
         <v>1.9</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W21" t="n">
         <v>8.5</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X21" t="n">
         <v>14</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y21" t="n">
         <v>10</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z21" t="n">
         <v>32</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA21" t="n">
         <v>23</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB21" t="n">
         <v>32</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC21" t="n">
         <v>8.75</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD21" t="n">
         <v>6</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE21" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF21" t="n">
         <v>65</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG21" t="n">
         <v>500</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH21" t="n">
         <v>7.8</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI21" t="n">
         <v>12</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ21" t="n">
         <v>9.5</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK21" t="n">
         <v>28</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL21" t="n">
         <v>22</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM21" t="n">
         <v>32</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN21" t="n">
         <v>4.6</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO21" t="n">
         <v>14</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AP21" t="n">
         <v>20</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AQ21" t="n">
         <v>60</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="AR21" t="n">
         <v>90</v>
       </c>
-      <c r="AS20" t="n">
+      <c r="AS21" t="n">
         <v>250</v>
       </c>
-      <c r="AT20" t="n">
+      <c r="AT21" t="n">
         <v>2.55</v>
       </c>
-      <c r="AU20" t="n">
+      <c r="AU21" t="n">
         <v>6.7</v>
       </c>
-      <c r="AV20" t="n">
+      <c r="AV21" t="n">
         <v>55</v>
       </c>
-      <c r="AW20" t="n">
+      <c r="AW21" t="n">
         <v>4.4</v>
       </c>
-      <c r="AX20" t="n">
+      <c r="AX21" t="n">
         <v>13.5</v>
       </c>
-      <c r="AY20" t="n">
+      <c r="AY21" t="n">
         <v>21</v>
       </c>
-      <c r="AZ20" t="n">
+      <c r="AZ21" t="n">
         <v>55</v>
       </c>
-      <c r="BA20" t="n">
+      <c r="BA21" t="n">
         <v>90</v>
       </c>
-      <c r="BB20" t="n">
+      <c r="BB21" t="n">
         <v>250</v>
       </c>
-      <c r="BC20" t="n">
+      <c r="BC21" t="n">
         <v>81</v>
       </c>
-      <c r="BD20" t="n">
+      <c r="BD21" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H4" t="n">
         <v>4.33</v>
       </c>
       <c r="I4" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="J4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
         <v>2.25</v>
@@ -1153,10 +1153,10 @@
         <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>15</v>
@@ -1177,7 +1177,7 @@
         <v>51</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
         <v>8.5</v>
@@ -1201,7 +1201,7 @@
         <v>9</v>
       </c>
       <c r="AK4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL4" t="n">
         <v>13</v>
@@ -1219,7 +1219,7 @@
         <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AR4" t="n">
         <v>201</v>
@@ -1231,13 +1231,13 @@
         <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AX4" t="n">
         <v>7</v>
@@ -1252,7 +1252,7 @@
         <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1314,7 +1314,7 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O5" t="n">
         <v>1.17</v>
@@ -1517,10 +1517,10 @@
         <v>3.4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
         <v>17</v>
@@ -2051,10 +2051,10 @@
         <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S9" t="n">
         <v>1.29</v>
@@ -2567,34 +2567,34 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="n">
         <v>2.35</v>
@@ -2603,10 +2603,10 @@
         <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
@@ -2618,13 +2618,13 @@
         <v>6.5</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
         <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
         <v>21</v>
@@ -2648,13 +2648,13 @@
         <v>351</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
         <v>34</v>
@@ -2669,22 +2669,22 @@
         <v>4.33</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
         <v>81</v>
       </c>
       <c r="AS12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU12" t="n">
         <v>8.5</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
         <v>2.87</v>
       </c>
       <c r="I13" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J13" t="n">
         <v>2.77</v>
       </c>
       <c r="K13" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L13" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.11</v>
@@ -2785,10 +2785,10 @@
         <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="T13" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U13" t="n">
         <v>2.05</v>
@@ -2797,22 +2797,22 @@
         <v>1.7</v>
       </c>
       <c r="W13" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="X13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="n">
         <v>9.25</v>
       </c>
-      <c r="Y13" t="n">
-        <v>9</v>
-      </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="n">
         <v>20</v>
       </c>
       <c r="AB13" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC13" t="n">
         <v>5.5</v>
@@ -2830,16 +2830,16 @@
         <v>800</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL13" t="n">
         <v>45</v>
@@ -2854,13 +2854,13 @@
         <v>11.25</v>
       </c>
       <c r="AP13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR13" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS13" t="n">
         <v>350</v>
@@ -2869,22 +2869,22 @@
         <v>2.37</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AV13" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW13" t="n">
         <v>5.4</v>
       </c>
       <c r="AX13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY13" t="n">
         <v>32</v>
       </c>
       <c r="AZ13" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA13" t="n">
         <v>200</v>
@@ -3319,16 +3319,16 @@
         <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="J4" t="n">
         <v>7</v>
@@ -1126,7 +1126,7 @@
         <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1180,13 +1180,13 @@
         <v>9.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
@@ -1195,10 +1195,10 @@
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK4" t="n">
         <v>9.5</v>
@@ -1210,7 +1210,7 @@
         <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO4" t="n">
         <v>41</v>
@@ -1240,13 +1240,13 @@
         <v>3.25</v>
       </c>
       <c r="AX4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY4" t="n">
         <v>21</v>
       </c>
       <c r="AZ4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
         <v>51</v>
@@ -1660,19 +1660,19 @@
         <v>1.29</v>
       </c>
       <c r="H7" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="I7" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="J7" t="n">
         <v>1.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1681,34 +1681,34 @@
         <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="R7" t="n">
         <v>1.93</v>
       </c>
       <c r="S7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="U7" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="X7" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1717,22 +1717,22 @@
         <v>7.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AB7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
       </c>
       <c r="AF7" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
@@ -1741,7 +1741,7 @@
         <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
         <v>32</v>
@@ -1756,16 +1756,16 @@
         <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AO7" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AP7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AR7" t="n">
         <v>50</v>
@@ -1774,7 +1774,7 @@
         <v>300</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="AU7" t="n">
         <v>9.75</v>
@@ -1783,7 +1783,7 @@
         <v>110</v>
       </c>
       <c r="AW7" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AX7" t="n">
         <v>60</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>l2nM5b0K</t>
+          <t>WrBOmjM7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.05</v>
+        <v>1.44</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="S8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.44</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>2.63</v>
       </c>
-      <c r="U8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W8" t="n">
+        <v>19</v>
+      </c>
+      <c r="X8" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU8" t="n">
         <v>7</v>
       </c>
-      <c r="X8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y8" t="n">
+      <c r="AV8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX8" t="n">
         <v>9</v>
       </c>
-      <c r="Z8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="AY8" t="n">
         <v>15</v>
       </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="AZ8" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA8" t="n">
         <v>41</v>
       </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
+      <c r="BB8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD8" t="n">
         <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CzEBrXLa</t>
+          <t>zHHFkCie</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,128 +2002,128 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>S. Rzeszow</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
+        <v>13</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W9" t="n">
+        <v>10</v>
+      </c>
+      <c r="X9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA9" t="n">
         <v>17</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W9" t="n">
-        <v>13</v>
-      </c>
-      <c r="X9" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>19</v>
       </c>
       <c r="AB9" t="n">
         <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH9" t="n">
         <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
         <v>19</v>
@@ -2135,10 +2135,10 @@
         <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU9" t="n">
         <v>7</v>
@@ -2147,13 +2147,13 @@
         <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
         <v>41</v>
@@ -2162,19 +2162,19 @@
         <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EaASvkLO</t>
+          <t>l2nM5b0K</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,167 +2184,167 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tychy</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.27</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>1.73</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.48</v>
+        <v>2.05</v>
       </c>
       <c r="R10" t="n">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP10" t="n">
         <v>23</v>
       </c>
-      <c r="AC10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI10" t="n">
+      <c r="AQ10" t="n">
         <v>41</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>15</v>
-      </c>
       <c r="AR10" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>rwqMN8B7</t>
+          <t>CzEBrXLa</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,170 +2366,170 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>S. Rzeszow</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>2.63</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>17</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P11" t="n">
         <v>5</v>
       </c>
-      <c r="J11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="Q11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W11" t="n">
+        <v>13</v>
+      </c>
+      <c r="X11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y11" t="n">
         <v>11</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="Z11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT11" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="AU11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX11" t="n">
         <v>12</v>
       </c>
-      <c r="AA11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AY11" t="n">
         <v>19</v>
       </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL11" t="n">
+      <c r="AZ11" t="n">
         <v>41</v>
       </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ11" t="n">
+      <c r="BA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB11" t="n">
         <v>101</v>
       </c>
-      <c r="BA11" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>251</v>
-      </c>
       <c r="BC11" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0ChQbD15</t>
+          <t>EaASvkLO</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Tychy</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>1.27</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="I12" t="n">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>1.73</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.35</v>
+        <v>1.48</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>2.6</v>
       </c>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="T12" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V12" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W12" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
         <v>10</v>
       </c>
-      <c r="Y12" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM12" t="n">
+      <c r="AX12" t="n">
         <v>41</v>
       </c>
-      <c r="AN12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ12" t="n">
+      <c r="AY12" t="n">
         <v>41</v>
       </c>
-      <c r="AR12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ12" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BA12" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB12" t="n">
         <v>251</v>
       </c>
       <c r="BC12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KlZCtGXp</t>
+          <t>rwqMN8B7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="H13" t="n">
-        <v>2.87</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.77</v>
+        <v>2.25</v>
       </c>
       <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1.93</v>
       </c>
-      <c r="L13" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.42</v>
-      </c>
       <c r="R13" t="n">
-        <v>1.5</v>
+        <v>1.93</v>
       </c>
       <c r="S13" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="U13" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="W13" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AL13" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>11.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AR13" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.37</v>
+        <v>2.75</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="AX13" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AZ13" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="BA13" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="BB13" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="BC13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4x9G0yPG</t>
+          <t>0ChQbD15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,167 +2912,167 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.22</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="P14" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.78</v>
+        <v>2.35</v>
       </c>
       <c r="R14" t="n">
-        <v>1.98</v>
+        <v>1.57</v>
       </c>
       <c r="S14" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="W14" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="X14" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>13</v>
       </c>
-      <c r="AA14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AK14" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="AP14" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="AQ14" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="AR14" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AS14" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AY14" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AZ14" t="n">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="BA14" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BB14" t="n">
-        <v>450</v>
+        <v>251</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>f7kYmbuB</t>
+          <t>dQ60rhHO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,167 +3094,167 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>FC Hermannstadt</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>1.78</v>
+        <v>8</v>
       </c>
       <c r="J15" t="n">
-        <v>4.35</v>
+        <v>1.95</v>
       </c>
       <c r="K15" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>2.37</v>
+        <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN15" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W15" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="X15" t="n">
+      <c r="AO15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP15" t="n">
         <v>21</v>
       </c>
-      <c r="Y15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>37</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>30</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AS15" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.65</v>
+        <v>8.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="AY15" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AZ15" t="n">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="BA15" t="n">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="BB15" t="n">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="BC15" t="n">
         <v>51</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UatBnfzp</t>
+          <t>KlZCtGXp</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>2.37</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="I16" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U16" t="n">
         <v>2.1</v>
       </c>
-      <c r="J16" t="n">
-        <v>4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="W16" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>10.25</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB16" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>5.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF16" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AG16" t="n">
-        <v>351</v>
+        <v>800</v>
       </c>
       <c r="AH16" t="n">
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>9.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="AL16" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AM16" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AR16" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AS16" t="n">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AW16" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="BB16" t="n">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="BC16" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD16" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>raGZGNlA</t>
+          <t>4x9G0yPG</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Orgryte</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>1.62</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.05</v>
+        <v>5.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>2.22</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z17" t="n">
         <v>13</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W17" t="n">
-        <v>13</v>
-      </c>
-      <c r="X17" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>34</v>
-      </c>
       <c r="AA17" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AE17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF17" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AG17" t="n">
-        <v>126</v>
+        <v>450</v>
       </c>
       <c r="AH17" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="AL17" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>8.25</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="AR17" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AS17" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.25</v>
+        <v>2.72</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AV17" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="AX17" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AY17" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="AZ17" t="n">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="BA17" t="n">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="BB17" t="n">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="BC17" t="n">
-        <v>451</v>
+        <v>51</v>
       </c>
       <c r="BD17" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>W4IPI5u9</t>
+          <t>f7kYmbuB</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3640,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.55</v>
+        <v>3.9</v>
       </c>
       <c r="H18" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>6.25</v>
+        <v>1.78</v>
       </c>
       <c r="J18" t="n">
-        <v>2.1</v>
+        <v>4.35</v>
       </c>
       <c r="K18" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>2.37</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R18" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S18" t="n">
         <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="U18" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>11.25</v>
       </c>
       <c r="X18" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH18" t="n">
         <v>7</v>
       </c>
-      <c r="Y18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>15</v>
-      </c>
       <c r="AI18" t="n">
-        <v>34</v>
+        <v>8.25</v>
       </c>
       <c r="AJ18" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY18" t="n">
         <v>19</v>
       </c>
-      <c r="AK18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ18" t="n">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="BA18" t="n">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="BB18" t="n">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="BC18" t="n">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="BD18" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Y7BGrRBs</t>
+          <t>UatBnfzp</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,164 +3822,164 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>11</v>
       </c>
       <c r="AD19" t="n">
         <v>6.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX19" t="n">
         <v>12</v>
       </c>
-      <c r="AI19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK19" t="n">
+      <c r="AY19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>41</v>
       </c>
-      <c r="AL19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ19" t="n">
+      <c r="BA19" t="n">
         <v>67</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>81</v>
       </c>
       <c r="BB19" t="n">
         <v>201</v>
@@ -3988,13 +3988,13 @@
         <v>126</v>
       </c>
       <c r="BD19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>OtG5QqdD</t>
+          <t>raGZGNlA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,179 +4004,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.91</v>
+        <v>3.2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>3.9</v>
+        <v>2.05</v>
       </c>
       <c r="J20" t="n">
-        <v>2.63</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L20" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V20" t="n">
         <v>2.25</v>
       </c>
-      <c r="R20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W20" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="X20" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
         <v>6.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="AH20" t="n">
         <v>9.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AM20" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR20" t="n">
         <v>67</v>
       </c>
       <c r="AS20" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW20" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX20" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AY20" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AZ20" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB20" t="n">
         <v>101</v>
       </c>
-      <c r="BB20" t="n">
-        <v>251</v>
-      </c>
       <c r="BC20" t="n">
-        <v>126</v>
+        <v>451</v>
       </c>
       <c r="BD20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vPAs0OPb</t>
+          <t>W4IPI5u9</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,172 +4186,718 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FK Zorya Luhansk</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>LNZ Cherkasy</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>1.55</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>2.52</v>
+        <v>6.25</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="K21" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="L21" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>2.82</v>
+        <v>3.5</v>
       </c>
       <c r="Q21" t="n">
         <v>1.93</v>
       </c>
       <c r="R21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Y7BGrRBs</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>OtG5QqdD</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vPAs0OPb</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>FK Zorya Luhansk</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LNZ Cherkasy</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.7</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S24" t="n">
         <v>1.39</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T24" t="n">
         <v>2.57</v>
       </c>
-      <c r="U21" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X21" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y21" t="n">
+      <c r="U24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y24" t="n">
         <v>10</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z24" t="n">
         <v>32</v>
       </c>
-      <c r="AA21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB21" t="n">
+      <c r="AA24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB24" t="n">
         <v>32</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC24" t="n">
         <v>8.75</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD24" t="n">
         <v>6</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE24" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF24" t="n">
         <v>65</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG24" t="n">
         <v>500</v>
       </c>
-      <c r="AH21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ21" t="n">
+      <c r="AH24" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>9.5</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AK24" t="n">
         <v>28</v>
       </c>
-      <c r="AL21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AL24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR24" t="n">
         <v>90</v>
       </c>
-      <c r="AS21" t="n">
+      <c r="AS24" t="n">
         <v>250</v>
       </c>
-      <c r="AT21" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV21" t="n">
+      <c r="AT24" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV24" t="n">
         <v>55</v>
       </c>
-      <c r="AW21" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ21" t="n">
+      <c r="AW24" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ24" t="n">
         <v>55</v>
       </c>
-      <c r="BA21" t="n">
-        <v>90</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC21" t="n">
+      <c r="BA24" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC24" t="n">
         <v>81</v>
       </c>
-      <c r="BD21" t="n">
+      <c r="BD24" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD24"/>
+  <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,13 +762,13 @@
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -837,7 +837,7 @@
         <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>23</v>
@@ -876,7 +876,7 @@
         <v>4.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
@@ -932,7 +932,7 @@
         <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
         <v>4.5</v>
@@ -1019,7 +1019,7 @@
         <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
         <v>34</v>
@@ -1040,7 +1040,7 @@
         <v>29</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
         <v>126</v>
@@ -1049,7 +1049,7 @@
         <v>3.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1064,7 +1064,7 @@
         <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>81</v>
@@ -1123,16 +1123,16 @@
         <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
         <v>2.05</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
@@ -1141,10 +1141,10 @@
         <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1177,7 +1177,7 @@
         <v>51</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>8</v>
@@ -1186,7 +1186,7 @@
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
@@ -1198,7 +1198,7 @@
         <v>6.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
         <v>9.5</v>
@@ -1225,7 +1225,7 @@
         <v>201</v>
       </c>
       <c r="AS4" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AT4" t="n">
         <v>2.75</v>
@@ -1323,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R5" t="n">
         <v>2.35</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H6" t="n">
         <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="J6" t="n">
         <v>6</v>
@@ -1565,7 +1565,7 @@
         <v>8.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
@@ -1586,7 +1586,7 @@
         <v>101</v>
       </c>
       <c r="AR6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS6" t="n">
         <v>201</v>
@@ -1595,7 +1595,7 @@
         <v>3.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1604,7 +1604,7 @@
         <v>3.6</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY6" t="n">
         <v>17</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="J7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="K7" t="n">
         <v>2.32</v>
       </c>
       <c r="L7" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1699,22 +1699,22 @@
         <v>2.99</v>
       </c>
       <c r="U7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA7" t="n">
         <v>12</v>
@@ -1729,10 +1729,10 @@
         <v>9.75</v>
       </c>
       <c r="AE7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
@@ -1741,10 +1741,10 @@
         <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK7" t="n">
         <v>300</v>
@@ -1756,10 +1756,10 @@
         <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AO7" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
@@ -1783,7 +1783,7 @@
         <v>110</v>
       </c>
       <c r="AW7" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AX7" t="n">
         <v>60</v>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>1.8</v>
@@ -1914,10 +1914,10 @@
         <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="n">
         <v>12</v>
@@ -1935,10 +1935,10 @@
         <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
         <v>19</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>2.88</v>
@@ -2036,13 +2036,13 @@
         <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
         <v>1.2</v>
@@ -2078,7 +2078,7 @@
         <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>17</v>
@@ -2090,7 +2090,7 @@
         <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
@@ -2135,7 +2135,7 @@
         <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT9" t="n">
         <v>3.25</v>
@@ -2156,7 +2156,7 @@
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CzEBrXLa</t>
+          <t>GCW0bGhf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,170 +2366,170 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>S. Rzeszow</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="J11" t="n">
         <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>2.15</v>
       </c>
       <c r="R11" t="n">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="W11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI11" t="n">
         <v>13</v>
       </c>
-      <c r="X11" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y11" t="n">
+      <c r="AJ11" t="n">
         <v>11</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AK11" t="n">
         <v>29</v>
       </c>
-      <c r="AA11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF11" t="n">
+      <c r="AL11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM11" t="n">
         <v>34</v>
       </c>
-      <c r="AG11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>21</v>
-      </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
         <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
         <v>4.75</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EaASvkLO</t>
+          <t>CzEBrXLa</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2558,160 +2558,160 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tychy</t>
+          <t>S. Rzeszow</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.27</v>
+        <v>2.55</v>
       </c>
       <c r="H12" t="n">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>8.5</v>
+        <v>2.45</v>
       </c>
       <c r="J12" t="n">
-        <v>1.73</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L12" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
+        <v>17</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W12" t="n">
+        <v>13</v>
+      </c>
+      <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA12" t="n">
         <v>19</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W12" t="n">
-        <v>9</v>
-      </c>
-      <c r="X12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>11</v>
-      </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
         <v>17</v>
       </c>
       <c r="AD12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE12" t="n">
         <v>11</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AF12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM12" t="n">
         <v>21</v>
       </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI12" t="n">
+      <c r="AN12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>41</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>15</v>
-      </c>
       <c r="AR12" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
         <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>41</v>
       </c>
-      <c r="AY12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>151</v>
-      </c>
       <c r="BA12" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="BC12" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>rwqMN8B7</t>
+          <t>EaASvkLO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2735,159 +2735,159 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Tychy</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.62</v>
+        <v>1.27</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N13" t="n">
+        <v>19</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P13" t="n">
         <v>5.5</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>11</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.93</v>
+        <v>1.48</v>
       </c>
       <c r="R13" t="n">
-        <v>1.93</v>
+        <v>2.6</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="X13" t="n">
         <v>7.5</v>
       </c>
       <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z13" t="n">
-        <v>12</v>
-      </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
         <v>10</v>
       </c>
-      <c r="AD13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL13" t="n">
+      <c r="AX13" t="n">
         <v>41</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AY13" t="n">
         <v>41</v>
       </c>
-      <c r="AN13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="AZ13" t="n">
         <v>151</v>
       </c>
-      <c r="AT13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>101</v>
-      </c>
       <c r="BA13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB13" t="n">
         <v>251</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0ChQbD15</t>
+          <t>rwqMN8B7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,98 +2912,98 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.4</v>
       </c>
-      <c r="P14" t="n">
+      <c r="T14" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q14" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W14" t="n">
         <v>6.5</v>
       </c>
       <c r="X14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC14" t="n">
         <v>10</v>
       </c>
-      <c r="Y14" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7</v>
-      </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="n">
         <v>51</v>
@@ -3012,79 +3012,79 @@
         <v>351</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AP14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>26</v>
       </c>
-      <c r="AQ14" t="n">
-        <v>41</v>
-      </c>
       <c r="AR14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU14" t="n">
         <v>8.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ14" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA14" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB14" t="n">
         <v>251</v>
       </c>
       <c r="BC14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dQ60rhHO</t>
+          <t>0ChQbD15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3104,88 +3104,88 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FC Hermannstadt</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N15" t="n">
         <v>7</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.88</v>
+        <v>2.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.98</v>
+        <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W15" t="n">
         <v>6.5</v>
       </c>
       <c r="X15" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
         <v>67</v>
@@ -3194,67 +3194,67 @@
         <v>351</v>
       </c>
       <c r="AH15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI15" t="n">
         <v>17</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AJ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK15" t="n">
         <v>41</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>81</v>
-      </c>
       <c r="AL15" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="AU15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV15" t="n">
         <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="AX15" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ15" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BA15" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC15" t="n">
         <v>51</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>KlZCtGXp</t>
+          <t>dQ60rhHO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,167 +3276,167 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>FC Hermannstadt</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.37</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
-        <v>2.95</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.95</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.05</v>
+        <v>1.95</v>
       </c>
       <c r="K16" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>5.6</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.42</v>
+        <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.42</v>
+        <v>1.88</v>
       </c>
       <c r="R16" t="n">
-        <v>1.5</v>
+        <v>1.98</v>
       </c>
       <c r="S16" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="T16" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
         <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="W16" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="X16" t="n">
-        <v>10.25</v>
+        <v>6.5</v>
       </c>
       <c r="Y16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
         <v>10</v>
       </c>
-      <c r="Z16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA16" t="n">
+      <c r="AD16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>23</v>
       </c>
-      <c r="AB16" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH16" t="n">
+      <c r="AK16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO16" t="n">
         <v>7</v>
       </c>
-      <c r="AI16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>13</v>
-      </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AS16" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.7</v>
+        <v>8.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>17.5</v>
+        <v>41</v>
       </c>
       <c r="AY16" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="BA16" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="BB16" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="BC16" t="n">
         <v>51</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4x9G0yPG</t>
+          <t>KlZCtGXp</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3468,154 +3468,154 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>2.22</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.1</v>
       </c>
-      <c r="L17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.72</v>
-      </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="W17" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="X17" t="n">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AA17" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.5</v>
+        <v>5.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AI17" t="n">
         <v>14</v>
       </c>
-      <c r="AF17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>35</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AM17" t="n">
         <v>50</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.5</v>
+        <v>4.05</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AR17" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AS17" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.72</v>
+        <v>2.4</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="AV17" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AW17" t="n">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="AX17" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="BA17" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="BB17" t="n">
         <v>450</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>f7kYmbuB</t>
+          <t>4x9G0yPG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,31 +3650,31 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.9</v>
+        <v>1.62</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>1.78</v>
+        <v>5.3</v>
       </c>
       <c r="J18" t="n">
-        <v>4.35</v>
+        <v>2.22</v>
       </c>
       <c r="K18" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>2.37</v>
+        <v>5.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -3683,16 +3683,16 @@
         <v>7.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="R18" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
         <v>1.4</v>
@@ -3701,106 +3701,106 @@
         <v>2.72</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="V18" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>11.25</v>
+        <v>7.2</v>
       </c>
       <c r="X18" t="n">
-        <v>21</v>
+        <v>8.25</v>
       </c>
       <c r="Y18" t="n">
-        <v>13.5</v>
+        <v>7.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AA18" t="n">
-        <v>37</v>
+        <v>12.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="AC18" t="n">
         <v>7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AE18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AG18" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO18" t="n">
         <v>8.25</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>27</v>
       </c>
-      <c r="AN18" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>120</v>
-      </c>
       <c r="AR18" t="n">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="AS18" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AT18" t="n">
         <v>2.72</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="AV18" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.65</v>
+        <v>7</v>
       </c>
       <c r="AX18" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="AY18" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="AZ18" t="n">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="BA18" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="BB18" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="BC18" t="n">
         <v>51</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UatBnfzp</t>
+          <t>f7kYmbuB</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,179 +3822,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>4.35</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="L19" t="n">
-        <v>2.88</v>
+        <v>2.37</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S19" t="n">
         <v>1.4</v>
       </c>
-      <c r="P19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.44</v>
-      </c>
       <c r="T19" t="n">
-        <v>2.63</v>
+        <v>2.72</v>
       </c>
       <c r="U19" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="W19" t="n">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AA19" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AB19" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF19" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="n">
-        <v>351</v>
+        <v>600</v>
       </c>
       <c r="AH19" t="n">
         <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AJ19" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX19" t="n">
         <v>9</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AY19" t="n">
         <v>19</v>
       </c>
-      <c r="AL19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ19" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="BA19" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BB19" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="BC19" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD19" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>raGZGNlA</t>
+          <t>KCTDqtWs</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,179 +4004,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Orgryte</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>2.38</v>
       </c>
       <c r="K20" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6</v>
+      </c>
+      <c r="X20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z20" t="n">
         <v>13</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W20" t="n">
-        <v>13</v>
-      </c>
-      <c r="X20" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>34</v>
-      </c>
       <c r="AA20" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AB20" t="n">
         <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW20" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG20" t="n">
+      <c r="AX20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA20" t="n">
         <v>126</v>
       </c>
-      <c r="AH20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>51</v>
-      </c>
       <c r="BB20" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BC20" t="n">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="BD20" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>W4IPI5u9</t>
+          <t>UatBnfzp</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,95 +4186,95 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>6.25</v>
+        <v>2.15</v>
       </c>
       <c r="J21" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q21" t="n">
         <v>2.25</v>
       </c>
-      <c r="L21" t="n">
-        <v>6</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N21" t="n">
-        <v>11</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.93</v>
-      </c>
       <c r="R21" t="n">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T21" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V21" t="n">
         <v>1.8</v>
       </c>
       <c r="W21" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="X21" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AA21" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AB21" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
@@ -4283,82 +4283,82 @@
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="AI21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM21" t="n">
         <v>34</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK21" t="n">
+      <c r="AN21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>67</v>
       </c>
-      <c r="AL21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>23</v>
-      </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD21" t="n">
         <v>151</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>276</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>301</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Y7BGrRBs</t>
+          <t>raGZGNlA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N22" t="n">
+        <v>13</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P22" t="n">
         <v>4.33</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N22" t="n">
+      <c r="Q22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W22" t="n">
+        <v>13</v>
+      </c>
+      <c r="X22" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI22" t="n">
         <v>11</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2</v>
-      </c>
-      <c r="W22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X22" t="n">
+      <c r="AJ22" t="n">
         <v>9</v>
       </c>
-      <c r="Y22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z22" t="n">
+      <c r="AK22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO22" t="n">
         <v>17</v>
       </c>
-      <c r="AA22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC22" t="n">
+      <c r="AP22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX22" t="n">
         <v>11</v>
       </c>
-      <c r="AD22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ22" t="n">
+      <c r="AY22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ22" t="n">
         <v>34</v>
       </c>
-      <c r="AR22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS22" t="n">
+      <c r="BA22" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD22" t="n">
         <v>151</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OtG5QqdD</t>
+          <t>W4IPI5u9</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4555,90 +4555,90 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.91</v>
       </c>
-      <c r="H23" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N23" t="n">
-        <v>9</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2</v>
-      </c>
       <c r="V23" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W23" t="n">
         <v>6.5</v>
       </c>
       <c r="X23" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y23" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y23" t="n">
-        <v>9</v>
-      </c>
       <c r="Z23" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AA23" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>17</v>
@@ -4647,82 +4647,82 @@
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH23" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>19</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>13</v>
-      </c>
       <c r="AK23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY23" t="n">
         <v>41</v>
       </c>
-      <c r="AL23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA23" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB23" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC23" t="n">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="BD23" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vPAs0OPb</t>
+          <t>Y7BGrRBs</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,172 +4732,536 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FK Zorya Luhansk</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>LNZ Cherkasy</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.72</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>2.52</v>
+        <v>3.9</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>3.05</v>
+        <v>4.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
+        <v>11</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2</v>
+      </c>
+      <c r="W24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO24" t="n">
         <v>10</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W24" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>14.5</v>
       </c>
       <c r="AP24" t="n">
         <v>21</v>
       </c>
       <c r="AQ24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>OtG5QqdD</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>vPAs0OPb</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>FK Zorya Luhansk</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>LNZ Cherkasy</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N26" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W26" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>65</v>
       </c>
-      <c r="AR24" t="n">
+      <c r="AR26" t="n">
         <v>90</v>
       </c>
-      <c r="AS24" t="n">
+      <c r="AS26" t="n">
         <v>250</v>
       </c>
-      <c r="AT24" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>55</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC24" t="n">
+      <c r="AT26" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC26" t="n">
         <v>81</v>
       </c>
-      <c r="BD24" t="n">
+      <c r="BD26" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD26"/>
+  <dimension ref="A1:BD29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jqCRLjz2</t>
+          <t>ratYowuH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>ENGLAND - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.38</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
       </c>
       <c r="Y2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO2" t="n">
         <v>11</v>
       </c>
-      <c r="Z2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA2" t="n">
+      <c r="AP2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>23</v>
       </c>
-      <c r="AB2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV2" t="n">
+      <c r="BA2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB2" t="n">
         <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>vJXfdXBE</t>
+          <t>jqCRLjz2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,160 +920,160 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
         <v>4.5</v>
       </c>
-      <c r="J3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="AO3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX3" t="n">
         <v>4.5</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
-        <v>13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W3" t="n">
-        <v>8</v>
-      </c>
-      <c r="X3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ3" t="n">
+      <c r="AY3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>29</v>
       </c>
-      <c r="AR3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ3" t="n">
+      <c r="BA3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB3" t="n">
         <v>81</v>
       </c>
-      <c r="BA3" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>151</v>
-      </c>
       <c r="BC3" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CpL6NMzi</t>
+          <t>vJXfdXBE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="n">
         <v>7</v>
       </c>
-      <c r="H4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="AE4" t="n">
         <v>15</v>
       </c>
-      <c r="X4" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>21</v>
-      </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX4" t="n">
         <v>6.5</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ4" t="n">
+      <c r="AY4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC4" t="n">
         <v>151</v>
       </c>
-      <c r="AR4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB4" t="n">
+      <c r="BD4" t="n">
         <v>151</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AaumjT1M</t>
+          <t>rXmhxCKr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,74 +1274,74 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W5" t="n">
         <v>7.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>17</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8.5</v>
       </c>
       <c r="X5" t="n">
         <v>7.5</v>
@@ -1350,19 +1350,19 @@
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="n">
         <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1371,46 +1371,46 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
         <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
         <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
         <v>8.5</v>
@@ -1419,25 +1419,25 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>8.5</v>
+        <v>151</v>
       </c>
       <c r="AX5" t="n">
-        <v>34</v>
+        <v>7.5</v>
       </c>
       <c r="AY5" t="n">
         <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="BA5" t="n">
         <v>126</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>niN2i2Nj</t>
+          <t>zeCiJHet</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W6" t="n">
         <v>5.5</v>
       </c>
-      <c r="H6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="X6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>15</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W6" t="n">
-        <v>17</v>
-      </c>
-      <c r="X6" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK6" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
         <v>12</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY6" t="n">
         <v>23</v>
       </c>
-      <c r="AN6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>v7mD6TE8</t>
+          <t>AaumjT1M</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,101 +1638,101 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tampico Madero</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>9.25</v>
+        <v>7.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="K7" t="n">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>2.35</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T7" t="n">
-        <v>2.99</v>
+        <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.52</v>
+        <v>1.95</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD7" t="n">
         <v>9</v>
       </c>
-      <c r="Z7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AE7" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
@@ -1741,76 +1741,76 @@
         <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.95</v>
+        <v>3.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="AP7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>19</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AR7" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.77</v>
+        <v>3.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>9.5</v>
+        <v>501</v>
       </c>
       <c r="AX7" t="n">
-        <v>60</v>
+        <v>8.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="BA7" t="n">
-        <v>500</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WrBOmjM7</t>
+          <t>zuChyeRl</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,158 +1820,158 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Tecnico U.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>U. Catolica</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.8</v>
       </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N8" t="n">
-        <v>19</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P8" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.63</v>
-      </c>
       <c r="W8" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
         <v>26</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK8" t="n">
         <v>21</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AL8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU8" t="n">
         <v>8.5</v>
       </c>
-      <c r="AE8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL8" t="n">
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY8" t="n">
         <v>13</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>15</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
@@ -1980,19 +1980,19 @@
         <v>41</v>
       </c>
       <c r="BB8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>zHHFkCie</t>
+          <t>4WNXteh2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>AC Ajaccio</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
       <c r="L9" t="n">
-        <v>3.4</v>
+        <v>2.62</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK9" t="n">
         <v>15</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W9" t="n">
-        <v>10</v>
-      </c>
-      <c r="X9" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="AL9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU9" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ9" t="n">
+      <c r="AV9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY9" t="n">
         <v>11</v>
       </c>
-      <c r="AK9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM9" t="n">
+      <c r="AZ9" t="n">
         <v>26</v>
       </c>
-      <c r="AN9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>51</v>
-      </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB9" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BC9" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>l2nM5b0K</t>
+          <t>niN2i2Nj</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,143 +2184,143 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>1.48</v>
       </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
         <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="X10" t="n">
-        <v>9.5</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="AA10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE10" t="n">
         <v>17</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO10" t="n">
         <v>29</v>
       </c>
-      <c r="AC10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>12</v>
-      </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -2329,34 +2329,34 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>51</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>3.6</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>7.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="BC10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GCW0bGhf</t>
+          <t>v7mD6TE8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>Tampico Madero</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.35</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="I11" t="n">
-        <v>2.88</v>
+        <v>9.25</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>1.78</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="L11" t="n">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.15</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>3.13</v>
       </c>
       <c r="U11" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.91</v>
+        <v>1.52</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX11" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>17</v>
-      </c>
       <c r="AY11" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AZ11" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="BC11" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CzEBrXLa</t>
+          <t>WrBOmjM7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,65 +2548,65 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>S. Rzeszow</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.55</v>
+        <v>3.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="R12" t="n">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="S12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U12" t="n">
         <v>1.44</v>
@@ -2615,67 +2615,67 @@
         <v>2.63</v>
       </c>
       <c r="W12" t="n">
+        <v>19</v>
+      </c>
+      <c r="X12" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y12" t="n">
         <v>13</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK12" t="n">
         <v>17</v>
       </c>
-      <c r="Y12" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AL12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO12" t="n">
         <v>19</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AP12" t="n">
         <v>21</v>
       </c>
-      <c r="AC12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2684,7 +2684,7 @@
         <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
@@ -2693,34 +2693,34 @@
         <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>5</v>
+        <v>251</v>
       </c>
       <c r="AX12" t="n">
-        <v>13</v>
+        <v>4.33</v>
       </c>
       <c r="AY12" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="BB12" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BC12" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EaASvkLO</t>
+          <t>zHHFkCie</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tychy</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.27</v>
+        <v>2.25</v>
       </c>
       <c r="H13" t="n">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>1.73</v>
+        <v>2.88</v>
       </c>
       <c r="K13" t="n">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="S13" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="T13" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="V13" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="n">
         <v>23</v>
       </c>
       <c r="AC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI13" t="n">
         <v>17</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AJ13" t="n">
         <v>11</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AK13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL13" t="n">
         <v>21</v>
       </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH13" t="n">
+      <c r="AM13" t="n">
         <v>26</v>
       </c>
-      <c r="AI13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>51</v>
-      </c>
       <c r="AN13" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
         <v>101</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>10</v>
+        <v>351</v>
       </c>
       <c r="AX13" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD13" t="n">
         <v>151</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>rwqMN8B7</t>
+          <t>l2nM5b0K</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,134 +2912,134 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U14" t="n">
         <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X14" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
         <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH14" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AK14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AR14" t="n">
         <v>51</v>
@@ -3048,34 +3048,34 @@
         <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
         <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="AX14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>29</v>
       </c>
-      <c r="AY14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>101</v>
-      </c>
       <c r="BA14" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="BC14" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0ChQbD15</t>
+          <t>GCW0bGhf</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,83 +3094,83 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P15" t="n">
         <v>3</v>
       </c>
-      <c r="I15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="Q15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.44</v>
       </c>
-      <c r="P15" t="n">
+      <c r="T15" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
         <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
         <v>21</v>
@@ -3179,40 +3179,40 @@
         <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH15" t="n">
         <v>8.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM15" t="n">
         <v>34</v>
       </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
@@ -3221,52 +3221,52 @@
         <v>26</v>
       </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR15" t="n">
         <v>67</v>
       </c>
       <c r="AS15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>4.75</v>
       </c>
       <c r="AY15" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AZ15" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="BA15" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB15" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="BC15" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BD15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dQ60rhHO</t>
+          <t>CzEBrXLa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FC Hermannstadt</t>
+          <t>S. Rzeszow</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L16" t="n">
+        <v>3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>17</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>13</v>
+      </c>
+      <c r="X16" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU16" t="n">
         <v>7</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
-        <v>11</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA16" t="n">
+      <c r="AV16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY16" t="n">
         <v>13</v>
       </c>
-      <c r="AB16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK16" t="n">
+      <c r="AZ16" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD16" t="n">
         <v>81</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>KlZCtGXp</t>
+          <t>EaASvkLO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Tychy</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>1.27</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>1.73</v>
       </c>
       <c r="K17" t="n">
-        <v>1.98</v>
+        <v>2.75</v>
       </c>
       <c r="L17" t="n">
-        <v>3.7</v>
+        <v>7.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>5.7</v>
+        <v>19</v>
       </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="P17" t="n">
-        <v>2.42</v>
+        <v>5.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.42</v>
+        <v>1.48</v>
       </c>
       <c r="R17" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="S17" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="T17" t="n">
-        <v>2.42</v>
+        <v>3.75</v>
       </c>
       <c r="U17" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V17" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="W17" t="n">
+        <v>9</v>
+      </c>
+      <c r="X17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO17" t="n">
         <v>6</v>
       </c>
-      <c r="X17" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y17" t="n">
+      <c r="AP17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX17" t="n">
         <v>10</v>
       </c>
-      <c r="Z17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AY17" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ17" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="BA17" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BB17" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BD17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4x9G0yPG</t>
+          <t>rwqMN8B7</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3640,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>1.62</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
         <v>5.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
         <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S18" t="n">
         <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="X18" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="Z18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA18" t="n">
         <v>13</v>
       </c>
-      <c r="AA18" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AB18" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD18" t="n">
         <v>7.5</v>
       </c>
-      <c r="AD18" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>450</v>
+        <v>351</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI18" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR18" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX18" t="n">
         <v>7</v>
       </c>
-      <c r="AX18" t="n">
-        <v>32</v>
-      </c>
       <c r="AY18" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="BA18" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BB18" t="n">
-        <v>450</v>
+        <v>126</v>
       </c>
       <c r="BC18" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BD18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>f7kYmbuB</t>
+          <t>0ChQbD15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,170 +3822,170 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>1.78</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>4.35</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>2.37</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P19" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="R19" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="S19" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="T19" t="n">
-        <v>2.72</v>
+        <v>2.38</v>
       </c>
       <c r="U19" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="W19" t="n">
-        <v>11.25</v>
+        <v>6.5</v>
       </c>
       <c r="X19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z19" t="n">
         <v>21</v>
       </c>
-      <c r="Y19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>60</v>
-      </c>
       <c r="AA19" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="AB19" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="n">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AG19" t="n">
-        <v>600</v>
+        <v>351</v>
       </c>
       <c r="AH19" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>8.25</v>
+        <v>17</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="AL19" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="AO19" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AQ19" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AR19" t="n">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="AS19" t="n">
-        <v>400</v>
+        <v>251</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.72</v>
+        <v>2.38</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="AV19" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AW19" t="n">
-        <v>3.65</v>
+        <v>51</v>
       </c>
       <c r="AX19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BA19" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BB19" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BC19" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BD19" t="n">
         <v>51</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>KCTDqtWs</t>
+          <t>dQ60rhHO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,179 +4004,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>FC Hermannstadt</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="J20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K20" t="n">
         <v>2.38</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3</v>
+      </c>
+      <c r="U20" t="n">
         <v>2.1</v>
       </c>
-      <c r="L20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="V20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y20" t="n">
         <v>9</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W20" t="n">
-        <v>6</v>
-      </c>
-      <c r="X20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y20" t="n">
+      <c r="Z20" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AA20" t="n">
         <v>13</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>15</v>
       </c>
       <c r="AB20" t="n">
         <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF20" t="n">
         <v>67</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AH20" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>26</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>17</v>
-      </c>
       <c r="AK20" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AL20" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AM20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AO20" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AP20" t="n">
         <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AR20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS20" t="n">
         <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV20" t="n">
         <v>67</v>
       </c>
       <c r="AW20" t="n">
-        <v>6.5</v>
+        <v>51</v>
       </c>
       <c r="AX20" t="n">
-        <v>29</v>
+        <v>8.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ20" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BA20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB20" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC20" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD20" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UatBnfzp</t>
+          <t>4x9G0yPG</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,179 +4186,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P21" t="n">
         <v>3.5</v>
       </c>
-      <c r="H21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="Q21" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V21" t="n">
         <v>2</v>
       </c>
-      <c r="L21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N21" t="n">
-        <v>8</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W21" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="X21" t="n">
-        <v>17</v>
+        <v>8.25</v>
       </c>
       <c r="Y21" t="n">
-        <v>12</v>
+        <v>7.7</v>
       </c>
       <c r="Z21" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
-        <v>29</v>
+        <v>12.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AF21" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AG21" t="n">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>9.5</v>
+        <v>35</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="AL21" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>8.25</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="AR21" t="n">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="AS21" t="n">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="AU21" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="AV21" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AW21" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="AX21" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AY21" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AZ21" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="BA21" t="n">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="BB21" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="BC21" t="n">
-        <v>126</v>
+        <v>450</v>
       </c>
       <c r="BD21" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>raGZGNlA</t>
+          <t>f7kYmbuB</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Orgryte</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L22" t="n">
-        <v>2.63</v>
+        <v>2.42</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W22" t="n">
+        <v>11</v>
+      </c>
+      <c r="X22" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y22" t="n">
         <v>13</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W22" t="n">
-        <v>13</v>
-      </c>
-      <c r="X22" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>12</v>
-      </c>
       <c r="Z22" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AA22" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AE22" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AG22" t="n">
-        <v>126</v>
+        <v>600</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>6.9</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AM22" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AO22" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AQ22" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AR22" t="n">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="AS22" t="n">
-        <v>126</v>
+        <v>400</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="AU22" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AV22" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.33</v>
+        <v>51</v>
       </c>
       <c r="AX22" t="n">
-        <v>11</v>
+        <v>3.65</v>
       </c>
       <c r="AY22" t="n">
-        <v>19</v>
+        <v>9.25</v>
       </c>
       <c r="AZ22" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="BA22" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="BB22" t="n">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="BC22" t="n">
-        <v>401</v>
+        <v>250</v>
       </c>
       <c r="BD22" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>W4IPI5u9</t>
+          <t>KCTDqtWs</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,134 +4550,134 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K23" t="n">
         <v>2.1</v>
       </c>
-      <c r="K23" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W23" t="n">
         <v>6</v>
       </c>
-      <c r="M23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N23" t="n">
-        <v>11</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W23" t="n">
-        <v>6.5</v>
-      </c>
       <c r="X23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y23" t="n">
         <v>8.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB23" t="n">
         <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD23" t="n">
         <v>7</v>
       </c>
       <c r="AE23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>17</v>
       </c>
-      <c r="AF23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>19</v>
-      </c>
       <c r="AK23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM23" t="n">
         <v>51</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP23" t="n">
         <v>21</v>
       </c>
       <c r="AQ23" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AR23" t="n">
         <v>51</v>
@@ -4686,43 +4686,43 @@
         <v>151</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU23" t="n">
         <v>9</v>
       </c>
       <c r="AV23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW23" t="n">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="AX23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY23" t="n">
         <v>29</v>
       </c>
-      <c r="AY23" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ23" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA23" t="n">
         <v>101</v>
       </c>
-      <c r="BA23" t="n">
+      <c r="BB23" t="n">
         <v>126</v>
       </c>
-      <c r="BB23" t="n">
+      <c r="BC23" t="n">
         <v>301</v>
       </c>
-      <c r="BC23" t="n">
-        <v>276</v>
-      </c>
       <c r="BD23" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Y7BGrRBs</t>
+          <t>UatBnfzp</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,179 +4732,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>3.9</v>
+        <v>2.15</v>
       </c>
       <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T24" t="n">
         <v>2.5</v>
       </c>
-      <c r="K24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N24" t="n">
-        <v>11</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U24" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W24" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X24" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Y24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU24" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB24" t="n">
+      <c r="AV24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ24" t="n">
         <v>26</v>
       </c>
-      <c r="AC24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG24" t="n">
+      <c r="BA24" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC24" t="n">
         <v>201</v>
       </c>
-      <c r="AH24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS24" t="n">
+      <c r="BD24" t="n">
         <v>151</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>OtG5QqdD</t>
+          <t>raGZGNlA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,354 +4914,900 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.91</v>
+        <v>3.3</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L25" t="n">
         <v>2.63</v>
       </c>
-      <c r="K25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.5</v>
-      </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
+        <v>15</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W25" t="n">
+        <v>13</v>
+      </c>
+      <c r="X25" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>9</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z25" t="n">
+      <c r="AK25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO25" t="n">
         <v>17</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>11</v>
       </c>
       <c r="AP25" t="n">
         <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR25" t="n">
         <v>67</v>
       </c>
       <c r="AS25" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="AU25" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV25" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW25" t="n">
-        <v>5.5</v>
+        <v>401</v>
       </c>
       <c r="AX25" t="n">
-        <v>23</v>
+        <v>4.33</v>
       </c>
       <c r="AY25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA25" t="n">
         <v>34</v>
       </c>
-      <c r="AZ25" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA25" t="n">
+      <c r="BB25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC25" t="n">
         <v>101</v>
       </c>
-      <c r="BB25" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>126</v>
-      </c>
       <c r="BD25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>W4IPI5u9</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>11</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Y7BGrRBs</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N27" t="n">
+        <v>11</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OtG5QqdD</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>9</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>vPAs0OPb</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>04/11/2024</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>FK Zorya Luhansk</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>LNZ Cherkasy</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G29" t="n">
         <v>2.75</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H29" t="n">
         <v>3</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I29" t="n">
         <v>2.55</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J29" t="n">
         <v>3.25</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K29" t="n">
         <v>2.05</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L29" t="n">
         <v>3.1</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N26" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="M29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" t="n">
         <v>1.32</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P29" t="n">
         <v>2.82</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q29" t="n">
         <v>1.93</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R29" t="n">
         <v>1.7</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S29" t="n">
         <v>1.39</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T29" t="n">
         <v>2.57</v>
       </c>
-      <c r="U26" t="n">
+      <c r="U29" t="n">
         <v>1.7</v>
       </c>
-      <c r="V26" t="n">
+      <c r="V29" t="n">
         <v>1.93</v>
       </c>
-      <c r="W26" t="n">
+      <c r="W29" t="n">
         <v>8.75</v>
       </c>
-      <c r="X26" t="n">
+      <c r="X29" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Y29" t="n">
         <v>9.75</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="Z29" t="n">
         <v>35</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AA29" t="n">
         <v>23</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AB29" t="n">
         <v>30</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AC29" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AD29" t="n">
         <v>5.8</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AE29" t="n">
         <v>13</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AF29" t="n">
         <v>60</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AG29" t="n">
         <v>450</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AH29" t="n">
         <v>7.9</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AI29" t="n">
         <v>12.5</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AJ29" t="n">
         <v>9.5</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AK29" t="n">
         <v>29</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AL29" t="n">
         <v>22</v>
       </c>
-      <c r="AM26" t="n">
+      <c r="AM29" t="n">
         <v>30</v>
       </c>
-      <c r="AN26" t="n">
+      <c r="AN29" t="n">
         <v>4.7</v>
       </c>
-      <c r="AO26" t="n">
+      <c r="AO29" t="n">
         <v>14.5</v>
       </c>
-      <c r="AP26" t="n">
+      <c r="AP29" t="n">
         <v>20</v>
       </c>
-      <c r="AQ26" t="n">
+      <c r="AQ29" t="n">
         <v>65</v>
       </c>
-      <c r="AR26" t="n">
+      <c r="AR29" t="n">
         <v>90</v>
       </c>
-      <c r="AS26" t="n">
+      <c r="AS29" t="n">
         <v>250</v>
       </c>
-      <c r="AT26" t="n">
+      <c r="AT29" t="n">
         <v>2.55</v>
       </c>
-      <c r="AU26" t="n">
+      <c r="AU29" t="n">
         <v>6.4</v>
       </c>
-      <c r="AV26" t="n">
+      <c r="AV29" t="n">
         <v>50</v>
       </c>
-      <c r="AW26" t="n">
+      <c r="AW29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX29" t="n">
         <v>4.5</v>
       </c>
-      <c r="AX26" t="n">
+      <c r="AY29" t="n">
         <v>13.5</v>
       </c>
-      <c r="AY26" t="n">
+      <c r="AZ29" t="n">
         <v>20</v>
       </c>
-      <c r="AZ26" t="n">
+      <c r="BA29" t="n">
         <v>60</v>
       </c>
-      <c r="BA26" t="n">
+      <c r="BB29" t="n">
         <v>90</v>
       </c>
-      <c r="BB26" t="n">
+      <c r="BC29" t="n">
         <v>250</v>
       </c>
-      <c r="BC26" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD26" t="n">
+      <c r="BD29" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD29"/>
+  <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,10 +771,10 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.67</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.05</v>
@@ -1317,16 +1317,16 @@
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1335,10 +1335,10 @@
         <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1374,22 +1374,22 @@
         <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
         <v>67</v>
       </c>
       <c r="AL5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
         <v>3.5</v>
@@ -1401,7 +1401,7 @@
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>
@@ -1425,13 +1425,13 @@
         <v>7.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
         <v>34</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
         <v>126</v>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
@@ -1860,7 +1860,7 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -2033,10 +2033,10 @@
         <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>v7mD6TE8</t>
+          <t>WrBOmjM7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tampico Madero</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H11" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>9.25</v>
+        <v>1.8</v>
       </c>
       <c r="J11" t="n">
-        <v>1.78</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O11" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S11" t="n">
         <v>1.25</v>
       </c>
-      <c r="P11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.34</v>
-      </c>
       <c r="T11" t="n">
-        <v>3.13</v>
+        <v>3.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>1.41</v>
       </c>
       <c r="V11" t="n">
-        <v>1.52</v>
+        <v>2.62</v>
       </c>
       <c r="W11" t="n">
+        <v>19</v>
+      </c>
+      <c r="X11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN11" t="n">
         <v>6</v>
       </c>
-      <c r="X11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y11" t="n">
+      <c r="AO11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY11" t="n">
         <v>9</v>
       </c>
-      <c r="Z11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>60</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="BA11" t="n">
-        <v>500</v>
+        <v>26</v>
       </c>
       <c r="BB11" t="n">
-        <v>500</v>
+        <v>41</v>
       </c>
       <c r="BC11" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WrBOmjM7</t>
+          <t>zHHFkCie</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,124 +2558,124 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.7</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="S12" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="T12" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="V12" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="W12" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="n">
         <v>23</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AC12" t="n">
         <v>13</v>
       </c>
-      <c r="Z12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>21</v>
-      </c>
       <c r="AD12" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AH12" t="n">
         <v>12</v>
       </c>
       <c r="AI12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>12</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO12" t="n">
+      <c r="AP12" t="n">
         <v>19</v>
       </c>
-      <c r="AP12" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2684,7 +2684,7 @@
         <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
@@ -2693,25 +2693,25 @@
         <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AY12" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ12" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA12" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC12" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>zHHFkCie</t>
+          <t>l2nM5b0K</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K13" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="R13" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>2.25</v>
+        <v>1.87</v>
       </c>
       <c r="W13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="n">
         <v>17</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AI13" t="n">
         <v>17</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
         <v>29</v>
       </c>
-      <c r="AL13" t="n">
-        <v>21</v>
-      </c>
       <c r="AM13" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AO13" t="n">
         <v>12</v>
       </c>
       <c r="AP13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY13" t="n">
         <v>19</v>
       </c>
-      <c r="AQ13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>15</v>
-      </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="BA13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC13" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BD13" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>l2nM5b0K</t>
+          <t>GCW0bGhf</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2922,49 +2922,49 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K14" t="n">
         <v>2.05</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
@@ -2973,34 +2973,34 @@
         <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V14" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y14" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>9</v>
-      </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>15</v>
@@ -3012,40 +3012,40 @@
         <v>301</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT14" t="n">
         <v>2.63</v>
@@ -3060,16 +3060,16 @@
         <v>81</v>
       </c>
       <c r="AX14" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ14" t="n">
         <v>29</v>
       </c>
       <c r="BA14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GCW0bGhf</t>
+          <t>EaASvkLO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,146 +3094,146 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>Tychy</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.35</v>
+        <v>1.27</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="I15" t="n">
-        <v>2.88</v>
+        <v>8.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>1.73</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L15" t="n">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
+        <v>19</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W15" t="n">
+        <v>9</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
         <v>8.5</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X15" t="n">
+      <c r="AA15" t="n">
         <v>11</v>
       </c>
-      <c r="Y15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AB15" t="n">
         <v>23</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AC15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE15" t="n">
         <v>21</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR15" t="n">
         <v>34</v>
       </c>
-      <c r="AC15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>67</v>
-      </c>
       <c r="AS15" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
@@ -3242,22 +3242,22 @@
         <v>81</v>
       </c>
       <c r="AX15" t="n">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AZ15" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BB15" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CzEBrXLa</t>
+          <t>pWz7ZINP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,110 +3276,110 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>S. Rzeszow</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
         <v>2.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2.4</v>
       </c>
-      <c r="L16" t="n">
-        <v>3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="R16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="n">
         <v>17</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W16" t="n">
-        <v>13</v>
-      </c>
-      <c r="X16" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AF16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI16" t="n">
         <v>11</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>15</v>
       </c>
       <c r="AJ16" t="n">
         <v>10</v>
@@ -3388,67 +3388,67 @@
         <v>26</v>
       </c>
       <c r="AL16" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM16" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS16" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU16" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW16" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="AX16" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AY16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ16" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="BA16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC16" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BD16" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EaASvkLO</t>
+          <t>rwqMN8B7</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3463,141 +3463,141 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tychy</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.27</v>
+        <v>1.62</v>
       </c>
       <c r="H17" t="n">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="K17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T17" t="n">
         <v>2.75</v>
       </c>
-      <c r="L17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N17" t="n">
-        <v>19</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.75</v>
-      </c>
       <c r="U17" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="X17" t="n">
         <v>7.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO17" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE17" t="n">
+      <c r="AP17" t="n">
         <v>21</v>
       </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH17" t="n">
+      <c r="AQ17" t="n">
         <v>26</v>
       </c>
-      <c r="AI17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>15</v>
-      </c>
       <c r="AR17" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3606,19 +3606,19 @@
         <v>81</v>
       </c>
       <c r="AX17" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AY17" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA17" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC17" t="n">
         <v>251</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>rwqMN8B7</t>
+          <t>dQ60rhHO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,41 +3640,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>FC Hermannstadt</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L18" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3683,40 +3683,40 @@
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T18" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W18" t="n">
         <v>6.5</v>
       </c>
       <c r="X18" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AA18" t="n">
         <v>13</v>
@@ -3728,91 +3728,91 @@
         <v>10</v>
       </c>
       <c r="AD18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG18" t="n">
         <v>351</v>
       </c>
       <c r="AH18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AK18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AP18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>21</v>
       </c>
-      <c r="AQ18" t="n">
-        <v>26</v>
-      </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS18" t="n">
         <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA18" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0ChQbD15</t>
+          <t>4x9G0yPG</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,170 +3822,170 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P19" t="n">
         <v>3.5</v>
       </c>
-      <c r="J19" t="n">
-        <v>3</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="Q19" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V19" t="n">
         <v>2</v>
       </c>
-      <c r="L19" t="n">
-        <v>4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="W19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X19" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX19" t="n">
         <v>7</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>5</v>
-      </c>
       <c r="AY19" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AZ19" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BA19" t="n">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="BB19" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="BC19" t="n">
-        <v>301</v>
+        <v>450</v>
       </c>
       <c r="BD19" t="n">
         <v>51</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dQ60rhHO</t>
+          <t>f7kYmbuB</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,170 +4004,170 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>FC Hermannstadt</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.38</v>
+        <v>3.8</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="I20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W20" t="n">
+        <v>11</v>
+      </c>
+      <c r="X20" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>8.5</v>
       </c>
-      <c r="J20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>11</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X20" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>26</v>
-      </c>
       <c r="AK20" t="n">
-        <v>101</v>
+        <v>14.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>67</v>
+        <v>14.5</v>
       </c>
       <c r="AM20" t="n">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.25</v>
+        <v>5.7</v>
       </c>
       <c r="AO20" t="n">
-        <v>6.5</v>
+        <v>22</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AQ20" t="n">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="AR20" t="n">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AS20" t="n">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="AT20" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AU20" t="n">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV20" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AW20" t="n">
         <v>51</v>
       </c>
       <c r="AX20" t="n">
-        <v>8.5</v>
+        <v>3.65</v>
       </c>
       <c r="AY20" t="n">
-        <v>41</v>
+        <v>9.25</v>
       </c>
       <c r="AZ20" t="n">
-        <v>41</v>
+        <v>19.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="BB20" t="n">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="BC20" t="n">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="BD20" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4x9G0yPG</t>
+          <t>KCTDqtWs</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,35 +4186,35 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
@@ -4223,142 +4223,142 @@
         <v>5.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
+        <v>9</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6</v>
+      </c>
+      <c r="X21" t="n">
         <v>7.5</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2</v>
-      </c>
-      <c r="W21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="X21" t="n">
-        <v>8.25</v>
-      </c>
       <c r="Y21" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="Z21" t="n">
         <v>13</v>
       </c>
       <c r="AA21" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AB21" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AG21" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AL21" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AP21" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AR21" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="AV21" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AW21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AZ21" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BA21" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="BB21" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="BC21" t="n">
-        <v>450</v>
+        <v>301</v>
       </c>
       <c r="BD21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>f7kYmbuB</t>
+          <t>UatBnfzp</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.8</v>
       </c>
-      <c r="J22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.88</v>
-      </c>
       <c r="W22" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="X22" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO22" t="n">
         <v>21</v>
       </c>
-      <c r="Y22" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>37</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AJ22" t="n">
+      <c r="AP22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU22" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AV22" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AW22" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AX22" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>9.25</v>
+        <v>12</v>
       </c>
       <c r="AZ22" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="BA22" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="BB22" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BC22" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BD22" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>KCTDqtWs</t>
+          <t>raGZGNlA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,179 +4550,179 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J23" t="n">
         <v>3.6</v>
       </c>
-      <c r="I23" t="n">
-        <v>5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.38</v>
-      </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L23" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="R23" t="n">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="S23" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="T23" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="V23" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="W23" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X23" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AA23" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AB23" t="n">
         <v>29</v>
       </c>
       <c r="AC23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>9</v>
       </c>
-      <c r="AD23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ23" t="n">
+      <c r="AK23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO23" t="n">
         <v>17</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>9</v>
       </c>
       <c r="AP23" t="n">
         <v>21</v>
       </c>
       <c r="AQ23" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD23" t="n">
         <v>151</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UatBnfzp</t>
+          <t>W4IPI5u9</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,95 +4732,95 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L24" t="n">
+        <v>6</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>11</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P24" t="n">
         <v>3.5</v>
       </c>
-      <c r="H24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N24" t="n">
-        <v>9</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="Q24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S24" t="n">
         <v>1.4</v>
       </c>
-      <c r="P24" t="n">
+      <c r="T24" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U24" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
         <v>1.8</v>
       </c>
       <c r="W24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y24" t="n">
         <v>8.5</v>
       </c>
-      <c r="X24" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>12</v>
-      </c>
       <c r="Z24" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="AA24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB24" t="n">
         <v>29</v>
       </c>
-      <c r="AB24" t="n">
-        <v>41</v>
-      </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -4829,82 +4829,82 @@
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AH24" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>9.5</v>
+        <v>34</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AM24" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="AO24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP24" t="n">
         <v>21</v>
       </c>
-      <c r="AP24" t="n">
+      <c r="AQ24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY24" t="n">
         <v>29</v>
       </c>
-      <c r="AQ24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AZ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA24" t="n">
         <v>101</v>
       </c>
-      <c r="AS24" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW24" t="n">
+      <c r="BB24" t="n">
         <v>126</v>
       </c>
-      <c r="AX24" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>67</v>
-      </c>
       <c r="BC24" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD24" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>raGZGNlA</t>
+          <t>Y7BGrRBs</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,179 +4914,179 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Orgryte</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>11</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V25" t="n">
         <v>2</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="W25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA25" t="n">
         <v>15</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W25" t="n">
+      <c r="AB25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>13</v>
       </c>
-      <c r="X25" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB25" t="n">
+      <c r="AK25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL25" t="n">
         <v>29</v>
       </c>
-      <c r="AC25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG25" t="n">
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW25" t="n">
         <v>126</v>
       </c>
-      <c r="AH25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM25" t="n">
+      <c r="AX25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY25" t="n">
         <v>21</v>
       </c>
-      <c r="AN25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AZ25" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA25" t="n">
         <v>67</v>
       </c>
-      <c r="AS25" t="n">
+      <c r="BB25" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD25" t="n">
         <v>126</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>401</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>W4IPI5u9</t>
+          <t>OtG5QqdD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5101,93 +5101,93 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="K26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N26" t="n">
+        <v>9</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2.25</v>
       </c>
-      <c r="L26" t="n">
-        <v>6</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N26" t="n">
-        <v>11</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.9</v>
-      </c>
       <c r="R26" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T26" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U26" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W26" t="n">
         <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z26" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
         <v>51</v>
@@ -5196,619 +5196,73 @@
         <v>351</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR26" t="n">
         <v>67</v>
       </c>
-      <c r="AL26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ26" t="n">
+      <c r="AS26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY26" t="n">
         <v>23</v>
       </c>
-      <c r="AR26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>276</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY26" t="n">
+      <c r="AZ26" t="n">
         <v>34</v>
       </c>
-      <c r="AZ26" t="n">
-        <v>41</v>
-      </c>
       <c r="BA26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD26" t="n">
         <v>126</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Y7BGrRBs</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Genclerbirligi</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Istanbulspor AS</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N27" t="n">
-        <v>11</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T27" t="n">
-        <v>3</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2</v>
-      </c>
-      <c r="W27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X27" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>OtG5QqdD</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Pendikspor</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Manisa FK</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N28" t="n">
-        <v>9</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>vPAs0OPb</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>FK Zorya Luhansk</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>LNZ Cherkasy</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N29" t="n">
-        <v>10</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W29" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="X29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>60</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>90</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J3" t="n">
         <v>3.5</v>
@@ -947,10 +947,10 @@
         <v>3.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -986,7 +986,7 @@
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
         <v>23</v>
@@ -1031,7 +1031,7 @@
         <v>4.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1162,13 +1162,13 @@
         <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>13</v>
@@ -1177,19 +1177,19 @@
         <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH4" t="n">
         <v>15</v>
@@ -1216,7 +1216,7 @@
         <v>9</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
@@ -1231,7 +1231,7 @@
         <v>3.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1317,16 +1317,16 @@
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K7" t="n">
         <v>2.6</v>
@@ -1678,7 +1678,7 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
@@ -1705,16 +1705,16 @@
         <v>1.95</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
         <v>7.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA7" t="n">
         <v>11</v>
@@ -1765,7 +1765,7 @@
         <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
         <v>41</v>
@@ -2024,25 +2024,25 @@
         <v>4.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J9" t="n">
         <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -2075,7 +2075,7 @@
         <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
         <v>51</v>
@@ -2087,16 +2087,16 @@
         <v>51</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
         <v>201</v>
@@ -2108,7 +2108,7 @@
         <v>7.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK9" t="n">
         <v>15</v>
@@ -2117,7 +2117,7 @@
         <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN9" t="n">
         <v>6</v>
@@ -2141,10 +2141,10 @@
         <v>2.38</v>
       </c>
       <c r="AU9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
         <v>81</v>
@@ -2165,7 +2165,7 @@
         <v>67</v>
       </c>
       <c r="BC9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD9" t="n">
         <v>81</v>
@@ -2427,10 +2427,10 @@
         <v>3.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V11" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W11" t="n">
         <v>19</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J12" t="n">
         <v>3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.88</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2597,10 +2597,10 @@
         <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
         <v>1.33</v>
@@ -2609,25 +2609,25 @@
         <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V12" t="n">
         <v>2.25</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X12" t="n">
         <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
         <v>23</v>
@@ -2636,7 +2636,7 @@
         <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
@@ -2651,7 +2651,7 @@
         <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
@@ -2666,10 +2666,10 @@
         <v>26</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
         <v>19</v>
@@ -2681,7 +2681,7 @@
         <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT12" t="n">
         <v>3.25</v>
@@ -2705,7 +2705,7 @@
         <v>21</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB12" t="n">
         <v>51</v>
@@ -2749,16 +2749,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
         <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
@@ -2767,40 +2767,40 @@
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X13" t="n">
         <v>10</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W13" t="n">
-        <v>7</v>
-      </c>
-      <c r="X13" t="n">
-        <v>9.5</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
@@ -2827,7 +2827,7 @@
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH13" t="n">
         <v>9.5</v>
@@ -2839,16 +2839,16 @@
         <v>12</v>
       </c>
       <c r="AK13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO13" t="n">
         <v>12</v>
@@ -2866,7 +2866,7 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
@@ -2878,16 +2878,16 @@
         <v>81</v>
       </c>
       <c r="AX13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
         <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB13" t="n">
         <v>81</v>
@@ -2931,28 +2931,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
         <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
         <v>1.36</v>
@@ -2973,22 +2973,22 @@
         <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
         <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
         <v>21</v>
@@ -3000,7 +3000,7 @@
         <v>8.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
         <v>15</v>
@@ -3012,7 +3012,7 @@
         <v>301</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="n">
         <v>13</v>
@@ -3024,16 +3024,16 @@
         <v>29</v>
       </c>
       <c r="AL14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM14" t="n">
         <v>34</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
         <v>26</v>
@@ -3042,7 +3042,7 @@
         <v>51</v>
       </c>
       <c r="AR14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS14" t="n">
         <v>201</v>
@@ -3066,7 +3066,7 @@
         <v>17</v>
       </c>
       <c r="AZ14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA14" t="n">
         <v>51</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H15" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K15" t="n">
         <v>2.75</v>
       </c>
       <c r="L15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M15" t="n">
         <v>1.02</v>
@@ -3137,16 +3137,16 @@
         <v>19</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R15" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S15" t="n">
         <v>1.25</v>
@@ -3161,13 +3161,13 @@
         <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z15" t="n">
         <v>8.5</v>
@@ -3176,7 +3176,7 @@
         <v>11</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
         <v>17</v>
@@ -3194,13 +3194,13 @@
         <v>251</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
         <v>41</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK15" t="n">
         <v>101</v>
@@ -3215,13 +3215,13 @@
         <v>3.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP15" t="n">
         <v>15</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR15" t="n">
         <v>34</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K17" t="n">
         <v>2.25</v>
       </c>
-      <c r="K17" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -3513,28 +3513,28 @@
         <v>1.93</v>
       </c>
       <c r="S17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T17" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W17" t="n">
         <v>6.5</v>
       </c>
       <c r="X17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y17" t="n">
         <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="n">
         <v>13</v>
@@ -3543,49 +3543,49 @@
         <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG17" t="n">
         <v>351</v>
       </c>
       <c r="AH17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL17" t="n">
         <v>41</v>
       </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
         <v>51</v>
@@ -3594,10 +3594,10 @@
         <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3606,22 +3606,22 @@
         <v>81</v>
       </c>
       <c r="AX17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA17" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -4023,82 +4023,82 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="H20" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I20" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="J20" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L20" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R20" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S20" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T20" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="U20" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V20" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="W20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z20" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AA20" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AB20" t="n">
         <v>45</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AE20" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG20" t="n">
         <v>600</v>
@@ -4107,25 +4107,25 @@
         <v>6.9</v>
       </c>
       <c r="AI20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>8.25</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK20" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AM20" t="n">
         <v>28</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP20" t="n">
         <v>30</v>
@@ -4137,13 +4137,13 @@
         <v>175</v>
       </c>
       <c r="AS20" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV20" t="n">
         <v>75</v>
@@ -4152,19 +4152,19 @@
         <v>51</v>
       </c>
       <c r="AX20" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AY20" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BB20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BC20" t="n">
         <v>250</v>
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
         <v>3.25</v>
@@ -4399,7 +4399,7 @@
         <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
         <v>2.88</v>
@@ -4435,7 +4435,7 @@
         <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X22" t="n">
         <v>17</v>
@@ -4459,16 +4459,16 @@
         <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI22" t="n">
         <v>9.5</v>
@@ -4477,7 +4477,7 @@
         <v>9.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
         <v>19</v>
@@ -4486,7 +4486,7 @@
         <v>34</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO22" t="n">
         <v>21</v>
@@ -4510,7 +4510,7 @@
         <v>8.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW22" t="n">
         <v>126</v>
@@ -4522,7 +4522,7 @@
         <v>12</v>
       </c>
       <c r="AZ22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA22" t="n">
         <v>41</v>
@@ -4751,13 +4751,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J24" t="n">
         <v>2.1</v>
@@ -4769,10 +4769,10 @@
         <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
         <v>1.29</v>
@@ -4781,10 +4781,10 @@
         <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R24" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S24" t="n">
         <v>1.4</v>
@@ -4817,25 +4817,25 @@
         <v>29</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH24" t="n">
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ24" t="n">
         <v>19</v>
@@ -4844,7 +4844,7 @@
         <v>67</v>
       </c>
       <c r="AL24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM24" t="n">
         <v>51</v>
@@ -4880,19 +4880,19 @@
         <v>276</v>
       </c>
       <c r="AX24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ24" t="n">
         <v>41</v>
       </c>
       <c r="BA24" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB24" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC24" t="n">
         <v>301</v>
@@ -4933,16 +4933,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J25" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K25" t="n">
         <v>2.2</v>
@@ -4957,16 +4957,16 @@
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R25" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -4984,7 +4984,7 @@
         <v>7.5</v>
       </c>
       <c r="X25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
@@ -5017,7 +5017,7 @@
         <v>12</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="n">
         <v>13</v>
@@ -5029,7 +5029,7 @@
         <v>29</v>
       </c>
       <c r="AM25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN25" t="n">
         <v>4</v>
@@ -5062,7 +5062,7 @@
         <v>126</v>
       </c>
       <c r="AX25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY25" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD26"/>
+  <dimension ref="A1:BD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -849,16 +849,16 @@
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
         <v>34</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS2" t="n">
         <v>101</v>
@@ -879,7 +879,7 @@
         <v>5.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
         <v>23</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
         <v>3.5</v>
@@ -953,16 +953,16 @@
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
         <v>7.5</v>
@@ -986,10 +986,10 @@
         <v>11</v>
       </c>
       <c r="Z3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="n">
         <v>26</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>23</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -1031,7 +1031,7 @@
         <v>4.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1076,7 +1076,7 @@
         <v>251</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.3</v>
@@ -1126,7 +1126,7 @@
         <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1195,7 +1195,7 @@
         <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
         <v>3.75</v>
@@ -1216,7 +1216,7 @@
         <v>9</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
@@ -1249,7 +1249,7 @@
         <v>29</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
         <v>81</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>2.05</v>
@@ -1311,10 +1311,10 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
@@ -1374,22 +1374,22 @@
         <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
         <v>67</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
         <v>3.5</v>
@@ -1401,7 +1401,7 @@
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>
@@ -1425,7 +1425,7 @@
         <v>7.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
         <v>34</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
         <v>2.88</v>
@@ -1574,7 +1574,7 @@
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
         <v>12</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="H7" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="K7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1699,40 +1699,40 @@
         <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
         <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
         <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
@@ -1747,25 +1747,25 @@
         <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
         <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="n">
         <v>41</v>
@@ -1777,7 +1777,7 @@
         <v>3.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1786,19 +1786,19 @@
         <v>501</v>
       </c>
       <c r="AX7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
         <v>34</v>
       </c>
       <c r="BA7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC7" t="n">
         <v>201</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1893,13 +1893,13 @@
         <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
         <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
@@ -1923,7 +1923,7 @@
         <v>7</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
         <v>9.5</v>
@@ -1941,19 +1941,19 @@
         <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
         <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR8" t="n">
         <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT8" t="n">
         <v>2.5</v>
@@ -2039,10 +2039,10 @@
         <v>2.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>l2nM5b0K</t>
+          <t>OlfkLvp9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,161 +2730,161 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Sol de America</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.03</v>
+        <v>2.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="W13" t="n">
         <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU13" t="n">
         <v>9</v>
       </c>
-      <c r="Z13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>29</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>26</v>
       </c>
       <c r="BA13" t="n">
         <v>51</v>
@@ -2893,16 +2893,16 @@
         <v>81</v>
       </c>
       <c r="BC13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD13" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GCW0bGhf</t>
+          <t>l2nM5b0K</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2922,82 +2922,82 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
         <v>3.2</v>
       </c>
-      <c r="I14" t="n">
-        <v>2.63</v>
-      </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="S14" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U14" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W14" t="n">
         <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
@@ -3009,46 +3009,46 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH14" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
         <v>34</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU14" t="n">
         <v>8</v>
@@ -3060,10 +3060,10 @@
         <v>81</v>
       </c>
       <c r="AX14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ14" t="n">
         <v>26</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EaASvkLO</t>
+          <t>GCW0bGhf</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,146 +3094,146 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tychy</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>2.9</v>
       </c>
       <c r="J15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R15" t="n">
         <v>1.67</v>
       </c>
-      <c r="K15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L15" t="n">
-        <v>8</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N15" t="n">
-        <v>19</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P15" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="S15" t="n">
         <v>1.44</v>
       </c>
-      <c r="R15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.25</v>
-      </c>
       <c r="T15" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
         <v>9.5</v>
       </c>
       <c r="Z15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>11</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AK15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL15" t="n">
         <v>26</v>
       </c>
-      <c r="AC15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>51</v>
-      </c>
       <c r="AM15" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="AO15" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AS15" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
@@ -3242,22 +3242,22 @@
         <v>81</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA15" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BC15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pWz7ZINP</t>
+          <t>EaASvkLO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Tychy</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N16" t="n">
+        <v>19</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T16" t="n">
         <v>3.75</v>
       </c>
-      <c r="K16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="U16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN16" t="n">
         <v>3.4</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N16" t="n">
-        <v>8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X16" t="n">
+      <c r="AO16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>13</v>
       </c>
-      <c r="Y16" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ16" t="n">
+      <c r="AR16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX16" t="n">
         <v>10</v>
       </c>
-      <c r="AK16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>4.33</v>
-      </c>
       <c r="AY16" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BB16" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC16" t="n">
         <v>251</v>
       </c>
       <c r="BD16" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>rwqMN8B7</t>
+          <t>pWz7ZINP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.53</v>
       </c>
-      <c r="H17" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.93</v>
-      </c>
       <c r="S17" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="T17" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W17" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
         <v>7</v>
       </c>
-      <c r="Y17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11</v>
-      </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>67</v>
       </c>
       <c r="AG17" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AH17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY17" t="n">
         <v>15</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AZ17" t="n">
         <v>29</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
+      <c r="BA17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB17" t="n">
         <v>81</v>
       </c>
-      <c r="AX17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA17" t="n">
+      <c r="BC17" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD17" t="n">
         <v>126</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dQ60rhHO</t>
+          <t>rwqMN8B7</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,41 +3640,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FC Hermannstadt</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3683,16 +3683,16 @@
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -3710,13 +3710,13 @@
         <v>6.5</v>
       </c>
       <c r="X18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA18" t="n">
         <v>13</v>
@@ -3725,7 +3725,7 @@
         <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
         <v>8</v>
@@ -3740,37 +3740,37 @@
         <v>351</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="n">
         <v>51</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP18" t="n">
         <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
         <v>151</v>
@@ -3782,13 +3782,13 @@
         <v>9</v>
       </c>
       <c r="AV18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY18" t="n">
         <v>34</v>
@@ -3797,22 +3797,22 @@
         <v>41</v>
       </c>
       <c r="BA18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB18" t="n">
         <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4x9G0yPG</t>
+          <t>dQ60rhHO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,170 +3822,170 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>FC Hermannstadt</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="R19" t="n">
         <v>1.98</v>
       </c>
       <c r="S19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T19" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="W19" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="X19" t="n">
-        <v>8.25</v>
+        <v>6.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="Z19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA19" t="n">
         <v>13</v>
       </c>
-      <c r="AA19" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AB19" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AG19" t="n">
-        <v>450</v>
+        <v>351</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AK19" t="n">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AM19" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO19" t="n">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="AP19" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AQ19" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AR19" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AS19" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="AV19" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AW19" t="n">
         <v>51</v>
       </c>
       <c r="AX19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AZ19" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="BA19" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="BB19" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BC19" t="n">
-        <v>450</v>
+        <v>351</v>
       </c>
       <c r="BD19" t="n">
         <v>51</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>f7kYmbuB</t>
+          <t>4x9G0yPG</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,31 +4014,31 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.05</v>
+        <v>1.72</v>
       </c>
       <c r="H20" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>1.72</v>
+        <v>4.4</v>
       </c>
       <c r="J20" t="n">
-        <v>4.5</v>
+        <v>2.32</v>
       </c>
       <c r="K20" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="L20" t="n">
-        <v>2.32</v>
+        <v>4.8</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
@@ -4047,127 +4047,127 @@
         <v>7.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P20" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R20" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S20" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="U20" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="V20" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>22</v>
+        <v>8.75</v>
       </c>
       <c r="Y20" t="n">
-        <v>14</v>
+        <v>7.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>65</v>
+        <v>14.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AB20" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
         <v>7.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AE20" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AG20" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AH20" t="n">
-        <v>6.9</v>
+        <v>12.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8.25</v>
+        <v>14.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>13.5</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.9</v>
+        <v>3.65</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>8.75</v>
       </c>
       <c r="AP20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>30</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>120</v>
-      </c>
       <c r="AR20" t="n">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="AS20" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AV20" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AW20" t="n">
         <v>51</v>
       </c>
       <c r="AX20" t="n">
-        <v>3.6</v>
+        <v>6.3</v>
       </c>
       <c r="AY20" t="n">
-        <v>8.5</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="BA20" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="BB20" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="BC20" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="BD20" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>KCTDqtWs</t>
+          <t>f7kYmbuB</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,179 +4186,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>1.65</v>
       </c>
       <c r="J21" t="n">
-        <v>2.38</v>
+        <v>4.75</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
         <v>3.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="R21" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="S21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V21" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W21" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X21" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC21" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9</v>
-      </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>6.7</v>
       </c>
       <c r="AI21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AO21" t="n">
         <v>26</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>9</v>
-      </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AQ21" t="n">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="AS21" t="n">
-        <v>151</v>
+        <v>450</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="AV21" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AW21" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX21" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>8.25</v>
       </c>
       <c r="AZ21" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="BA21" t="n">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="BB21" t="n">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="BC21" t="n">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="BD21" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UatBnfzp</t>
+          <t>KCTDqtWs</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,41 +4368,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>2.88</v>
+        <v>5.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.07</v>
@@ -4411,136 +4411,136 @@
         <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="R22" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="S22" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W22" t="n">
+        <v>6</v>
+      </c>
+      <c r="X22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC22" t="n">
         <v>9</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AD22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>17</v>
       </c>
-      <c r="Y22" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA22" t="n">
+      <c r="AK22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>29</v>
       </c>
-      <c r="AB22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM22" t="n">
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ22" t="n">
         <v>34</v>
       </c>
-      <c r="AN22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="BA22" t="n">
         <v>101</v>
       </c>
-      <c r="AS22" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW22" t="n">
+      <c r="BB22" t="n">
         <v>126</v>
       </c>
-      <c r="AX22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>67</v>
-      </c>
       <c r="BC22" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD22" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>raGZGNlA</t>
+          <t>UatBnfzp</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,77 +4550,77 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Orgryte</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
         <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="J23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P23" t="n">
         <v>2.75</v>
       </c>
-      <c r="M23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N23" t="n">
-        <v>13</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4.33</v>
-      </c>
       <c r="Q23" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="R23" t="n">
-        <v>2.15</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="V23" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="W23" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y23" t="n">
         <v>12</v>
@@ -4629,91 +4629,91 @@
         <v>34</v>
       </c>
       <c r="AA23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK23" t="n">
         <v>23</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AL23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP23" t="n">
         <v>29</v>
       </c>
-      <c r="AC23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG23" t="n">
+      <c r="AQ23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW23" t="n">
         <v>126</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>401</v>
       </c>
       <c r="AX23" t="n">
         <v>4.33</v>
       </c>
       <c r="AY23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ23" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="BA23" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BB23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC23" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BD23" t="n">
         <v>151</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>W4IPI5u9</t>
+          <t>raGZGNlA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,179 +4732,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.53</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="J24" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N24" t="n">
+        <v>13</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V24" t="n">
         <v>2.25</v>
       </c>
-      <c r="L24" t="n">
-        <v>6</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N24" t="n">
-        <v>10</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W24" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="X24" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AA24" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AB24" t="n">
         <v>29</v>
       </c>
       <c r="AC24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH24" t="n">
         <v>10</v>
       </c>
-      <c r="AD24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH24" t="n">
+      <c r="AI24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL24" t="n">
         <v>15</v>
       </c>
-      <c r="AI24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>41</v>
-      </c>
       <c r="AM24" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="n">
         <v>21</v>
       </c>
       <c r="AQ24" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AR24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD24" t="n">
         <v>151</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>276</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>301</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Y7BGrRBs</t>
+          <t>W4IPI5u9</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4919,36 +4919,36 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="K25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L25" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -4957,16 +4957,16 @@
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R25" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -4975,73 +4975,73 @@
         <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W25" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X25" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AA25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH25" t="n">
         <v>15</v>
       </c>
-      <c r="AB25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>12</v>
-      </c>
       <c r="AI25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>19</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>13</v>
-      </c>
       <c r="AK25" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL25" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM25" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN25" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP25" t="n">
         <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR25" t="n">
         <v>51</v>
@@ -5053,40 +5053,40 @@
         <v>2.75</v>
       </c>
       <c r="AU25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
         <v>51</v>
       </c>
       <c r="AW25" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA25" t="n">
         <v>126</v>
       </c>
-      <c r="AX25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>67</v>
-      </c>
       <c r="BB25" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC25" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD25" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OtG5QqdD</t>
+          <t>Y7BGrRBs</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5106,97 +5106,97 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G26" t="n">
         <v>1.91</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J26" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K26" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S26" t="n">
         <v>1.4</v>
       </c>
-      <c r="P26" t="n">
+      <c r="T26" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q26" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V26" t="n">
         <v>2</v>
       </c>
-      <c r="V26" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W26" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y26" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>9</v>
       </c>
       <c r="Z26" t="n">
         <v>17</v>
       </c>
       <c r="AA26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB26" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD26" t="n">
         <v>6.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH26" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
         <v>19</v>
@@ -5208,37 +5208,37 @@
         <v>41</v>
       </c>
       <c r="AL26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM26" t="n">
         <v>34</v>
       </c>
-      <c r="AM26" t="n">
-        <v>41</v>
-      </c>
       <c r="AN26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS26" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW26" t="n">
         <v>126</v>
@@ -5247,21 +5247,203 @@
         <v>5.5</v>
       </c>
       <c r="AY26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OtG5QqdD</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>9</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP27" t="n">
         <v>23</v>
       </c>
-      <c r="AZ26" t="n">
+      <c r="AQ27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ27" t="n">
         <v>34</v>
       </c>
-      <c r="BA26" t="n">
+      <c r="BA27" t="n">
         <v>81</v>
       </c>
-      <c r="BB26" t="n">
+      <c r="BB27" t="n">
         <v>101</v>
       </c>
-      <c r="BC26" t="n">
+      <c r="BC27" t="n">
         <v>251</v>
       </c>
-      <c r="BD26" t="n">
+      <c r="BD27" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD27"/>
+  <dimension ref="A1:BD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,25 +750,25 @@
         <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>1.2</v>
@@ -777,10 +777,10 @@
         <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S2" t="n">
         <v>1.3</v>
@@ -789,13 +789,13 @@
         <v>3.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -807,7 +807,7 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
         <v>23</v>
@@ -819,7 +819,7 @@
         <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -831,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>13</v>
@@ -867,7 +867,7 @@
         <v>3.4</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -929,55 +929,55 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>2.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
         <v>3.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W3" t="n">
         <v>7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.5</v>
       </c>
       <c r="X3" t="n">
         <v>12</v>
@@ -989,13 +989,13 @@
         <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1004,13 +1004,13 @@
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI3" t="n">
         <v>12</v>
@@ -1019,16 +1019,16 @@
         <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
         <v>17</v>
@@ -1040,16 +1040,16 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
@@ -1073,10 +1073,10 @@
         <v>81</v>
       </c>
       <c r="BC3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1147,22 +1147,22 @@
         <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T4" t="n">
         <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
@@ -1198,10 +1198,10 @@
         <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
         <v>34</v>
@@ -1210,10 +1210,10 @@
         <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP4" t="n">
         <v>19</v>
@@ -1225,7 +1225,7 @@
         <v>41</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT4" t="n">
         <v>3.25</v>
@@ -1240,13 +1240,13 @@
         <v>501</v>
       </c>
       <c r="AX4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA4" t="n">
         <v>67</v>
@@ -1311,10 +1311,10 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
@@ -1335,10 +1335,10 @@
         <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1431,7 +1431,7 @@
         <v>34</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
         <v>126</v>
@@ -1678,7 +1678,7 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1932,7 +1932,7 @@
         <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="n">
         <v>34</v>
@@ -1950,7 +1950,7 @@
         <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="n">
         <v>251</v>
@@ -1974,7 +1974,7 @@
         <v>13</v>
       </c>
       <c r="AZ8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA8" t="n">
         <v>41</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J10" t="n">
         <v>5.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6</v>
       </c>
       <c r="K10" t="n">
         <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2245,22 +2245,22 @@
         <v>3.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
         <v>17</v>
       </c>
       <c r="X10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA10" t="n">
         <v>41</v>
@@ -2287,7 +2287,7 @@
         <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="n">
         <v>8.5</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
@@ -2585,10 +2585,10 @@
         <v>3.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
@@ -2597,10 +2597,10 @@
         <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S12" t="n">
         <v>1.33</v>
@@ -2615,19 +2615,19 @@
         <v>2.25</v>
       </c>
       <c r="W12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
         <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
         <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB12" t="n">
         <v>23</v>
@@ -2651,7 +2651,7 @@
         <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
@@ -2666,10 +2666,10 @@
         <v>26</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
         <v>19</v>
@@ -2779,10 +2779,10 @@
         <v>2.63</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S13" t="n">
         <v>1.53</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>l2nM5b0K</t>
+          <t>GCW0bGhf</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2922,82 +2922,82 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="R14" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
         <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
@@ -3009,16 +3009,16 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
         <v>34</v>
@@ -3033,22 +3033,22 @@
         <v>4.33</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ14" t="n">
         <v>41</v>
       </c>
       <c r="AR14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU14" t="n">
         <v>8</v>
@@ -3063,10 +3063,10 @@
         <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
         <v>51</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GCW0bGhf</t>
+          <t>EaASvkLO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,146 +3094,146 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>Tychy</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.9</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>1.67</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L15" t="n">
+        <v>8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N15" t="n">
+        <v>19</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T15" t="n">
         <v>3.75</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y15" t="n">
         <v>9.5</v>
       </c>
       <c r="Z15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH15" t="n">
         <v>23</v>
       </c>
-      <c r="AA15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB15" t="n">
+      <c r="AI15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR15" t="n">
         <v>34</v>
       </c>
-      <c r="AC15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>67</v>
-      </c>
       <c r="AS15" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
@@ -3242,22 +3242,22 @@
         <v>81</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AZ15" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BB15" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EaASvkLO</t>
+          <t>pWz7ZINP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tychy</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.67</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
         <v>8</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N16" t="n">
-        <v>19</v>
-      </c>
       <c r="O16" t="n">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD16" t="n">
         <v>6</v>
       </c>
-      <c r="Q16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X16" t="n">
+      <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH16" t="n">
         <v>7</v>
       </c>
-      <c r="Y16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="AI16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU16" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP16" t="n">
+      <c r="AV16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY16" t="n">
         <v>15</v>
       </c>
-      <c r="AQ16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
+      <c r="AZ16" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB16" t="n">
         <v>81</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>151</v>
       </c>
       <c r="BC16" t="n">
         <v>251</v>
       </c>
       <c r="BD16" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pWz7ZINP</t>
+          <t>rwqMN8B7</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T17" t="n">
         <v>3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N17" t="n">
-        <v>8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.38</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X17" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA17" t="n">
         <v>13</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
         <v>11</v>
       </c>
-      <c r="Z17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7</v>
-      </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
         <v>67</v>
       </c>
       <c r="AG17" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AL17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>23</v>
       </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>51</v>
-      </c>
       <c r="AR17" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA17" t="n">
         <v>126</v>
       </c>
-      <c r="AX17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>51</v>
-      </c>
       <c r="BB17" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD17" t="n">
         <v>81</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>rwqMN8B7</t>
+          <t>dQ60rhHO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,41 +3640,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>FC Hermannstadt</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3683,16 +3683,16 @@
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -3710,13 +3710,13 @@
         <v>6.5</v>
       </c>
       <c r="X18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA18" t="n">
         <v>13</v>
@@ -3725,7 +3725,7 @@
         <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
         <v>8</v>
@@ -3740,37 +3740,37 @@
         <v>351</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM18" t="n">
         <v>51</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP18" t="n">
         <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS18" t="n">
         <v>151</v>
@@ -3782,13 +3782,13 @@
         <v>9</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY18" t="n">
         <v>34</v>
@@ -3797,22 +3797,22 @@
         <v>41</v>
       </c>
       <c r="BA18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB18" t="n">
         <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dQ60rhHO</t>
+          <t>4x9G0yPG</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,170 +3822,170 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FC Hermannstadt</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="J19" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V19" t="n">
         <v>2</v>
       </c>
-      <c r="K19" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N19" t="n">
-        <v>11</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W19" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X19" t="n">
-        <v>6.5</v>
+        <v>8.75</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA19" t="n">
         <v>13</v>
       </c>
       <c r="AB19" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AF19" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AG19" t="n">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="AH19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP19" t="n">
         <v>17</v>
       </c>
-      <c r="AI19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ19" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AR19" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AS19" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="AT19" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="AU19" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="AV19" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AW19" t="n">
         <v>51</v>
       </c>
       <c r="AX19" t="n">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="AY19" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ19" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="BA19" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BB19" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="BC19" t="n">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="BD19" t="n">
         <v>51</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4x9G0yPG</t>
+          <t>f7kYmbuB</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,31 +4014,31 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.72</v>
+        <v>4.4</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>4.4</v>
+        <v>1.65</v>
       </c>
       <c r="J20" t="n">
-        <v>2.32</v>
+        <v>4.75</v>
       </c>
       <c r="K20" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>4.8</v>
+        <v>2.25</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
@@ -4047,127 +4047,127 @@
         <v>7.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R20" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S20" t="n">
         <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U20" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="X20" t="n">
-        <v>8.75</v>
+        <v>25</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.9</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
-        <v>14.5</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AC20" t="n">
         <v>7.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AE20" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AG20" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS20" t="n">
         <v>450</v>
       </c>
-      <c r="AH20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>200</v>
-      </c>
       <c r="AT20" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="AV20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>28</v>
+      </c>
+      <c r="BB20" t="n">
         <v>65</v>
       </c>
-      <c r="AW20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>32</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>200</v>
-      </c>
       <c r="BC20" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="BD20" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>f7kYmbuB</t>
+          <t>KCTDqtWs</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,179 +4186,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>1.65</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>4.75</v>
+        <v>2.38</v>
       </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
         <v>3.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W21" t="n">
+        <v>6</v>
+      </c>
+      <c r="X21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH21" t="n">
         <v>12</v>
       </c>
-      <c r="X21" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE21" t="n">
+      <c r="AI21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>17</v>
       </c>
-      <c r="AF21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AK21" t="n">
-        <v>12.5</v>
+        <v>51</v>
       </c>
       <c r="AL21" t="n">
-        <v>13.5</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="AN21" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AP21" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="AR21" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="AV21" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AW21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX21" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>8.25</v>
+        <v>29</v>
       </c>
       <c r="AZ21" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="BA21" t="n">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="BB21" t="n">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="BC21" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="BD21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>KCTDqtWs</t>
+          <t>UatBnfzp</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN22" t="n">
         <v>5</v>
       </c>
-      <c r="J22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N22" t="n">
-        <v>9</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W22" t="n">
-        <v>6</v>
-      </c>
-      <c r="X22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y22" t="n">
+      <c r="AO22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU22" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>9</v>
       </c>
       <c r="AV22" t="n">
         <v>67</v>
       </c>
       <c r="AW22" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AX22" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY22" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AZ22" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BA22" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB22" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BC22" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BD22" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UatBnfzp</t>
+          <t>raGZGNlA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,901 +4550,173 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H23" t="n">
         <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L23" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="P23" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>2.15</v>
       </c>
       <c r="S23" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="T23" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="U23" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="V23" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="W23" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
         <v>34</v>
       </c>
       <c r="AA23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB23" t="n">
         <v>26</v>
       </c>
-      <c r="AB23" t="n">
-        <v>41</v>
-      </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AF23" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AG23" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="AH23" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
         <v>9.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM23" t="n">
         <v>21</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>34</v>
       </c>
       <c r="AN23" t="n">
         <v>5</v>
       </c>
       <c r="AO23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>19</v>
       </c>
-      <c r="AP23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>26</v>
-      </c>
       <c r="BA23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC23" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BD23" t="n">
         <v>151</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>raGZGNlA</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>SWEDEN - SUPERETTAN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Orgryte</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Ostersund</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N24" t="n">
-        <v>13</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W24" t="n">
-        <v>13</v>
-      </c>
-      <c r="X24" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>401</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>W4IPI5u9</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>TURKEY - SUPER LIG</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Samsunspor</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Antalyaspor</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H25" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L25" t="n">
-        <v>6</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N25" t="n">
-        <v>11</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X25" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>276</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Y7BGrRBs</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Genclerbirligi</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Istanbulspor AS</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N26" t="n">
-        <v>11</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2</v>
-      </c>
-      <c r="W26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X26" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>OtG5QqdD</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Pendikspor</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Manisa FK</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N27" t="n">
-        <v>9</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,10 +750,10 @@
         <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
@@ -765,22 +765,22 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
         <v>1.3</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jqCRLjz2</t>
+          <t>rXmhxCKr</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,160 +920,160 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="K3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.91</v>
       </c>
-      <c r="L3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.05</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="n">
         <v>12</v>
       </c>
-      <c r="Y3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>29</v>
-      </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
       </c>
       <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK3" t="n">
         <v>67</v>
       </c>
-      <c r="AG3" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>26</v>
-      </c>
       <c r="AL3" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>126</v>
       </c>
       <c r="AX3" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BC3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vJXfdXBE</t>
+          <t>zeCiJHet</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>2.63</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X4" t="n">
         <v>8.5</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH4" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AI4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>15</v>
       </c>
-      <c r="AA4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AK4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY4" t="n">
         <v>23</v>
       </c>
-      <c r="AC4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BC4" t="n">
-        <v>151</v>
+        <v>401</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>rXmhxCKr</t>
+          <t>Wp49ygOG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,110 +1274,110 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Sarmiento Junin</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
         <v>7</v>
       </c>
-      <c r="J5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="AD5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
         <v>11</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>19</v>
-      </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
         <v>21</v>
@@ -1389,55 +1389,55 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
         <v>126</v>
       </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>151</v>
-      </c>
       <c r="AX5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
         <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>zeCiJHet</t>
+          <t>tGmmLIvL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,59 +1456,59 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Operario</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>2.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
         <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
         <v>1.57</v>
@@ -1523,19 +1523,19 @@
         <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
@@ -1550,79 +1550,79 @@
         <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT6" t="n">
         <v>2.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
         <v>81</v>
       </c>
-      <c r="AW6" t="n">
-        <v>126</v>
-      </c>
       <c r="AX6" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB6" t="n">
         <v>81</v>
       </c>
-      <c r="BB6" t="n">
-        <v>126</v>
-      </c>
       <c r="BC6" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -1678,7 +1678,7 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
         <v>1.17</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="J10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
         <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2245,22 +2245,22 @@
         <v>3.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
         <v>17</v>
       </c>
       <c r="X10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA10" t="n">
         <v>41</v>
@@ -2287,13 +2287,13 @@
         <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ10" t="n">
         <v>8.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL10" t="n">
         <v>12</v>
@@ -2314,7 +2314,7 @@
         <v>101</v>
       </c>
       <c r="AR10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS10" t="n">
         <v>201</v>
@@ -2323,7 +2323,7 @@
         <v>3.4</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
@@ -2335,7 +2335,7 @@
         <v>3.6</v>
       </c>
       <c r="AY10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AZ10" t="n">
         <v>17</v>
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.35</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
@@ -2603,76 +2603,76 @@
         <v>2.15</v>
       </c>
       <c r="S12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V12" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
         <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="n">
         <v>126</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL12" t="n">
         <v>17</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL12" t="n">
+      <c r="AM12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP12" t="n">
         <v>21</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>19</v>
       </c>
       <c r="AQ12" t="n">
         <v>41</v>
@@ -2684,7 +2684,7 @@
         <v>126</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
@@ -2696,13 +2696,13 @@
         <v>351</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA12" t="n">
         <v>41</v>
@@ -2711,7 +2711,7 @@
         <v>51</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I17" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K17" t="n">
         <v>2.25</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -3501,10 +3501,10 @@
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="n">
         <v>1.9</v>
@@ -3519,64 +3519,64 @@
         <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V17" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y17" t="n">
         <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="n">
         <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC17" t="n">
         <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL17" t="n">
         <v>41</v>
       </c>
       <c r="AM17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO17" t="n">
         <v>8</v>
@@ -3585,7 +3585,7 @@
         <v>19</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR17" t="n">
         <v>51</v>
@@ -3597,7 +3597,7 @@
         <v>3</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3606,22 +3606,22 @@
         <v>81</v>
       </c>
       <c r="AX17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>34</v>
       </c>
-      <c r="AZ17" t="n">
-        <v>41</v>
-      </c>
       <c r="BA17" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB17" t="n">
         <v>126</v>
       </c>
-      <c r="BB17" t="n">
-        <v>151</v>
-      </c>
       <c r="BC17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -3659,10 +3659,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I18" t="n">
         <v>7</v>
@@ -3677,10 +3677,10 @@
         <v>6.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -3716,7 +3716,7 @@
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA18" t="n">
         <v>13</v>
@@ -3734,7 +3734,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
         <v>351</v>
@@ -3761,7 +3761,7 @@
         <v>3.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP18" t="n">
         <v>19</v>
@@ -3797,13 +3797,13 @@
         <v>41</v>
       </c>
       <c r="BA18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB18" t="n">
         <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD18" t="n">
         <v>51</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4x9G0yPG</t>
+          <t>KCTDqtWs</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,179 +3822,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="K19" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
+        <v>9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6</v>
+      </c>
+      <c r="X19" t="n">
         <v>7.5</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2</v>
-      </c>
-      <c r="W19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X19" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Y19" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AG19" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AL19" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR19" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AS19" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="AV19" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AW19" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX19" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BA19" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="BB19" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="BC19" t="n">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="BD19" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>f7kYmbuB</t>
+          <t>UatBnfzp</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,179 +4004,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>1.65</v>
+        <v>2.38</v>
       </c>
       <c r="J20" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2.25</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.88</v>
-      </c>
       <c r="R20" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="V20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W20" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AB20" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>7.3</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>700</v>
+        <v>351</v>
       </c>
       <c r="AH20" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="AK20" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AM20" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>26</v>
       </c>
-      <c r="AP20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>18.5</v>
-      </c>
       <c r="BA20" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="BB20" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BC20" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BD20" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>KCTDqtWs</t>
+          <t>raGZGNlA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,536 +4186,172 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W21" t="n">
+        <v>13</v>
+      </c>
+      <c r="X21" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN21" t="n">
         <v>5</v>
       </c>
-      <c r="J21" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N21" t="n">
-        <v>9</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W21" t="n">
-        <v>6</v>
-      </c>
-      <c r="X21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA21" t="n">
+      <c r="AO21" t="n">
         <v>15</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>9</v>
       </c>
       <c r="AP21" t="n">
         <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR21" t="n">
         <v>51</v>
       </c>
       <c r="AS21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV21" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW21" t="n">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="AX21" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AZ21" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="BA21" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC21" t="n">
         <v>101</v>
       </c>
-      <c r="BB21" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>301</v>
-      </c>
       <c r="BD21" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>UatBnfzp</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>15:10</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Norrkoping</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>AIK</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N22" t="n">
-        <v>8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X22" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>raGZGNlA</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SWEDEN - SUPERETTAN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Orgryte</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Ostersund</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N23" t="n">
-        <v>13</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W23" t="n">
-        <v>13</v>
-      </c>
-      <c r="X23" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>401</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD23" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
         <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -783,19 +783,19 @@
         <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -807,31 +807,31 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE2" t="n">
         <v>15</v>
       </c>
-      <c r="AB2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
         <v>13</v>
       </c>
-      <c r="AF2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>15</v>
-      </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>13</v>
@@ -852,28 +852,28 @@
         <v>10</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
         <v>34</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AX2" t="n">
         <v>5.5</v>
@@ -891,7 +891,7 @@
         <v>67</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
         <v>150</v>
@@ -1055,7 +1055,7 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX3" t="n">
         <v>7.5</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
         <v>2.5</v>
       </c>
       <c r="L11" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
@@ -2433,7 +2433,7 @@
         <v>2.63</v>
       </c>
       <c r="W11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X11" t="n">
         <v>23</v>
@@ -2445,10 +2445,10 @@
         <v>41</v>
       </c>
       <c r="AA11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
         <v>21</v>
@@ -2487,7 +2487,7 @@
         <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2514,16 +2514,16 @@
         <v>251</v>
       </c>
       <c r="AX11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AZ11" t="n">
         <v>15</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB11" t="n">
         <v>41</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J12" t="n">
         <v>3.25</v>
@@ -2582,7 +2582,7 @@
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2597,28 +2597,28 @@
         <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V12" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W12" t="n">
         <v>12</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
         <v>11</v>
@@ -2636,13 +2636,13 @@
         <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
         <v>126</v>
@@ -2654,13 +2654,13 @@
         <v>13</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
         <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM12" t="n">
         <v>23</v>
@@ -2684,7 +2684,7 @@
         <v>126</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
@@ -2699,7 +2699,7 @@
         <v>4.75</v>
       </c>
       <c r="AY12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ12" t="n">
         <v>19</v>
@@ -2711,7 +2711,7 @@
         <v>51</v>
       </c>
       <c r="BC12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J14" t="n">
         <v>3.1</v>
@@ -3015,13 +3015,13 @@
         <v>8.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
         <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL14" t="n">
         <v>26</v>
@@ -3039,7 +3039,7 @@
         <v>26</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR14" t="n">
         <v>67</v>
@@ -3060,7 +3060,7 @@
         <v>81</v>
       </c>
       <c r="AX14" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY14" t="n">
         <v>17</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EaASvkLO</t>
+          <t>pWz7ZINP</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tychy</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.67</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
         <v>8</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N15" t="n">
-        <v>19</v>
-      </c>
       <c r="O15" t="n">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="P15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD15" t="n">
         <v>6</v>
       </c>
-      <c r="Q15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X15" t="n">
+      <c r="AE15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH15" t="n">
         <v>7</v>
       </c>
-      <c r="Y15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AI15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU15" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP15" t="n">
+      <c r="AV15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY15" t="n">
         <v>15</v>
       </c>
-      <c r="AQ15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
+      <c r="AZ15" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB15" t="n">
         <v>81</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>151</v>
       </c>
       <c r="BC15" t="n">
         <v>251</v>
       </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pWz7ZINP</t>
+          <t>dQ60rhHO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>FC Hermannstadt</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>1.57</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="K16" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L16" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="S16" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X16" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA16" t="n">
         <v>13</v>
       </c>
-      <c r="Y16" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="AB16" t="n">
         <v>29</v>
       </c>
-      <c r="AA16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>41</v>
-      </c>
       <c r="AC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD16" t="n">
         <v>7</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>17</v>
       </c>
       <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK16" t="n">
         <v>67</v>
       </c>
-      <c r="AG16" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK16" t="n">
+      <c r="AL16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>26</v>
       </c>
-      <c r="AL16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>51</v>
-      </c>
       <c r="AR16" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="AU16" t="n">
         <v>8.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB16" t="n">
         <v>126</v>
       </c>
-      <c r="AX16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>81</v>
-      </c>
       <c r="BC16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD16" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>rwqMN8B7</t>
+          <t>KCTDqtWs</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,74 +3458,74 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K17" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="S17" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T17" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X17" t="n">
         <v>7.5</v>
@@ -3534,31 +3534,31 @@
         <v>8.5</v>
       </c>
       <c r="Z17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH17" t="n">
         <v>12</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>13</v>
       </c>
       <c r="AI17" t="n">
         <v>26</v>
@@ -3573,19 +3573,19 @@
         <v>41</v>
       </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN17" t="n">
         <v>3.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR17" t="n">
         <v>51</v>
@@ -3594,19 +3594,19 @@
         <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW17" t="n">
         <v>81</v>
       </c>
       <c r="AX17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY17" t="n">
         <v>29</v>
@@ -3621,7 +3621,7 @@
         <v>126</v>
       </c>
       <c r="BC17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dQ60rhHO</t>
+          <t>UatBnfzp</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,98 +3640,98 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FC Hermannstadt</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>2.38</v>
       </c>
       <c r="J18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K18" t="n">
         <v>2</v>
       </c>
-      <c r="K18" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L18" t="n">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="S18" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AB18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
@@ -3740,79 +3740,79 @@
         <v>351</v>
       </c>
       <c r="AH18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO18" t="n">
         <v>17</v>
       </c>
-      <c r="AI18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK18" t="n">
+      <c r="AP18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR18" t="n">
         <v>81</v>
       </c>
-      <c r="AL18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>41</v>
-      </c>
       <c r="AS18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD18" t="n">
         <v>151</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KCTDqtWs</t>
+          <t>CYpwIs8l</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,537 +3822,173 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>3.25</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>5.5</v>
+        <v>2.88</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W19" t="n">
+        <v>10</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>9</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6</v>
-      </c>
-      <c r="X19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB19" t="n">
+      <c r="AK19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM19" t="n">
         <v>29</v>
       </c>
-      <c r="AC19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE19" t="n">
+      <c r="AN19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO19" t="n">
         <v>19</v>
       </c>
-      <c r="AF19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH19" t="n">
+      <c r="AP19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY19" t="n">
         <v>12</v>
       </c>
-      <c r="AI19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP19" t="n">
+      <c r="AZ19" t="n">
         <v>21</v>
       </c>
-      <c r="AQ19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS19" t="n">
+      <c r="BA19" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC19" t="n">
         <v>151</v>
       </c>
-      <c r="AT19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>301</v>
-      </c>
       <c r="BD19" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>UatBnfzp</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>15:10</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Norrkoping</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>AIK</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N20" t="n">
-        <v>9</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W20" t="n">
-        <v>8</v>
-      </c>
-      <c r="X20" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>raGZGNlA</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>SWEDEN - SUPERETTAN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Orgryte</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Ostersund</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N21" t="n">
-        <v>13</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W21" t="n">
-        <v>13</v>
-      </c>
-      <c r="X21" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>401</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD19"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,10 +947,10 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AaumjT1M</t>
+          <t>zuChyeRl</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Tecnico U.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>U. Catolica</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.44</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.5</v>
       </c>
-      <c r="L7" t="n">
-        <v>6</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>15</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.5</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
         <v>8.5</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI7" t="n">
         <v>10</v>
       </c>
-      <c r="AA7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AJ7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK7" t="n">
         <v>21</v>
       </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AL7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU7" t="n">
         <v>8.5</v>
       </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB7" t="n">
         <v>67</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>101</v>
       </c>
       <c r="BC7" t="n">
         <v>201</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>zuChyeRl</t>
+          <t>4WNXteh2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,59 +1820,59 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tecnico U.</t>
+          <t>AC Ajaccio</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>U. Catolica</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -1881,55 +1881,55 @@
         <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y8" t="n">
         <v>15</v>
       </c>
-      <c r="Y8" t="n">
-        <v>12</v>
-      </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
         <v>19</v>
@@ -1938,43 +1938,43 @@
         <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS8" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT8" t="n">
         <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX8" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AY8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
         <v>41</v>
@@ -1986,13 +1986,13 @@
         <v>201</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4WNXteh2</t>
+          <t>niN2i2Nj</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AC Ajaccio</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P9" t="n">
         <v>4.5</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Q9" t="n">
-        <v>2.35</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>2.25</v>
       </c>
       <c r="S9" t="n">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="T9" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="W9" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
         <v>15</v>
       </c>
-      <c r="Z9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7</v>
-      </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AI9" t="n">
         <v>7.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AM9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP9" t="n">
         <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>41</v>
       </c>
       <c r="AQ9" t="n">
         <v>101</v>
       </c>
       <c r="AR9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS9" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AY9" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ9" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="BB9" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BC9" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>niN2i2Nj</t>
+          <t>WrBOmjM7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N10" t="n">
+        <v>21</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P10" t="n">
         <v>6</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>15</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.33</v>
-      </c>
       <c r="Q10" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="R10" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="S10" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="T10" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>2.63</v>
       </c>
       <c r="W10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X10" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AD10" t="n">
         <v>8.5</v>
       </c>
       <c r="AE10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK10" t="n">
         <v>17</v>
       </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>10</v>
-      </c>
       <c r="AL10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM10" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
         <v>101</v>
       </c>
-      <c r="AR10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>201</v>
-      </c>
       <c r="AT10" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="AX10" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="AY10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BB10" t="n">
         <v>41</v>
       </c>
       <c r="BC10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>WrBOmjM7</t>
+          <t>zHHFkCie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,133 +2376,133 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>2.38</v>
+        <v>3.2</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W11" t="n">
+        <v>11</v>
+      </c>
+      <c r="X11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA11" t="n">
         <v>19</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P11" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W11" t="n">
-        <v>17</v>
-      </c>
-      <c r="X11" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>23</v>
       </c>
       <c r="AB11" t="n">
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO11" t="n">
         <v>13</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>17</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU11" t="n">
         <v>7</v>
@@ -2511,25 +2511,25 @@
         <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AX11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AY11" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA11" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BB11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC11" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>zHHFkCie</t>
+          <t>OlfkLvp9</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Sol de America</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
         <v>2.45</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X12" t="n">
         <v>13</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W12" t="n">
+      <c r="Y12" t="n">
         <v>12</v>
-      </c>
-      <c r="X12" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>11</v>
       </c>
       <c r="Z12" t="n">
         <v>29</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH12" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH12" t="n">
+      <c r="AI12" t="n">
         <v>11</v>
       </c>
-      <c r="AI12" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
         <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY12" t="n">
         <v>15</v>
       </c>
-      <c r="AP12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>13</v>
-      </c>
       <c r="AZ12" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BD12" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OlfkLvp9</t>
+          <t>GCW0bGhf</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sol de America</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
+        <v>9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W13" t="n">
         <v>7</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W13" t="n">
-        <v>7.5</v>
-      </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD13" t="n">
         <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR13" t="n">
         <v>67</v>
       </c>
-      <c r="AG13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>101</v>
-      </c>
       <c r="AS13" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX13" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
         <v>29</v>
       </c>
       <c r="BA13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB13" t="n">
         <v>81</v>
       </c>
       <c r="BC13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GCW0bGhf</t>
+          <t>pWz7ZINP</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,158 +2912,158 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L14" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T14" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="W14" t="n">
         <v>7.5</v>
       </c>
       <c r="X14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y14" t="n">
         <v>11</v>
       </c>
-      <c r="Y14" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL14" t="n">
         <v>23</v>
       </c>
-      <c r="AA14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC14" t="n">
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU14" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY14" t="n">
         <v>15</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>17</v>
       </c>
       <c r="AZ14" t="n">
         <v>29</v>
@@ -3075,16 +3075,16 @@
         <v>81</v>
       </c>
       <c r="BC14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pWz7ZINP</t>
+          <t>dQ60rhHO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>FC Hermannstadt</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="K15" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="S15" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="U15" t="n">
         <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
         <v>7.5</v>
       </c>
-      <c r="X15" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6</v>
-      </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
         <v>67</v>
       </c>
       <c r="AG15" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AH15" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AL15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>23</v>
       </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>51</v>
-      </c>
       <c r="AR15" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV15" t="n">
         <v>67</v>
       </c>
       <c r="AW15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA15" t="n">
         <v>126</v>
       </c>
-      <c r="AX15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>51</v>
-      </c>
       <c r="BB15" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD15" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dQ60rhHO</t>
+          <t>KCTDqtWs</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,116 +3276,116 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FC Hermannstadt</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
         <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K16" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
         <v>5.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="R16" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="S16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB16" t="n">
         <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
         <v>7</v>
       </c>
       <c r="AE16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>17</v>
       </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>19</v>
-      </c>
       <c r="AK16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL16" t="n">
         <v>41</v>
@@ -3394,16 +3394,16 @@
         <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP16" t="n">
         <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR16" t="n">
         <v>51</v>
@@ -3412,19 +3412,19 @@
         <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY16" t="n">
         <v>29</v>
@@ -3442,13 +3442,13 @@
         <v>301</v>
       </c>
       <c r="BD16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>KCTDqtWs</t>
+          <t>CYpwIs8l</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,536 +3458,172 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.7</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>5.5</v>
+        <v>2.88</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W17" t="n">
+        <v>10</v>
+      </c>
+      <c r="X17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>9</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W17" t="n">
-        <v>6</v>
-      </c>
-      <c r="X17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB17" t="n">
+      <c r="AK17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM17" t="n">
         <v>29</v>
       </c>
-      <c r="AC17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE17" t="n">
+      <c r="AN17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO17" t="n">
         <v>19</v>
       </c>
-      <c r="AF17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH17" t="n">
+      <c r="AP17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY17" t="n">
         <v>12</v>
       </c>
-      <c r="AI17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP17" t="n">
+      <c r="AZ17" t="n">
         <v>21</v>
       </c>
-      <c r="AQ17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS17" t="n">
+      <c r="BA17" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC17" t="n">
         <v>151</v>
       </c>
-      <c r="AT17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>301</v>
-      </c>
       <c r="BD17" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>UatBnfzp</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>15:10</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Norrkoping</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>AIK</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
-        <v>9</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W18" t="n">
-        <v>8</v>
-      </c>
-      <c r="X18" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>CYpwIs8l</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N19" t="n">
-        <v>10</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W19" t="n">
-        <v>10</v>
-      </c>
-      <c r="X19" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD19" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -929,40 +929,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
         <v>2.38</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>1.33</v>
@@ -971,10 +971,10 @@
         <v>3.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W3" t="n">
         <v>7.5</v>
@@ -1010,22 +1010,22 @@
         <v>251</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
         <v>67</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
         <v>3.5</v>
@@ -1037,7 +1037,7 @@
         <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1055,19 +1055,19 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX3" t="n">
         <v>7.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
         <v>34</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
         <v>126</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1135,10 +1135,10 @@
         <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
         <v>2.63</v>
@@ -1165,7 +1165,7 @@
         <v>8.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>19</v>
@@ -1192,10 +1192,10 @@
         <v>501</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
@@ -1210,10 +1210,10 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
@@ -1255,7 +1255,7 @@
         <v>126</v>
       </c>
       <c r="BC4" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD4" t="n">
         <v>126</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>tGmmLIvL</t>
+          <t>fT8rSK5A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Operario</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="J6" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
         <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
         <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB6" t="n">
         <v>34</v>
       </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
       <c r="AC6" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AI6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>9.5</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>10</v>
-      </c>
       <c r="AK6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL6" t="n">
         <v>21</v>
       </c>
-      <c r="AL6" t="n">
-        <v>23</v>
-      </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
         <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
         <v>126</v>
       </c>
-      <c r="AS6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>81</v>
-      </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY6" t="n">
         <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>zuChyeRl</t>
+          <t>tGmmLIvL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tecnico U.</t>
+          <t>Operario</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>U. Catolica</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.2</v>
       </c>
-      <c r="J7" t="n">
-        <v>4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
         <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="n">
         <v>34</v>
       </c>
-      <c r="AA7" t="n">
-        <v>29</v>
-      </c>
       <c r="AB7" t="n">
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
         <v>351</v>
       </c>
       <c r="AH7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>10</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9.5</v>
       </c>
       <c r="AK7" t="n">
         <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
         <v>5</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="n">
         <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS7" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY7" t="n">
         <v>13</v>
       </c>
       <c r="AZ7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4WNXteh2</t>
+          <t>zuChyeRl</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,59 +1820,59 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AC Ajaccio</t>
+          <t>Tecnico U.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>U. Catolica</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -1881,55 +1881,55 @@
         <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
         <v>19</v>
@@ -1938,43 +1938,43 @@
         <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT8" t="n">
         <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX8" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AY8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA8" t="n">
         <v>41</v>
@@ -1986,13 +1986,13 @@
         <v>201</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>niN2i2Nj</t>
+          <t>4WNXteh2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,173 +2002,173 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>AC Ajaccio</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.75</v>
+        <v>4.33</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y9" t="n">
         <v>15</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W9" t="n">
-        <v>17</v>
-      </c>
-      <c r="X9" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
         <v>19</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AF9" t="n">
         <v>67</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
       </c>
       <c r="AG9" t="n">
         <v>201</v>
       </c>
       <c r="AH9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI9" t="n">
         <v>8</v>
       </c>
-      <c r="AI9" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP9" t="n">
         <v>34</v>
       </c>
       <c r="AQ9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR9" t="n">
         <v>126</v>
       </c>
       <c r="AS9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC9" t="n">
         <v>201</v>
       </c>
-      <c r="AT9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>21</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>101</v>
-      </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>1.8</v>
@@ -2224,19 +2224,19 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R10" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="S10" t="n">
         <v>1.25</v>
@@ -2245,13 +2245,13 @@
         <v>3.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X10" t="n">
         <v>23</v>
@@ -2266,13 +2266,13 @@
         <v>26</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>12</v>
@@ -2284,13 +2284,13 @@
         <v>101</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK10" t="n">
         <v>17</v>
@@ -2302,7 +2302,7 @@
         <v>19</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
         <v>19</v>
@@ -2314,7 +2314,7 @@
         <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
         <v>101</v>
@@ -2329,7 +2329,7 @@
         <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AX10" t="n">
         <v>4.33</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
@@ -2400,7 +2400,7 @@
         <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2436,13 +2436,13 @@
         <v>11</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
         <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
         <v>19</v>
@@ -2472,16 +2472,16 @@
         <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM11" t="n">
         <v>26</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>23</v>
       </c>
       <c r="AN11" t="n">
         <v>4.75</v>
@@ -2505,7 +2505,7 @@
         <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
         <v>41</v>
@@ -2779,10 +2779,10 @@
         <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S13" t="n">
         <v>1.44</v>
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J15" t="n">
         <v>2.1</v>
@@ -3128,7 +3128,7 @@
         <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3164,13 +3164,13 @@
         <v>6.5</v>
       </c>
       <c r="X15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA15" t="n">
         <v>13</v>
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD15" t="n">
         <v>7.5</v>
@@ -3188,7 +3188,7 @@
         <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
         <v>351</v>
@@ -3215,7 +3215,7 @@
         <v>3.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
         <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.3</v>
@@ -771,10 +771,10 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.67</v>
@@ -804,19 +804,19 @@
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
@@ -825,10 +825,10 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
@@ -935,7 +935,7 @@
         <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.1</v>
@@ -944,25 +944,25 @@
         <v>2.38</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
         <v>1.33</v>
@@ -1111,40 +1111,40 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1153,16 +1153,16 @@
         <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
@@ -1177,13 +1177,13 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>81</v>
@@ -1192,10 +1192,10 @@
         <v>501</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
@@ -1210,10 +1210,10 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
@@ -1225,7 +1225,7 @@
         <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT4" t="n">
         <v>2.25</v>
@@ -1243,19 +1243,19 @@
         <v>5.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD4" t="n">
         <v>126</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
         <v>4.33</v>
@@ -1705,7 +1705,7 @@
         <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
         <v>15</v>
@@ -1741,7 +1741,7 @@
         <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ7" t="n">
         <v>10</v>
@@ -1750,13 +1750,13 @@
         <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO7" t="n">
         <v>21</v>
@@ -1765,7 +1765,7 @@
         <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR7" t="n">
         <v>126</v>
@@ -1780,7 +1780,7 @@
         <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
         <v>81</v>
@@ -1795,7 +1795,7 @@
         <v>29</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB7" t="n">
         <v>81</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1875,10 +1875,10 @@
         <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
         <v>1.91</v>
@@ -1887,19 +1887,19 @@
         <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
         <v>34</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>29</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
@@ -1920,16 +1920,16 @@
         <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
         <v>19</v>
@@ -1938,13 +1938,13 @@
         <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ8" t="n">
         <v>67</v>
@@ -1956,7 +1956,7 @@
         <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
@@ -1968,10 +1968,10 @@
         <v>51</v>
       </c>
       <c r="AX8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ8" t="n">
         <v>23</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -2087,10 +2087,10 @@
         <v>51</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2111,7 +2111,7 @@
         <v>9</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>19</v>
@@ -2123,7 +2123,7 @@
         <v>6</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP9" t="n">
         <v>34</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WrBOmjM7</t>
+          <t>OlfkLvp9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Sol de America</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
       </c>
       <c r="K10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.5</v>
       </c>
-      <c r="L10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>19</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>1.5</v>
       </c>
-      <c r="R10" t="n">
-        <v>2.5</v>
-      </c>
       <c r="S10" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="T10" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="U10" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
         <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
         <v>19</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
         <v>51</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>301</v>
       </c>
       <c r="AX10" t="n">
         <v>4.33</v>
       </c>
       <c r="AY10" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BC10" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>zHHFkCie</t>
+          <t>rw7N2WTs</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.45</v>
+        <v>1.33</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="J11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T11" t="n">
         <v>3</v>
       </c>
-      <c r="K11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="U11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA11" t="n">
         <v>13</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W11" t="n">
-        <v>11</v>
-      </c>
-      <c r="X11" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y11" t="n">
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
         <v>10</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AD11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>23</v>
       </c>
-      <c r="AA11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD11" t="n">
+      <c r="AK11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO11" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AR11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
         <v>51</v>
       </c>
-      <c r="AS11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>351</v>
-      </c>
       <c r="AX11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="BB11" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD11" t="n">
         <v>51</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OlfkLvp9</t>
+          <t>GCW0bGhf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,158 +2548,158 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sol de America</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.88</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.45</v>
-      </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.44</v>
       </c>
-      <c r="P12" t="n">
+      <c r="T12" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
         <v>7.5</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
       </c>
       <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP12" t="n">
         <v>23</v>
       </c>
-      <c r="AL12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO12" t="n">
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY12" t="n">
         <v>17</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>15</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2711,16 +2711,16 @@
         <v>81</v>
       </c>
       <c r="BC12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GCW0bGhf</t>
+          <t>pWz7ZINP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T13" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
         <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>51</v>
       </c>
-      <c r="AG13" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>41</v>
-      </c>
       <c r="AR13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
         <v>67</v>
       </c>
-      <c r="AS13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
       <c r="AW13" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
         <v>29</v>
       </c>
       <c r="BA13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB13" t="n">
         <v>81</v>
       </c>
       <c r="BC13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD13" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pWz7ZINP</t>
+          <t>KCTDqtWs</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="K14" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.44</v>
       </c>
-      <c r="P14" t="n">
+      <c r="T14" t="n">
         <v>2.63</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.38</v>
       </c>
       <c r="U14" t="n">
         <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W14" t="n">
+        <v>6</v>
+      </c>
+      <c r="X14" t="n">
         <v>7.5</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
         <v>13</v>
       </c>
-      <c r="Y14" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB14" t="n">
         <v>29</v>
       </c>
-      <c r="AA14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>41</v>
-      </c>
       <c r="AC14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD14" t="n">
         <v>7</v>
       </c>
-      <c r="AD14" t="n">
-        <v>6</v>
-      </c>
       <c r="AE14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="n">
         <v>67</v>
       </c>
       <c r="AG14" t="n">
-        <v>451</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AI14" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AP14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>29</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AR14" t="n">
         <v>51</v>
       </c>
-      <c r="AR14" t="n">
-        <v>101</v>
-      </c>
       <c r="AS14" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
       </c>
       <c r="AW14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB14" t="n">
         <v>126</v>
       </c>
-      <c r="AX14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB14" t="n">
+      <c r="BC14" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD14" t="n">
         <v>81</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dQ60rhHO</t>
+          <t>CYpwIs8l</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,59 +3094,59 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FC Hermannstadt</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.53</v>
+        <v>3.25</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>6.25</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K15" t="n">
         <v>2.1</v>
       </c>
-      <c r="K15" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>2.88</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R15" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3155,475 +3155,111 @@
         <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
+        <v>10</v>
+      </c>
+      <c r="X15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
         <v>6.5</v>
       </c>
-      <c r="X15" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>51</v>
       </c>
-      <c r="AM15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>23</v>
-      </c>
       <c r="AR15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT15" t="n">
         <v>2.75</v>
       </c>
       <c r="AU15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW15" t="n">
         <v>51</v>
       </c>
       <c r="AX15" t="n">
-        <v>7.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY15" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="BB15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC15" t="n">
         <v>151</v>
       </c>
-      <c r="BC15" t="n">
-        <v>301</v>
-      </c>
       <c r="BD15" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>KCTDqtWs</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Levante</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Malaga</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W16" t="n">
-        <v>6</v>
-      </c>
-      <c r="X16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>CYpwIs8l</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N17" t="n">
-        <v>10</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W17" t="n">
-        <v>10</v>
-      </c>
-      <c r="X17" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD17" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -771,16 +771,16 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -1055,7 +1055,7 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX3" t="n">
         <v>7.5</v>
@@ -1114,10 +1114,10 @@
         <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
@@ -1126,7 +1126,7 @@
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>1.13</v>
@@ -1135,22 +1135,22 @@
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
         <v>2.25</v>
@@ -1192,7 +1192,7 @@
         <v>501</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
@@ -1228,7 +1228,7 @@
         <v>301</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU4" t="n">
         <v>9.5</v>
@@ -1255,7 +1255,7 @@
         <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD4" t="n">
         <v>126</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1323,49 +1323,49 @@
         <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
         <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>81</v>
@@ -1374,34 +1374,34 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
         <v>51</v>
       </c>
-      <c r="AM5" t="n">
-        <v>67</v>
-      </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP5" t="n">
         <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
@@ -1410,10 +1410,10 @@
         <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
@@ -1422,22 +1422,22 @@
         <v>126</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
       </c>
       <c r="BA5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB5" t="n">
         <v>151</v>
       </c>
-      <c r="BB5" t="n">
-        <v>201</v>
-      </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1887,10 +1887,10 @@
         <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
         <v>13</v>
@@ -1923,7 +1923,7 @@
         <v>6.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>9</v>
@@ -1932,7 +1932,7 @@
         <v>17</v>
       </c>
       <c r="AL8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM8" t="n">
         <v>34</v>
@@ -1941,13 +1941,13 @@
         <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP8" t="n">
         <v>34</v>
       </c>
       <c r="AQ8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR8" t="n">
         <v>101</v>
@@ -1962,7 +1962,7 @@
         <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
         <v>51</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>4.75</v>
@@ -2057,10 +2057,10 @@
         <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
         <v>2.1</v>
@@ -2069,10 +2069,10 @@
         <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
         <v>15</v>
@@ -2084,7 +2084,7 @@
         <v>41</v>
       </c>
       <c r="AB9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
         <v>7</v>
@@ -2105,10 +2105,10 @@
         <v>6</v>
       </c>
       <c r="AI9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK9" t="n">
         <v>17</v>
@@ -2120,7 +2120,7 @@
         <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO9" t="n">
         <v>23</v>
@@ -2135,10 +2135,10 @@
         <v>126</v>
       </c>
       <c r="AS9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2752,7 +2752,7 @@
         <v>2.8</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
         <v>2.63</v>
@@ -2761,46 +2761,46 @@
         <v>3.6</v>
       </c>
       <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.95</v>
       </c>
-      <c r="L13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
         <v>11</v>
@@ -2815,7 +2815,7 @@
         <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD13" t="n">
         <v>6</v>
@@ -2824,10 +2824,10 @@
         <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH13" t="n">
         <v>7</v>
@@ -2842,13 +2842,13 @@
         <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
         <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO13" t="n">
         <v>17</v>
@@ -2866,7 +2866,7 @@
         <v>251</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU13" t="n">
         <v>8.5</v>
@@ -2881,7 +2881,7 @@
         <v>4.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD15"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>rXmhxCKr</t>
+          <t>zeCiJHet</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.38</v>
       </c>
-      <c r="L3" t="n">
+      <c r="V3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD3" t="n">
         <v>6</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO3" t="n">
         <v>13</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
         <v>126</v>
       </c>
-      <c r="AT3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>151</v>
-      </c>
       <c r="AX3" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA3" t="n">
         <v>101</v>
       </c>
       <c r="BB3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD3" t="n">
         <v>126</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>zeCiJHet</t>
+          <t>Wp49ygOG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,95 +1092,95 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Sarmiento Junin</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.62</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.57</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
         <v>19</v>
       </c>
-      <c r="AA4" t="n">
-        <v>21</v>
-      </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1189,19 +1189,19 @@
         <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1210,25 +1210,25 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
         <v>9.5</v>
@@ -1240,10 +1240,10 @@
         <v>126</v>
       </c>
       <c r="AX4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
@@ -1255,7 +1255,7 @@
         <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wp49ygOG</t>
+          <t>fsUnkChG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,163 +1284,163 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atl. Tucuman</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sarmiento Junin</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N5" t="n">
         <v>5</v>
       </c>
-      <c r="J5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P5" t="n">
         <v>2</v>
       </c>
-      <c r="L5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.44</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.62</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
         <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW5" t="n">
         <v>126</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -1493,16 +1493,16 @@
         <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q6" t="n">
         <v>2.15</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>zuChyeRl</t>
+          <t>nc4p1cmk</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,95 +1820,95 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tecnico U.</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>U. Catolica</t>
+          <t>Paysandu PA</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>2.45</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>2.63</v>
+        <v>3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
         <v>34</v>
       </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1920,43 +1920,43 @@
         <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
         <v>81</v>
       </c>
-      <c r="AR8" t="n">
-        <v>101</v>
-      </c>
       <c r="AS8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
@@ -1965,34 +1965,34 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA8" t="n">
         <v>51</v>
       </c>
-      <c r="AX8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>41</v>
-      </c>
       <c r="BB8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4WNXteh2</t>
+          <t>hf7hayI1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,47 +2002,47 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AC Ajaccio</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -2051,10 +2051,10 @@
         <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
         <v>1.53</v>
@@ -2063,25 +2063,25 @@
         <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
@@ -2093,55 +2093,55 @@
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI9" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
         <v>81</v>
       </c>
-      <c r="AR9" t="n">
-        <v>126</v>
-      </c>
       <c r="AS9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
         <v>2.38</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
@@ -2150,22 +2150,22 @@
         <v>81</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OlfkLvp9</t>
+          <t>zuChyeRl</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,83 +2184,83 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sol de America</t>
+          <t>Tecnico U.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>U. Catolica</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.44</v>
       </c>
-      <c r="P10" t="n">
+      <c r="T10" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
         <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="n">
         <v>34</v>
@@ -2269,16 +2269,16 @@
         <v>41</v>
       </c>
       <c r="AC10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD10" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
         <v>351</v>
@@ -2287,43 +2287,43 @@
         <v>6.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AM10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR10" t="n">
         <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
@@ -2332,22 +2332,22 @@
         <v>51</v>
       </c>
       <c r="AX10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ10" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>rw7N2WTs</t>
+          <t>OlfkLvp9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,136 +2376,136 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Sol de America</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.33</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="J11" t="n">
-        <v>1.91</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.38</v>
       </c>
-      <c r="L11" t="n">
+      <c r="U11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W11" t="n">
         <v>8</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>11</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD11" t="n">
         <v>6</v>
       </c>
-      <c r="X11" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y11" t="n">
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU11" t="n">
         <v>9</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>10</v>
       </c>
       <c r="AV11" t="n">
         <v>67</v>
@@ -2514,22 +2514,22 @@
         <v>51</v>
       </c>
       <c r="AX11" t="n">
-        <v>9</v>
+        <v>4.33</v>
       </c>
       <c r="AY11" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC11" t="n">
         <v>251</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>501</v>
       </c>
       <c r="BD11" t="n">
         <v>51</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GCW0bGhf</t>
+          <t>rw7N2WTs</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,173 +2548,173 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>1.33</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>7.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>1.91</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="L12" t="n">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
+        <v>13</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6</v>
+      </c>
+      <c r="X12" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y12" t="n">
         <v>9</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>8.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
         <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO12" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
         <v>51</v>
       </c>
-      <c r="AG12" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS12" t="n">
+      <c r="AX12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA12" t="n">
         <v>201</v>
       </c>
-      <c r="AT12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV12" t="n">
+      <c r="BB12" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD12" t="n">
         <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -2749,16 +2749,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H13" t="n">
         <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
@@ -2770,7 +2770,7 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.4</v>
@@ -2779,10 +2779,10 @@
         <v>2.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S13" t="n">
         <v>1.5</v>
@@ -2800,7 +2800,7 @@
         <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>11</v>
@@ -2809,7 +2809,7 @@
         <v>29</v>
       </c>
       <c r="AA13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB13" t="n">
         <v>41</v>
@@ -2821,16 +2821,16 @@
         <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI13" t="n">
         <v>12</v>
@@ -2845,10 +2845,10 @@
         <v>23</v>
       </c>
       <c r="AM13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" t="n">
         <v>17</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KCTDqtWs</t>
+          <t>CYpwIs8l</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,354 +2912,172 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>3.25</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>5.5</v>
+        <v>2.88</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W14" t="n">
+        <v>10</v>
+      </c>
+      <c r="X14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>9</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6</v>
-      </c>
-      <c r="X14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AK14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM14" t="n">
         <v>29</v>
       </c>
-      <c r="AC14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE14" t="n">
+      <c r="AN14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO14" t="n">
         <v>19</v>
       </c>
-      <c r="AF14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH14" t="n">
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY14" t="n">
         <v>12</v>
       </c>
-      <c r="AI14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK14" t="n">
+      <c r="AZ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB14" t="n">
         <v>51</v>
       </c>
-      <c r="AL14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS14" t="n">
+      <c r="BC14" t="n">
         <v>151</v>
       </c>
-      <c r="AT14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>301</v>
-      </c>
       <c r="BD14" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>CYpwIs8l</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
-        <v>10</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W15" t="n">
-        <v>10</v>
-      </c>
-      <c r="X15" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD15" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,39 +596,39 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
-        </is>
-      </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0_HT</t>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ratYowuH</t>
+          <t>Wp49ygOG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ENGLAND - PREMIER LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Sarmiento Junin</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="R2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U2" t="n">
         <v>2.2</v>
       </c>
-      <c r="S2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>1.62</v>
       </c>
-      <c r="V2" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA2" t="n">
+      <c r="AH2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI2" t="n">
         <v>17</v>
       </c>
-      <c r="AB2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
         <v>10</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>101</v>
       </c>
-      <c r="AT2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>451</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>23</v>
-      </c>
       <c r="BA2" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>67</v>
+        <v>401</v>
       </c>
       <c r="BC2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD2" t="n">
         <v>151</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>zeCiJHet</t>
+          <t>fsUnkChG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,170 +910,170 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2.88</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N3" t="n">
         <v>5</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W3" t="n">
         <v>5.5</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5</v>
-      </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO3" t="n">
         <v>21</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AP3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>81</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="BA3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB3" t="n">
         <v>501</v>
       </c>
-      <c r="AH3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW3" t="n">
+      <c r="BC3" t="n">
         <v>126</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>451</v>
       </c>
       <c r="BD3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Wp49ygOG</t>
+          <t>fT8rSK5A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,170 +1092,170 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Atl. Tucuman</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sarmiento Junin</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>2.38</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.44</v>
       </c>
-      <c r="P4" t="n">
+      <c r="T4" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AH4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK4" t="n">
         <v>21</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
         <v>81</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AS4" t="n">
         <v>201</v>
       </c>
-      <c r="AH4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK4" t="n">
+      <c r="AT4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV4" t="n">
         <v>51</v>
       </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>81</v>
-      </c>
       <c r="AW4" t="n">
-        <v>126</v>
+        <v>4.33</v>
       </c>
       <c r="AX4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="n">
-        <v>401</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fsUnkChG</t>
+          <t>tGmmLIvL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,158 +1274,158 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Operario</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K5" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
         <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="n">
         <v>34</v>
       </c>
       <c r="AB5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="AH5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN5" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
         <v>21</v>
       </c>
       <c r="AP5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS5" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="AX5" t="n">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
@@ -1434,19 +1434,19 @@
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fT8rSK5A</t>
+          <t>nc4p1cmk</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,131 +1456,131 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Paysandu PA</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
         <v>3.75</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.1</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>301</v>
+        <v>8</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.5</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>351</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
@@ -1592,43 +1592,43 @@
         <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>51</v>
       </c>
-      <c r="AW6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>23</v>
-      </c>
       <c r="BA6" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tGmmLIvL</t>
+          <t>hf7hayI1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,31 +1648,31 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Operario</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1681,127 +1681,127 @@
         <v>7</v>
       </c>
       <c r="O7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.5</v>
       </c>
-      <c r="P7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.48</v>
-      </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>351</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>41</v>
+        <v>1250</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
         <v>81</v>
       </c>
-      <c r="AR7" t="n">
-        <v>126</v>
-      </c>
       <c r="AS7" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC7" t="n">
         <v>81</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>251</v>
       </c>
       <c r="BD7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>nc4p1cmk</t>
+          <t>OlfkLvp9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,92 +1820,92 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Sol de America</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Paysandu PA</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W8" t="n">
         <v>8</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7</v>
-      </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
@@ -1914,85 +1914,85 @@
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
         <v>351</v>
       </c>
-      <c r="AH8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
       </c>
       <c r="AW8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA8" t="n">
         <v>81</v>
       </c>
-      <c r="AX8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA8" t="n">
+      <c r="BB8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC8" t="n">
         <v>51</v>
       </c>
-      <c r="BB8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>251</v>
-      </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hf7hayI1</t>
+          <t>rw7N2WTs</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>1.33</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>1.91</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
+        <v>13</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO9" t="n">
         <v>6.5</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU9" t="n">
         <v>10</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="AY9" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="BC9" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>zuChyeRl</t>
+          <t>pWz7ZINP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,143 +2184,143 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tecnico U.</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>U. Catolica</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>2.75</v>
       </c>
       <c r="H10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
         <v>3.4</v>
       </c>
-      <c r="I10" t="n">
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.95</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.91</v>
       </c>
       <c r="V10" t="n">
         <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AA10" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
       </c>
       <c r="AG10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
         <v>351</v>
       </c>
-      <c r="AH10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK10" t="n">
+      <c r="AN10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO10" t="n">
         <v>17</v>
       </c>
-      <c r="AL10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>23</v>
-      </c>
       <c r="AP10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
         <v>81</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>101</v>
       </c>
       <c r="AS10" t="n">
         <v>251</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
@@ -2329,34 +2329,34 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>51</v>
       </c>
-      <c r="AX10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>23</v>
-      </c>
       <c r="BA10" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OlfkLvp9</t>
+          <t>CYpwIs8l</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,122 +2366,122 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sol de America</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="S11" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
         <v>34</v>
       </c>
       <c r="AA11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="n">
         <v>34</v>
       </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
       <c r="AC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
       <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK11" t="n">
         <v>17</v>
       </c>
-      <c r="AF11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>21</v>
-      </c>
       <c r="AL11" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="AN11" t="n">
         <v>5</v>
@@ -2490,594 +2490,48 @@
         <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS11" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>51</v>
+        <v>4.33</v>
       </c>
       <c r="AX11" t="n">
-        <v>4.33</v>
+        <v>12</v>
       </c>
       <c r="AY11" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="n">
         <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>rw7N2WTs</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Cerro Porteno</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Tacuary</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L12" t="n">
-        <v>8</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>13</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W12" t="n">
-        <v>6</v>
-      </c>
-      <c r="X12" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>pWz7ZINP</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Nacional</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Santa Clara</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CYpwIs8l</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>10</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W14" t="n">
-        <v>10</v>
-      </c>
-      <c r="X14" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD14" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
         <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -950,7 +950,7 @@
         <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O3" t="n">
         <v>1.73</v>
@@ -1037,7 +1037,7 @@
         <v>41</v>
       </c>
       <c r="AQ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR3" t="n">
         <v>151</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1311,10 +1311,10 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1869,10 +1869,10 @@
         <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
         <v>1.53</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pWz7ZINP</t>
+          <t>CYpwIs8l</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,95 +2184,95 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
         <v>2.75</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y10" t="n">
         <v>12</v>
       </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
       <c r="Z10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -2284,31 +2284,31 @@
         <v>7.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP10" t="n">
         <v>26</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>29</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
@@ -2317,221 +2317,39 @@
         <v>81</v>
       </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA10" t="n">
         <v>51</v>
       </c>
-      <c r="BA10" t="n">
-        <v>81</v>
-      </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CYpwIs8l</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W11" t="n">
-        <v>10</v>
-      </c>
-      <c r="X11" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD11" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -831,7 +831,7 @@
         <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>51</v>
@@ -846,10 +846,10 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
@@ -870,13 +870,13 @@
         <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -950,7 +950,7 @@
         <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
         <v>1.73</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OlfkLvp9</t>
+          <t>txqKnEdc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,41 +1820,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sol de America</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
@@ -1869,10 +1869,10 @@
         <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
         <v>1.53</v>
@@ -1881,25 +1881,25 @@
         <v>2.38</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>15</v>
       </c>
-      <c r="Y8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>34</v>
-      </c>
       <c r="AA8" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
@@ -1908,91 +1908,91 @@
         <v>6.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI8" t="n">
         <v>17</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AJ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
         <v>67</v>
       </c>
-      <c r="AG8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>101</v>
-      </c>
       <c r="AS8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT8" t="n">
         <v>2.38</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>rw7N2WTs</t>
+          <t>OlfkLvp9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,157 +2012,157 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Sol de America</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.33</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="J9" t="n">
-        <v>1.91</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.38</v>
       </c>
-      <c r="L9" t="n">
+      <c r="U9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W9" t="n">
         <v>8</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="X9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y9" t="n">
         <v>13</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="Z9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD9" t="n">
         <v>6</v>
       </c>
-      <c r="X9" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU9" t="n">
         <v>9</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>10</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>9</v>
+        <v>4.33</v>
       </c>
       <c r="AX9" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB9" t="n">
         <v>251</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>501</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CYpwIs8l</t>
+          <t>rw7N2WTs</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,86 +2184,86 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>1.33</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>1.91</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
-        <v>2.88</v>
+        <v>8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>34</v>
+        <v>8.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
@@ -2272,84 +2272,266 @@
         <v>10</v>
       </c>
       <c r="AD10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO10" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH10" t="n">
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU10" t="n">
         <v>10</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
         <v>9</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM10" t="n">
+      <c r="AX10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA10" t="n">
         <v>251</v>
       </c>
-      <c r="AN10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>51</v>
-      </c>
       <c r="BB10" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
       </c>
       <c r="BD10" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CYpwIs8l</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Defensor Sp.</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W11" t="n">
+        <v>10</v>
+      </c>
+      <c r="X11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD11" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
@@ -1344,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
         <v>13</v>
@@ -1356,7 +1356,7 @@
         <v>34</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC5" t="n">
         <v>6.5</v>
@@ -1368,7 +1368,7 @@
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
         <v>6</v>
@@ -1380,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
         <v>21</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -1505,10 +1505,10 @@
         <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1535,7 +1535,7 @@
         <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
@@ -1553,7 +1553,7 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH6" t="n">
         <v>13</v>
@@ -1562,7 +1562,7 @@
         <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
         <v>26</v>
@@ -1580,7 +1580,7 @@
         <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
@@ -1589,7 +1589,7 @@
         <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
         <v>2.5</v>
@@ -1753,7 +1753,7 @@
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
         <v>4.33</v>
@@ -1884,7 +1884,7 @@
         <v>2.25</v>
       </c>
       <c r="V8" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W8" t="n">
         <v>5.5</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OlfkLvp9</t>
+          <t>rw7N2WTs</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,157 +2012,157 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sol de America</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN9" t="n">
         <v>3.2</v>
       </c>
-      <c r="H9" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W9" t="n">
-        <v>8</v>
-      </c>
-      <c r="X9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AO9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR9" t="n">
         <v>41</v>
       </c>
-      <c r="AC9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH9" t="n">
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU9" t="n">
         <v>10</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.33</v>
+        <v>9</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>rw7N2WTs</t>
+          <t>CYpwIs8l</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,86 +2184,86 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.33</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="J10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.91</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L10" t="n">
-        <v>8</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>13</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.5</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
@@ -2272,266 +2272,84 @@
         <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP10" t="n">
         <v>26</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
         <v>81</v>
       </c>
-      <c r="AG10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH10" t="n">
+      <c r="AS10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>41</v>
       </c>
-      <c r="AI10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS10" t="n">
+      <c r="BA10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB10" t="n">
         <v>151</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>501</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CYpwIs8l</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W11" t="n">
-        <v>10</v>
-      </c>
-      <c r="X11" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD11" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -777,37 +777,37 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -816,7 +816,7 @@
         <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -825,19 +825,19 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK2" t="n">
         <v>51</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -846,16 +846,16 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
@@ -864,31 +864,31 @@
         <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
         <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1159,22 +1159,22 @@
         <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
         <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
         <v>8.5</v>
@@ -1189,22 +1189,22 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
         <v>301</v>
@@ -1213,13 +1213,13 @@
         <v>5</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR4" t="n">
         <v>81</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1344,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
         <v>13</v>
@@ -1380,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
         <v>21</v>
@@ -1413,7 +1413,7 @@
         <v>2.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
@@ -1428,13 +1428,13 @@
         <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -1884,7 +1884,7 @@
         <v>2.25</v>
       </c>
       <c r="V8" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W8" t="n">
         <v>5.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -819,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -828,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
         <v>19</v>
@@ -855,7 +855,7 @@
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
@@ -867,7 +867,7 @@
         <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
@@ -882,13 +882,13 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA2" t="n">
         <v>201</v>
       </c>
       <c r="BB2" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
@@ -1132,7 +1132,7 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1171,7 +1171,7 @@
         <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
@@ -1192,7 +1192,7 @@
         <v>7</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
         <v>9.5</v>
@@ -1201,10 +1201,10 @@
         <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
         <v>301</v>
@@ -1219,7 +1219,7 @@
         <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
         <v>81</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1681,10 +1681,10 @@
         <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
         <v>2.5</v>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
@@ -2212,7 +2212,7 @@
         <v>2.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
@@ -2224,31 +2224,31 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="n">
         <v>2.05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
         <v>10</v>
@@ -2263,13 +2263,13 @@
         <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2302,16 +2302,16 @@
         <v>251</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO10" t="n">
         <v>19</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
         <v>81</v>
@@ -2320,7 +2320,7 @@
         <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -2329,13 +2329,13 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
         <v>12</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wp49ygOG</t>
+          <t>fsUnkChG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,106 +738,106 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Atl. Tucuman</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sarmiento Junin</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD2" t="n">
         <v>6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W2" t="n">
-        <v>5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AG2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH2" t="n">
         <v>11</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>29</v>
       </c>
-      <c r="AI2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>67</v>
-      </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -846,46 +846,46 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA2" t="n">
         <v>151</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>201</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -894,13 +894,13 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>fsUnkChG</t>
+          <t>fT8rSK5A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,167 +910,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.73</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
-        <v>1.78</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.03</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.63</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.44</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
         <v>34</v>
       </c>
       <c r="AA3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB3" t="n">
         <v>34</v>
       </c>
-      <c r="AB3" t="n">
-        <v>51</v>
-      </c>
       <c r="AC3" t="n">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>23</v>
       </c>
-      <c r="AF3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AK3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX3" t="n">
         <v>13</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM3" t="n">
+      <c r="AY3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB3" t="n">
         <v>201</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>501</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>501</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fT8rSK5A</t>
+          <t>nc4p1cmk</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,131 +1092,131 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Paysandu PA</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I4" t="n">
         <v>3.1</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.38</v>
-      </c>
       <c r="J4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
         <v>3.75</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB4" t="n">
         <v>34</v>
       </c>
-      <c r="AA4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO4" t="n">
         <v>15</v>
       </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>19</v>
-      </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
         <v>51</v>
@@ -1228,43 +1228,43 @@
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tGmmLIvL</t>
+          <t>hf7hayI1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,31 +1284,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Operario</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I5" t="n">
         <v>3.5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L5" t="n">
         <v>4.33</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.1</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1335,31 +1335,31 @@
         <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
         <v>41</v>
       </c>
-      <c r="AA5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>51</v>
-      </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1368,73 +1368,73 @@
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>351</v>
+        <v>1250</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
         <v>81</v>
       </c>
-      <c r="AR5" t="n">
-        <v>126</v>
-      </c>
       <c r="AS5" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
         <v>2.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>nc4p1cmk</t>
+          <t>txqKnEdc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Paysandu PA</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X6" t="n">
         <v>7.5</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7</v>
-      </c>
-      <c r="X6" t="n">
-        <v>11</v>
-      </c>
       <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
         <v>10</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AH6" t="n">
         <v>23</v>
       </c>
-      <c r="AA6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
+      <c r="AI6" t="n">
         <v>17</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AJ6" t="n">
         <v>51</v>
       </c>
-      <c r="AG6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>29</v>
-      </c>
       <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP6" t="n">
         <v>26</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AQ6" t="n">
         <v>41</v>
       </c>
-      <c r="AM6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
         <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hf7hayI1</t>
+          <t>rw7N2WTs</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K7" t="n">
         <v>2.38</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
+        <v>8</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN7" t="n">
         <v>3.2</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="AO7" t="n">
         <v>6.5</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="n">
         <v>10</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>txqKnEdc</t>
+          <t>CYpwIs8l</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,536 +1820,172 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.8</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S8" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>6.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY8" t="n">
         <v>21</v>
       </c>
-      <c r="AF8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
+      <c r="AZ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA8" t="n">
         <v>51</v>
       </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
+      <c r="BB8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC8" t="n">
         <v>51</v>
       </c>
-      <c r="AM8" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>126</v>
-      </c>
       <c r="BD8" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>rw7N2WTs</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Cerro Porteno</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Tacuary</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L9" t="n">
-        <v>8</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>13</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6</v>
-      </c>
-      <c r="X9" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CYpwIs8l</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W10" t="n">
-        <v>10</v>
-      </c>
-      <c r="X10" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD10" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -768,25 +768,25 @@
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T2" t="n">
         <v>2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.03</v>
       </c>
       <c r="U2" t="n">
         <v>2.63</v>
@@ -971,10 +971,10 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
@@ -992,10 +992,10 @@
         <v>26</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1007,7 +1007,7 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
@@ -1049,7 +1049,7 @@
         <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1061,10 +1061,10 @@
         <v>13</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
         <v>67</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
@@ -1120,13 +1120,13 @@
         <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1135,10 +1135,10 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
         <v>2.35</v>
@@ -1168,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
@@ -1192,7 +1192,7 @@
         <v>8</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
         <v>12</v>
@@ -1213,7 +1213,7 @@
         <v>4.33</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1225,7 +1225,7 @@
         <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
         <v>2.5</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
@@ -1311,10 +1311,10 @@
         <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H6" t="n">
         <v>3.25</v>
@@ -1499,10 +1499,10 @@
         <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
         <v>2.5</v>
@@ -1675,10 +1675,10 @@
         <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
@@ -1687,10 +1687,10 @@
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1804,188 +1804,6 @@
         <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>CYpwIs8l</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W8" t="n">
-        <v>10</v>
-      </c>
-      <c r="X8" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD8" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -795,7 +795,7 @@
         <v>1.44</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -807,7 +807,7 @@
         <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
@@ -819,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
         <v>126</v>
@@ -846,7 +846,7 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -864,7 +864,7 @@
         <v>501</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU2" t="n">
         <v>11</v>
@@ -873,10 +873,10 @@
         <v>101</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
         <v>3.25</v>
@@ -1499,10 +1499,10 @@
         <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
         <v>2.5</v>
@@ -1675,10 +1675,10 @@
         <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
@@ -1723,7 +1723,7 @@
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
         <v>9.5</v>
@@ -1747,10 +1747,10 @@
         <v>101</v>
       </c>
       <c r="AK7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM7" t="n">
         <v>201</v>
@@ -1795,7 +1795,7 @@
         <v>201</v>
       </c>
       <c r="BA7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB7" t="n">
         <v>501</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,7 +753,7 @@
         <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -768,7 +768,7 @@
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.8</v>
@@ -795,7 +795,7 @@
         <v>1.44</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -807,7 +807,7 @@
         <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
@@ -846,7 +846,7 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -876,7 +876,7 @@
         <v>4.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>fT8rSK5A</t>
+          <t>nc4p1cmk</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,41 +910,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Paysandu PA</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.1</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.38</v>
-      </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -953,88 +953,88 @@
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
         <v>34</v>
       </c>
-      <c r="AA3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH3" t="n">
         <v>15</v>
       </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>11</v>
-      </c>
       <c r="AI3" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
@@ -1043,46 +1043,46 @@
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nc4p1cmk</t>
+          <t>hf7hayI1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,55 +1102,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Paysandu PA</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.57</v>
       </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
@@ -1159,10 +1159,10 @@
         <v>1.73</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
@@ -1174,16 +1174,16 @@
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1195,31 +1195,31 @@
         <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK4" t="n">
         <v>34</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>29</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>351</v>
+        <v>1250</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
         <v>13</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>81</v>
@@ -1228,7 +1228,7 @@
         <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
@@ -1240,19 +1240,19 @@
         <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hf7hayI1</t>
+          <t>txqKnEdc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,41 +1274,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1317,10 +1317,10 @@
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
         <v>2.5</v>
@@ -1329,124 +1329,124 @@
         <v>1.5</v>
       </c>
       <c r="S5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.57</v>
       </c>
-      <c r="T5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y5" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>10</v>
-      </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK5" t="n">
         <v>41</v>
       </c>
-      <c r="AK5" t="n">
-        <v>34</v>
-      </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>1250</v>
+        <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
         <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
         <v>351</v>
       </c>
       <c r="BC5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>txqKnEdc</t>
+          <t>rw7N2WTs</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,65 +1456,65 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.93</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
         <v>2.25</v>
@@ -1523,287 +1523,105 @@
         <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF6" t="n">
         <v>81</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI6" t="n">
         <v>23</v>
       </c>
-      <c r="AI6" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK6" t="n">
         <v>51</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
       </c>
       <c r="AL6" t="n">
         <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>900</v>
+        <v>201</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AO6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="n">
         <v>10</v>
       </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX6" t="n">
         <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>29</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>rw7N2WTs</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Cerro Porteno</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Tacuary</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L7" t="n">
-        <v>8</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>13</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6</v>
-      </c>
-      <c r="X7" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD7" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -762,13 +762,13 @@
         <v>1.73</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.8</v>
@@ -828,13 +828,13 @@
         <v>5.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
@@ -873,7 +873,7 @@
         <v>101</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX2" t="n">
         <v>21</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
@@ -1141,10 +1141,10 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1219,7 +1219,7 @@
         <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
         <v>81</v>
@@ -1246,13 +1246,13 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1441,188 +1441,6 @@
       </c>
       <c r="BD5" t="n">
         <v>126</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>rw7N2WTs</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Cerro Porteno</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Tacuary</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L6" t="n">
-        <v>8</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>13</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -1129,10 +1129,10 @@
         <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fsUnkChG</t>
+          <t>hf7hayI1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.73</v>
       </c>
-      <c r="L2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.44</v>
-      </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>5.5</v>
+        <v>1250</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>13</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL2" t="n">
         <v>34</v>
       </c>
-      <c r="AK2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>51</v>
       </c>
-      <c r="AM2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>81</v>
       </c>
-      <c r="AR2" t="n">
-        <v>151</v>
-      </c>
       <c r="AS2" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
         <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
         <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>nc4p1cmk</t>
+          <t>txqKnEdc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,47 +910,47 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Paysandu PA</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.35</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -959,487 +959,123 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
         <v>6.5</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH3" t="n">
         <v>10</v>
       </c>
-      <c r="Y3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AI3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>17</v>
       </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>34</v>
-      </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>hf7hayI1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>21:15</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>BRAZIL - SERIE B</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Ituano</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CRB</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>txqKnEdc</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>22:15</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>COLOMBIA - PRIMERA A</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Atl. Nacional</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD5" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hf7hayI1</t>
+          <t>txqKnEdc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,354 +728,172 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.5</v>
       </c>
-      <c r="P2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.48</v>
-      </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y2" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y2" t="n">
-        <v>10</v>
-      </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="n">
         <v>67</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>81</v>
       </c>
       <c r="AS2" t="n">
         <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>txqKnEdc</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>04/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>22:15</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>COLOMBIA - PRIMERA A</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Atl. Nacional</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD3" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -777,10 +777,10 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
         <v>1.53</v>
@@ -801,7 +801,7 @@
         <v>7.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>15</v>
@@ -810,19 +810,19 @@
         <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
         <v>900</v>
@@ -831,7 +831,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -846,10 +846,10 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
@@ -867,16 +867,16 @@
         <v>2.38</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>txqKnEdc</t>
+          <t>ratYowuH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,173 +728,8181 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ENGLAND - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V2" t="n">
         <v>2.2</v>
       </c>
-      <c r="V2" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC2" t="n">
         <v>15</v>
       </c>
-      <c r="AA2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7</v>
-      </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>900</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
       </c>
       <c r="AJ2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>451</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>jqCRLjz2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7</v>
+      </c>
+      <c r="X3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
         <v>17</v>
       </c>
-      <c r="AK2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL2" t="n">
+      <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM3" t="n">
         <v>41</v>
       </c>
-      <c r="AM2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN2" t="n">
+      <c r="AN3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>vJXfdXBE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>rXmhxCKr</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>zeCiJHet</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
         <v>3.75</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Wp49ygOG</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Atl. Tucuman</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sarmiento Junin</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
         <v>11</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AI7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>fsUnkChG</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ind. Rivadavia</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
         <v>26</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AF8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP8" t="n">
         <v>41</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AQ8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA8" t="n">
         <v>67</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="BB8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pjqawOWp</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>AUSTRALIA - A-LEAGUE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Western United</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Melbourne City</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>17</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W9" t="n">
+        <v>13</v>
+      </c>
+      <c r="X9" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>fT8rSK5A</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>tGmmLIvL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Operario</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nc4p1cmk</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Paysandu PA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
         <v>251</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>hf7hayI1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CpL6NMzi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>BULGARIA - PARVA LIGA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Botev Plovdiv</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W14" t="n">
+        <v>15</v>
+      </c>
+      <c r="X14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>txqKnEdc</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>22:15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T15" t="n">
         <v>2.38</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="U15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y15" t="n">
         <v>9</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="Z15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
         <v>67</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AG15" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX15" t="n">
         <v>6</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AY15" t="n">
         <v>26</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AZ15" t="n">
         <v>41</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="BA15" t="n">
         <v>101</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BB15" t="n">
         <v>151</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BC15" t="n">
         <v>351</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD15" t="n">
         <v>126</v>
       </c>
-      <c r="BD2" t="n">
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AaumjT1M</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DENMARK - SUPERLIGA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>FC Copenhagen</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>zuChyeRl</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ECUADOR - LIGA PRO</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tecnico U.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>U. Catolica</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4WNXteh2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>FRANCE - LIGUE 2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>AC Ajaccio</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W18" t="n">
+        <v>9</v>
+      </c>
+      <c r="X18" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR18" t="n">
         <v>126</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>niN2i2Nj</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ISRAEL - LIGAT HA'AL</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Hapoel Haifa</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W19" t="n">
+        <v>17</v>
+      </c>
+      <c r="X19" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>0WhIerKG</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>JAPAN - J2 LEAGUE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Kumamoto</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Vegalta Sendai</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W20" t="n">
+        <v>9</v>
+      </c>
+      <c r="X20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>v7mD6TE8</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Atlante</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tampico Madero</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6</v>
+      </c>
+      <c r="X21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>500</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>WrBOmjM7</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Jong PSV</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>FC Emmen</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N22" t="n">
+        <v>19</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W22" t="n">
+        <v>17</v>
+      </c>
+      <c r="X22" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>zHHFkCie</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Jong Utrecht</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Maastricht</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N23" t="n">
+        <v>13</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W23" t="n">
+        <v>11</v>
+      </c>
+      <c r="X23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>OlfkLvp9</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Sol de America</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Nacional Asuncion</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8</v>
+      </c>
+      <c r="X24" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>rw7N2WTs</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N25" t="n">
+        <v>13</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6</v>
+      </c>
+      <c r="X25" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>l2nM5b0K</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>POLAND - EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>GKS Katowice</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>11</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GCW0bGhf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>POLAND - EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Zaglebie</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>9</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CzEBrXLa</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Polonia Warszawa</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>S. Rzeszow</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N28" t="n">
+        <v>17</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>13</v>
+      </c>
+      <c r="X28" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EaASvkLO</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Wisla</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tychy</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L29" t="n">
+        <v>8</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N29" t="n">
+        <v>19</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P29" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>pWz7ZINP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>rwqMN8B7</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Tondela</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Oliveirense</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>11</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W31" t="n">
+        <v>7</v>
+      </c>
+      <c r="X31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>0ChQbD15</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Unirea Slobozia</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>FC Botosani</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>dQ60rhHO</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>FC Rapid Bucuresti</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>FC Hermannstadt</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L33" t="n">
+        <v>6</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N33" t="n">
+        <v>11</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>KlZCtGXp</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Mladost</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sp. Subotica</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W34" t="n">
+        <v>6</v>
+      </c>
+      <c r="X34" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4x9G0yPG</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Cukaricki</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2</v>
+      </c>
+      <c r="W35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>400</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>f7kYmbuB</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Jedinstvo U.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>OFK Beograd</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W36" t="n">
+        <v>12</v>
+      </c>
+      <c r="X36" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>28</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>65</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>KCTDqtWs</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N37" t="n">
+        <v>9</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W37" t="n">
+        <v>6</v>
+      </c>
+      <c r="X37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>UatBnfzp</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>15:10</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SWEDEN - ALLSVENSKAN</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Norrkoping</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>AIK</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N38" t="n">
+        <v>9</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W38" t="n">
+        <v>8</v>
+      </c>
+      <c r="X38" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>raGZGNlA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Orgryte</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Ostersund</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N39" t="n">
+        <v>13</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W39" t="n">
+        <v>13</v>
+      </c>
+      <c r="X39" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>W4IPI5u9</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L40" t="n">
+        <v>6</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N40" t="n">
+        <v>11</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X40" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Y7BGrRBs</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N41" t="n">
+        <v>11</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2</v>
+      </c>
+      <c r="W41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>OtG5QqdD</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N42" t="n">
+        <v>9</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CjOlb2fB</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Obolon</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Veres-Rivne</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W43" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X43" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>75</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>400</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>WImGq3uI</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Kryvbas</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Rukh Lviv</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L44" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N44" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W44" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>400</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>vPAs0OPb</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>FK Zorya Luhansk</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>LNZ Cherkasy</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N45" t="n">
+        <v>10</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W45" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X45" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>90</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CYpwIs8l</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Defensor Sp.</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W46" t="n">
+        <v>10</v>
+      </c>
+      <c r="X46" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
